--- a/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
@@ -1,37 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TRAX\python\CCRU\PROS-4714\before\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Changes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Cooler Merch. Stand" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Alcomarket" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
+    <sheet name="Changes" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Cooler Merch. Stand" sheetId="4" r:id="rId4"/>
+    <sheet name="Alcomarket" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$161</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="510">
   <si>
     <t>Sorting</t>
   </si>
@@ -184,7 +189,7 @@
     <t>Представленность SSD</t>
   </si>
   <si>
-    <t>Weighted Average </t>
+    <t>Weighted Average</t>
   </si>
   <si>
     <t>Y</t>
@@ -885,7 +890,7 @@
     <t>Lead SKU</t>
   </si>
   <si>
-    <t>Coca-Cola - 1L share on Display</t>
+    <t>Coca-Cola - 1L share on Display. The competitors are only SSD SKUs</t>
   </si>
   <si>
     <t>SSD Display: Coca-Cola - 1.5L</t>
@@ -894,7 +899,7 @@
     <t>SSD Дисплей: Кока-Кола - 1.5л</t>
   </si>
   <si>
-    <t>Coca-Cola - 1.5L share on Display</t>
+    <t>Coca-Cola - 1.5L share on Display. The competitors are only SSD SKUs</t>
   </si>
   <si>
     <t>Water Display</t>
@@ -1191,7 +1196,7 @@
     <t>Холодильники: Мерч. Стандарты</t>
   </si>
   <si>
-    <t>average of atomic KPI Result</t>
+    <t>average of atomic KPI Score</t>
   </si>
   <si>
     <t>113
@@ -1686,17 +1691,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="D\-MMM"/>
-    <numFmt numFmtId="170" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1705,22 +1704,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1728,7 +1712,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1741,7 +1725,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1754,7 +1738,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1764,6 +1748,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1831,21 +1822,29 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFBFBFBF"/>
       </left>
@@ -1860,7 +1859,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
@@ -1875,470 +1874,348 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="101">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2397,42 +2274,344 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO161"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M111" activeCellId="0" sqref="M111"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="16.42578125"/>
+    <col min="3" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="11.7109375" style="1"/>
+    <col min="8" max="8" width="16.42578125"/>
+    <col min="9" max="11" width="8.5703125"/>
+    <col min="12" max="12" width="13.42578125"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="33" width="8.5703125"/>
+    <col min="34" max="34" width="20.140625"/>
+    <col min="35" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2557,8 +2736,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+    <row r="2" spans="1:41" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2614,10 +2793,10 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="19" t="n">
+      <c r="AK2" s="19">
         <v>2</v>
       </c>
-      <c r="AL2" s="20" t="n">
+      <c r="AL2" s="20">
         <v>1</v>
       </c>
       <c r="AM2" s="21" t="s">
@@ -2626,8 +2805,8 @@
       <c r="AN2" s="22"/>
       <c r="AO2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
+    <row r="3" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2651,7 +2830,7 @@
       <c r="H3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="15">
         <v>1</v>
       </c>
       <c r="J3" s="15"/>
@@ -2659,7 +2838,7 @@
       <c r="L3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="26" t="n">
+      <c r="M3" s="26">
         <v>5449000054227</v>
       </c>
       <c r="N3" s="27"/>
@@ -2690,8 +2869,8 @@
       <c r="AC3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="28" t="n">
-        <v>0.0115188</v>
+      <c r="AD3" s="28">
+        <v>1.1518799999999999E-2</v>
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
@@ -2699,10 +2878,10 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="19" t="n">
+      <c r="AK3" s="19">
         <v>3</v>
       </c>
-      <c r="AL3" s="29" t="n">
+      <c r="AL3" s="29">
         <v>2</v>
       </c>
       <c r="AM3" s="19"/>
@@ -2711,8 +2890,8 @@
       </c>
       <c r="AO3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+    <row r="4" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -2736,7 +2915,7 @@
       <c r="H4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="15">
         <v>1</v>
       </c>
       <c r="J4" s="15"/>
@@ -2744,7 +2923,7 @@
       <c r="L4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="26" t="n">
+      <c r="M4" s="26">
         <v>54491472</v>
       </c>
       <c r="N4" s="27"/>
@@ -2775,8 +2954,8 @@
       <c r="AC4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="28" t="n">
-        <v>0.0115188</v>
+      <c r="AD4" s="28">
+        <v>1.1518799999999999E-2</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -2784,10 +2963,10 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="19" t="n">
+      <c r="AK4" s="19">
         <v>3</v>
       </c>
-      <c r="AL4" s="20" t="n">
+      <c r="AL4" s="20">
         <v>3</v>
       </c>
       <c r="AM4" s="19"/>
@@ -2796,8 +2975,8 @@
       </c>
       <c r="AO4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+    <row r="5" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -2821,7 +3000,7 @@
       <c r="H5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="15">
         <v>1</v>
       </c>
       <c r="J5" s="15"/>
@@ -2829,7 +3008,7 @@
       <c r="L5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="26" t="n">
+      <c r="M5" s="26">
         <v>5449000050939</v>
       </c>
       <c r="N5" s="27"/>
@@ -2860,8 +3039,8 @@
       <c r="AC5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD5" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD5" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
@@ -2869,10 +3048,10 @@
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
-      <c r="AK5" s="19" t="n">
+      <c r="AK5" s="19">
         <v>3</v>
       </c>
-      <c r="AL5" s="29" t="n">
+      <c r="AL5" s="29">
         <v>4</v>
       </c>
       <c r="AM5" s="19"/>
@@ -2881,8 +3060,8 @@
       </c>
       <c r="AO5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+    <row r="6" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -2906,7 +3085,7 @@
       <c r="H6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="15">
         <v>1</v>
       </c>
       <c r="J6" s="15"/>
@@ -2914,7 +3093,7 @@
       <c r="L6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="26" t="n">
+      <c r="M6" s="26">
         <v>5449000006271</v>
       </c>
       <c r="N6" s="27"/>
@@ -2945,8 +3124,8 @@
       <c r="AC6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD6" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
@@ -2954,10 +3133,10 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="19" t="n">
+      <c r="AK6" s="19">
         <v>3</v>
       </c>
-      <c r="AL6" s="20" t="n">
+      <c r="AL6" s="20">
         <v>5</v>
       </c>
       <c r="AM6" s="19"/>
@@ -2966,8 +3145,8 @@
       </c>
       <c r="AO6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
+    <row r="7" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -2991,7 +3170,7 @@
       <c r="H7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="15">
         <v>1</v>
       </c>
       <c r="J7" s="15"/>
@@ -2999,7 +3178,7 @@
       <c r="L7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="26" t="n">
+      <c r="M7" s="26">
         <v>5449000000996</v>
       </c>
       <c r="N7" s="27"/>
@@ -3030,8 +3209,8 @@
       <c r="AC7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD7" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD7" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
@@ -3039,10 +3218,10 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="19" t="n">
+      <c r="AK7" s="19">
         <v>3</v>
       </c>
-      <c r="AL7" s="29" t="n">
+      <c r="AL7" s="29">
         <v>6</v>
       </c>
       <c r="AM7" s="19"/>
@@ -3051,8 +3230,8 @@
       </c>
       <c r="AO7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+    <row r="8" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3076,7 +3255,7 @@
       <c r="H8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="15">
         <v>1</v>
       </c>
       <c r="J8" s="15"/>
@@ -3084,7 +3263,7 @@
       <c r="L8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="26" t="n">
+      <c r="M8" s="26">
         <v>5449000000439</v>
       </c>
       <c r="N8" s="27"/>
@@ -3115,8 +3294,8 @@
       <c r="AC8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD8" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD8" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -3124,10 +3303,10 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="19" t="n">
+      <c r="AK8" s="19">
         <v>3</v>
       </c>
-      <c r="AL8" s="20" t="n">
+      <c r="AL8" s="20">
         <v>7</v>
       </c>
       <c r="AM8" s="19"/>
@@ -3136,8 +3315,8 @@
       </c>
       <c r="AO8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+    <row r="9" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3161,7 +3340,7 @@
       <c r="H9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="15">
         <v>1</v>
       </c>
       <c r="J9" s="15"/>
@@ -3169,7 +3348,7 @@
       <c r="L9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="26" t="n">
+      <c r="M9" s="26">
         <v>54491069</v>
       </c>
       <c r="N9" s="15"/>
@@ -3200,8 +3379,8 @@
       <c r="AC9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD9" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD9" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
@@ -3209,10 +3388,10 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="19" t="n">
+      <c r="AK9" s="19">
         <v>3</v>
       </c>
-      <c r="AL9" s="29" t="n">
+      <c r="AL9" s="29">
         <v>8</v>
       </c>
       <c r="AM9" s="19"/>
@@ -3221,8 +3400,8 @@
       </c>
       <c r="AO9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+    <row r="10" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3246,7 +3425,7 @@
       <c r="H10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="15">
         <v>1</v>
       </c>
       <c r="J10" s="15"/>
@@ -3254,7 +3433,7 @@
       <c r="L10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="26" t="n">
+      <c r="M10" s="26">
         <v>40822938</v>
       </c>
       <c r="N10" s="15"/>
@@ -3285,8 +3464,8 @@
       <c r="AC10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD10" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -3294,10 +3473,10 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="19" t="n">
+      <c r="AK10" s="19">
         <v>3</v>
       </c>
-      <c r="AL10" s="20" t="n">
+      <c r="AL10" s="20">
         <v>9</v>
       </c>
       <c r="AM10" s="19"/>
@@ -3306,8 +3485,8 @@
       </c>
       <c r="AO10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -3331,7 +3510,7 @@
       <c r="H11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="15">
         <v>1</v>
       </c>
       <c r="J11" s="15"/>
@@ -3339,7 +3518,7 @@
       <c r="L11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="26" t="n">
+      <c r="M11" s="26">
         <v>5449000008046</v>
       </c>
       <c r="N11" s="15"/>
@@ -3370,8 +3549,8 @@
       <c r="AC11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD11" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
@@ -3379,10 +3558,10 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="19" t="n">
+      <c r="AK11" s="19">
         <v>3</v>
       </c>
-      <c r="AL11" s="29" t="n">
+      <c r="AL11" s="29">
         <v>10</v>
       </c>
       <c r="AM11" s="19"/>
@@ -3391,8 +3570,8 @@
       </c>
       <c r="AO11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -3416,7 +3595,7 @@
       <c r="H12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="15" t="n">
+      <c r="I12" s="15">
         <v>1</v>
       </c>
       <c r="J12" s="15"/>
@@ -3424,7 +3603,7 @@
       <c r="L12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="26" t="n">
+      <c r="M12" s="26">
         <v>5449000133328</v>
       </c>
       <c r="N12" s="15"/>
@@ -3455,8 +3634,8 @@
       <c r="AC12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="28" t="n">
-        <v>0.0089088</v>
+      <c r="AD12" s="28">
+        <v>8.9087999999999997E-3</v>
       </c>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
@@ -3464,10 +3643,10 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="19" t="n">
+      <c r="AK12" s="19">
         <v>3</v>
       </c>
-      <c r="AL12" s="20" t="n">
+      <c r="AL12" s="20">
         <v>11</v>
       </c>
       <c r="AM12" s="19"/>
@@ -3476,8 +3655,8 @@
       </c>
       <c r="AO12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
+    <row r="13" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3501,7 +3680,7 @@
       <c r="H13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="15">
         <v>1</v>
       </c>
       <c r="J13" s="15"/>
@@ -3509,7 +3688,7 @@
       <c r="L13" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="26" t="n">
+      <c r="M13" s="26">
         <v>5449000131836</v>
       </c>
       <c r="N13" s="15"/>
@@ -3540,8 +3719,8 @@
       <c r="AC13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="28" t="n">
-        <v>0.0089088</v>
+      <c r="AD13" s="28">
+        <v>8.9087999999999997E-3</v>
       </c>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
@@ -3549,10 +3728,10 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="19" t="n">
+      <c r="AK13" s="19">
         <v>3</v>
       </c>
-      <c r="AL13" s="29" t="n">
+      <c r="AL13" s="29">
         <v>12</v>
       </c>
       <c r="AM13" s="19"/>
@@ -3561,8 +3740,8 @@
       </c>
       <c r="AO13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+    <row r="14" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -3586,7 +3765,7 @@
       <c r="H14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="15" t="n">
+      <c r="I14" s="15">
         <v>1</v>
       </c>
       <c r="J14" s="15"/>
@@ -3594,7 +3773,7 @@
       <c r="L14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="26" t="n">
+      <c r="M14" s="26">
         <v>4607042436505</v>
       </c>
       <c r="N14" s="15"/>
@@ -3625,8 +3804,8 @@
       <c r="AC14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="28" t="n">
-        <v>0.0089088</v>
+      <c r="AD14" s="28">
+        <v>8.9087999999999997E-3</v>
       </c>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
@@ -3634,10 +3813,10 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
-      <c r="AK14" s="19" t="n">
+      <c r="AK14" s="19">
         <v>3</v>
       </c>
-      <c r="AL14" s="20" t="n">
+      <c r="AL14" s="20">
         <v>13</v>
       </c>
       <c r="AM14" s="19"/>
@@ -3646,8 +3825,8 @@
       </c>
       <c r="AO14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+    <row r="15" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -3671,7 +3850,7 @@
       <c r="H15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="15" t="n">
+      <c r="I15" s="15">
         <v>1</v>
       </c>
       <c r="J15" s="15"/>
@@ -3679,7 +3858,7 @@
       <c r="L15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="26" t="n">
+      <c r="M15" s="26">
         <v>4607042436109</v>
       </c>
       <c r="N15" s="15"/>
@@ -3710,8 +3889,8 @@
       <c r="AC15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="28" t="n">
-        <v>0.0089088</v>
+      <c r="AD15" s="28">
+        <v>8.9087999999999997E-3</v>
       </c>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
@@ -3719,10 +3898,10 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="19" t="n">
+      <c r="AK15" s="19">
         <v>3</v>
       </c>
-      <c r="AL15" s="29" t="n">
+      <c r="AL15" s="29">
         <v>14</v>
       </c>
       <c r="AM15" s="19"/>
@@ -3731,8 +3910,8 @@
       </c>
       <c r="AO15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+    <row r="16" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -3756,7 +3935,7 @@
       <c r="H16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="15" t="n">
+      <c r="I16" s="15">
         <v>1</v>
       </c>
       <c r="J16" s="15"/>
@@ -3764,7 +3943,7 @@
       <c r="L16" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="26" t="n">
+      <c r="M16" s="26">
         <v>5449000020987</v>
       </c>
       <c r="N16" s="15"/>
@@ -3795,8 +3974,8 @@
       <c r="AC16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD16" s="28" t="n">
-        <v>0.0115014</v>
+      <c r="AD16" s="28">
+        <v>1.15014E-2</v>
       </c>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
@@ -3804,10 +3983,10 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="19" t="n">
+      <c r="AK16" s="19">
         <v>3</v>
       </c>
-      <c r="AL16" s="20" t="n">
+      <c r="AL16" s="20">
         <v>15</v>
       </c>
       <c r="AM16" s="19"/>
@@ -3816,8 +3995,8 @@
       </c>
       <c r="AO16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+    <row r="17" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -3841,7 +4020,7 @@
       <c r="H17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="15">
         <v>1</v>
       </c>
       <c r="J17" s="15"/>
@@ -3849,7 +4028,7 @@
       <c r="L17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="31" t="n">
+      <c r="M17" s="31">
         <v>5449000213693</v>
       </c>
       <c r="N17" s="15"/>
@@ -3880,8 +4059,8 @@
       <c r="AC17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="28" t="n">
-        <v>0.0046632</v>
+      <c r="AD17" s="28">
+        <v>4.6632000000000002E-3</v>
       </c>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
@@ -3889,10 +4068,10 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="19" t="n">
+      <c r="AK17" s="19">
         <v>3</v>
       </c>
-      <c r="AL17" s="29" t="n">
+      <c r="AL17" s="29">
         <v>16</v>
       </c>
       <c r="AM17" s="19"/>
@@ -3901,8 +4080,8 @@
       </c>
       <c r="AO17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -3926,7 +4105,7 @@
       <c r="H18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="15" t="n">
+      <c r="I18" s="15">
         <v>1</v>
       </c>
       <c r="J18" s="15"/>
@@ -3934,7 +4113,7 @@
       <c r="L18" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="26" t="n">
+      <c r="M18" s="26">
         <v>5449000012203</v>
       </c>
       <c r="N18" s="15"/>
@@ -3965,8 +4144,8 @@
       <c r="AC18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="28" t="n">
-        <v>0.0046632</v>
+      <c r="AD18" s="28">
+        <v>4.6632000000000002E-3</v>
       </c>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
@@ -3974,10 +4153,10 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="19" t="n">
+      <c r="AK18" s="19">
         <v>3</v>
       </c>
-      <c r="AL18" s="20" t="n">
+      <c r="AL18" s="20">
         <v>17</v>
       </c>
       <c r="AM18" s="19"/>
@@ -3986,8 +4165,8 @@
       </c>
       <c r="AO18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+    <row r="19" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -4011,7 +4190,7 @@
       <c r="H19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="15" t="n">
+      <c r="I19" s="15">
         <v>1</v>
       </c>
       <c r="J19" s="15"/>
@@ -4019,7 +4198,7 @@
       <c r="L19" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="26" t="n">
+      <c r="M19" s="26">
         <v>5449000052926</v>
       </c>
       <c r="N19" s="15"/>
@@ -4050,8 +4229,8 @@
       <c r="AC19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="28" t="n">
-        <v>0.0046632</v>
+      <c r="AD19" s="28">
+        <v>4.6632000000000002E-3</v>
       </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -4059,10 +4238,10 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="19" t="n">
+      <c r="AK19" s="19">
         <v>3</v>
       </c>
-      <c r="AL19" s="29" t="n">
+      <c r="AL19" s="29">
         <v>18</v>
       </c>
       <c r="AM19" s="19"/>
@@ -4071,8 +4250,8 @@
       </c>
       <c r="AO19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+    <row r="20" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -4096,7 +4275,7 @@
       <c r="H20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="15" t="n">
+      <c r="I20" s="15">
         <v>1</v>
       </c>
       <c r="J20" s="15"/>
@@ -4104,7 +4283,7 @@
       <c r="L20" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="26" t="n">
+      <c r="M20" s="26">
         <v>5449000213631</v>
       </c>
       <c r="N20" s="15"/>
@@ -4135,8 +4314,8 @@
       <c r="AC20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="28" t="n">
-        <v>0.0046632</v>
+      <c r="AD20" s="28">
+        <v>4.6632000000000002E-3</v>
       </c>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
@@ -4144,10 +4323,10 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="19" t="n">
+      <c r="AK20" s="19">
         <v>3</v>
       </c>
-      <c r="AL20" s="20" t="n">
+      <c r="AL20" s="20">
         <v>19</v>
       </c>
       <c r="AM20" s="19"/>
@@ -4156,8 +4335,8 @@
       </c>
       <c r="AO20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
+    <row r="21" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4181,7 +4360,7 @@
       <c r="H21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="15" t="n">
+      <c r="I21" s="15">
         <v>1</v>
       </c>
       <c r="J21" s="15"/>
@@ -4189,7 +4368,7 @@
       <c r="L21" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="26" t="n">
+      <c r="M21" s="26">
         <v>5449000000286</v>
       </c>
       <c r="N21" s="15"/>
@@ -4220,8 +4399,8 @@
       <c r="AC21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="28" t="n">
-        <v>0.0046632</v>
+      <c r="AD21" s="28">
+        <v>4.6632000000000002E-3</v>
       </c>
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
@@ -4229,10 +4408,10 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="19" t="n">
+      <c r="AK21" s="19">
         <v>3</v>
       </c>
-      <c r="AL21" s="29" t="n">
+      <c r="AL21" s="29">
         <v>20</v>
       </c>
       <c r="AM21" s="19"/>
@@ -4241,8 +4420,8 @@
       </c>
       <c r="AO21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+    <row r="22" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -4298,10 +4477,10 @@
       <c r="AH22" s="36"/>
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
-      <c r="AK22" s="19" t="n">
+      <c r="AK22" s="19">
         <v>2</v>
       </c>
-      <c r="AL22" s="20" t="n">
+      <c r="AL22" s="20">
         <v>21</v>
       </c>
       <c r="AM22" s="21" t="s">
@@ -4310,8 +4489,8 @@
       <c r="AN22" s="22"/>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+    <row r="23" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -4335,7 +4514,7 @@
       <c r="H23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="15">
         <v>1</v>
       </c>
       <c r="J23" s="15"/>
@@ -4343,7 +4522,7 @@
       <c r="L23" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="26" t="n">
+      <c r="M23" s="26">
         <v>40822426</v>
       </c>
       <c r="N23" s="15"/>
@@ -4374,8 +4553,8 @@
       <c r="AC23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="28" t="n">
-        <v>0.011503</v>
+      <c r="AD23" s="28">
+        <v>1.1502999999999999E-2</v>
       </c>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
@@ -4383,10 +4562,10 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="19" t="n">
+      <c r="AK23" s="19">
         <v>3</v>
       </c>
-      <c r="AL23" s="29" t="n">
+      <c r="AL23" s="29">
         <v>22</v>
       </c>
       <c r="AM23" s="19"/>
@@ -4395,8 +4574,8 @@
       </c>
       <c r="AO23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+    <row r="24" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -4420,7 +4599,7 @@
       <c r="H24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="15" t="n">
+      <c r="I24" s="15">
         <v>1</v>
       </c>
       <c r="J24" s="15"/>
@@ -4428,7 +4607,7 @@
       <c r="L24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="M24" s="26" t="n">
+      <c r="M24" s="26">
         <v>90494406</v>
       </c>
       <c r="N24" s="15"/>
@@ -4459,8 +4638,8 @@
       <c r="AC24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD24" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
@@ -4468,10 +4647,10 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="19" t="n">
+      <c r="AK24" s="19">
         <v>3</v>
       </c>
-      <c r="AL24" s="20" t="n">
+      <c r="AL24" s="20">
         <v>23</v>
       </c>
       <c r="AM24" s="19"/>
@@ -4480,8 +4659,8 @@
       </c>
       <c r="AO24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+    <row r="25" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -4505,7 +4684,7 @@
       <c r="H25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="15" t="n">
+      <c r="I25" s="15">
         <v>1</v>
       </c>
       <c r="J25" s="15"/>
@@ -4513,7 +4692,7 @@
       <c r="L25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="M25" s="26" t="n">
+      <c r="M25" s="26">
         <v>5449000005489</v>
       </c>
       <c r="N25" s="15"/>
@@ -4544,8 +4723,8 @@
       <c r="AC25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="28" t="n">
-        <v>0.0046556</v>
+      <c r="AD25" s="28">
+        <v>4.6556000000000002E-3</v>
       </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
@@ -4553,10 +4732,10 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="19" t="n">
+      <c r="AK25" s="19">
         <v>3</v>
       </c>
-      <c r="AL25" s="29" t="n">
+      <c r="AL25" s="29">
         <v>24</v>
       </c>
       <c r="AM25" s="19"/>
@@ -4565,8 +4744,8 @@
       </c>
       <c r="AO25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+    <row r="26" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -4590,7 +4769,7 @@
       <c r="H26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="15" t="n">
+      <c r="I26" s="15">
         <v>1</v>
       </c>
       <c r="J26" s="15"/>
@@ -4598,7 +4777,7 @@
       <c r="L26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="26" t="n">
+      <c r="M26" s="26">
         <v>5449000152190</v>
       </c>
       <c r="N26" s="15"/>
@@ -4629,8 +4808,8 @@
       <c r="AC26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="28" t="n">
-        <v>0.004633</v>
+      <c r="AD26" s="28">
+        <v>4.633E-3</v>
       </c>
       <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
@@ -4638,10 +4817,10 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="19" t="n">
+      <c r="AK26" s="19">
         <v>3</v>
       </c>
-      <c r="AL26" s="20" t="n">
+      <c r="AL26" s="20">
         <v>25</v>
       </c>
       <c r="AM26" s="19"/>
@@ -4650,8 +4829,8 @@
       </c>
       <c r="AO26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="n">
+    <row r="27" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -4707,10 +4886,10 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="19" t="n">
+      <c r="AK27" s="19">
         <v>2</v>
       </c>
-      <c r="AL27" s="29" t="n">
+      <c r="AL27" s="29">
         <v>26</v>
       </c>
       <c r="AM27" s="21" t="s">
@@ -4719,8 +4898,8 @@
       <c r="AN27" s="22"/>
       <c r="AO27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+    <row r="28" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -4744,7 +4923,7 @@
       <c r="H28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="15" t="n">
+      <c r="I28" s="15">
         <v>1</v>
       </c>
       <c r="J28" s="15"/>
@@ -4752,7 +4931,7 @@
       <c r="L28" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="26" t="n">
+      <c r="M28" s="26">
         <v>5449000131768</v>
       </c>
       <c r="N28" s="15"/>
@@ -4783,8 +4962,8 @@
       <c r="AC28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="28" t="n">
-        <v>0.011503</v>
+      <c r="AD28" s="28">
+        <v>1.1502999999999999E-2</v>
       </c>
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
@@ -4792,10 +4971,10 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="19" t="n">
+      <c r="AK28" s="19">
         <v>3</v>
       </c>
-      <c r="AL28" s="20" t="n">
+      <c r="AL28" s="20">
         <v>27</v>
       </c>
       <c r="AM28" s="19"/>
@@ -4804,8 +4983,8 @@
       </c>
       <c r="AO28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="n">
+    <row r="29" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -4829,7 +5008,7 @@
       <c r="H29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="15">
         <v>1</v>
       </c>
       <c r="J29" s="15"/>
@@ -4837,7 +5016,7 @@
       <c r="L29" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M29" s="26" t="n">
+      <c r="M29" s="26">
         <v>5060335632906</v>
       </c>
       <c r="N29" s="15"/>
@@ -4868,8 +5047,8 @@
       <c r="AC29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD29" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD29" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
@@ -4877,10 +5056,10 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
-      <c r="AK29" s="19" t="n">
+      <c r="AK29" s="19">
         <v>3</v>
       </c>
-      <c r="AL29" s="29" t="n">
+      <c r="AL29" s="29">
         <v>28</v>
       </c>
       <c r="AM29" s="19"/>
@@ -4889,8 +5068,8 @@
       </c>
       <c r="AO29" s="11"/>
     </row>
-    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+    <row r="30" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -4914,7 +5093,7 @@
       <c r="H30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="15" t="n">
+      <c r="I30" s="15">
         <v>1</v>
       </c>
       <c r="J30" s="15"/>
@@ -4922,7 +5101,7 @@
       <c r="L30" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="M30" s="26" t="n">
+      <c r="M30" s="26">
         <v>5060466510869</v>
       </c>
       <c r="N30" s="15"/>
@@ -4953,8 +5132,8 @@
       <c r="AC30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD30" s="28" t="n">
-        <v>0.0046556</v>
+      <c r="AD30" s="28">
+        <v>4.6556000000000002E-3</v>
       </c>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
@@ -4962,10 +5141,10 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
       <c r="AJ30" s="11"/>
-      <c r="AK30" s="19" t="n">
+      <c r="AK30" s="19">
         <v>3</v>
       </c>
-      <c r="AL30" s="20" t="n">
+      <c r="AL30" s="20">
         <v>29</v>
       </c>
       <c r="AM30" s="19"/>
@@ -4974,8 +5153,8 @@
       </c>
       <c r="AO30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="n">
+    <row r="31" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -5031,10 +5210,10 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
-      <c r="AK31" s="19" t="n">
+      <c r="AK31" s="19">
         <v>2</v>
       </c>
-      <c r="AL31" s="29" t="n">
+      <c r="AL31" s="29">
         <v>30</v>
       </c>
       <c r="AM31" s="36" t="s">
@@ -5043,8 +5222,8 @@
       <c r="AN31" s="22"/>
       <c r="AO31" s="11"/>
     </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+    <row r="32" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5068,7 +5247,7 @@
       <c r="H32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="15" t="n">
+      <c r="I32" s="15">
         <v>1</v>
       </c>
       <c r="J32" s="15"/>
@@ -5076,7 +5255,7 @@
       <c r="L32" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="M32" s="26" t="n">
+      <c r="M32" s="26">
         <v>5449000189301</v>
       </c>
       <c r="N32" s="15"/>
@@ -5107,8 +5286,8 @@
       <c r="AC32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD32" s="28" t="n">
-        <v>0.011503</v>
+      <c r="AD32" s="28">
+        <v>1.1502999999999999E-2</v>
       </c>
       <c r="AE32" s="11"/>
       <c r="AF32" s="11"/>
@@ -5116,10 +5295,10 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
-      <c r="AK32" s="19" t="n">
+      <c r="AK32" s="19">
         <v>3</v>
       </c>
-      <c r="AL32" s="20" t="n">
+      <c r="AL32" s="20">
         <v>31</v>
       </c>
       <c r="AM32" s="19"/>
@@ -5128,8 +5307,8 @@
       </c>
       <c r="AO32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="n">
+    <row r="33" spans="1:41" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -5153,7 +5332,7 @@
       <c r="H33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="15" t="n">
+      <c r="I33" s="15">
         <v>1</v>
       </c>
       <c r="J33" s="15"/>
@@ -5161,7 +5340,7 @@
       <c r="L33" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="26" t="n">
+      <c r="M33" s="26">
         <v>5449000233615</v>
       </c>
       <c r="N33" s="15"/>
@@ -5192,8 +5371,8 @@
       <c r="AC33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD33" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD33" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE33" s="11"/>
       <c r="AF33" s="11"/>
@@ -5201,10 +5380,10 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
-      <c r="AK33" s="19" t="n">
+      <c r="AK33" s="19">
         <v>3</v>
       </c>
-      <c r="AL33" s="29" t="n">
+      <c r="AL33" s="29">
         <v>32</v>
       </c>
       <c r="AM33" s="19"/>
@@ -5213,8 +5392,8 @@
       </c>
       <c r="AO33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+    <row r="34" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -5238,7 +5417,7 @@
       <c r="H34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="15" t="n">
+      <c r="I34" s="15">
         <v>1</v>
       </c>
       <c r="J34" s="15"/>
@@ -5246,7 +5425,7 @@
       <c r="L34" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M34" s="26" t="n">
+      <c r="M34" s="26">
         <v>5449000045720</v>
       </c>
       <c r="N34" s="15"/>
@@ -5277,8 +5456,8 @@
       <c r="AC34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD34" s="28" t="n">
-        <v>0.0046556</v>
+      <c r="AD34" s="28">
+        <v>4.6556000000000002E-3</v>
       </c>
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
@@ -5286,10 +5465,10 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
-      <c r="AK34" s="19" t="n">
+      <c r="AK34" s="19">
         <v>3</v>
       </c>
-      <c r="AL34" s="20" t="n">
+      <c r="AL34" s="20">
         <v>33</v>
       </c>
       <c r="AM34" s="19"/>
@@ -5298,8 +5477,8 @@
       </c>
       <c r="AO34" s="11"/>
     </row>
-    <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="n">
+    <row r="35" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -5323,7 +5502,7 @@
       <c r="H35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="15" t="n">
+      <c r="I35" s="15">
         <v>1</v>
       </c>
       <c r="J35" s="15"/>
@@ -5331,7 +5510,7 @@
       <c r="L35" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="M35" s="26" t="n">
+      <c r="M35" s="26">
         <v>5449000189318</v>
       </c>
       <c r="N35" s="15"/>
@@ -5362,8 +5541,8 @@
       <c r="AC35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="28" t="n">
-        <v>0.004633</v>
+      <c r="AD35" s="28">
+        <v>4.633E-3</v>
       </c>
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
@@ -5371,10 +5550,10 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
-      <c r="AK35" s="19" t="n">
+      <c r="AK35" s="19">
         <v>3</v>
       </c>
-      <c r="AL35" s="29" t="n">
+      <c r="AL35" s="29">
         <v>34</v>
       </c>
       <c r="AM35" s="19"/>
@@ -5383,8 +5562,8 @@
       </c>
       <c r="AO35" s="11"/>
     </row>
-    <row r="36" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+    <row r="36" spans="1:41" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -5440,10 +5619,10 @@
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
-      <c r="AK36" s="19" t="n">
+      <c r="AK36" s="19">
         <v>2</v>
       </c>
-      <c r="AL36" s="20" t="n">
+      <c r="AL36" s="20">
         <v>35</v>
       </c>
       <c r="AM36" s="33" t="s">
@@ -5452,8 +5631,8 @@
       <c r="AN36" s="22"/>
       <c r="AO36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="n">
+    <row r="37" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -5477,7 +5656,7 @@
       <c r="H37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="15" t="n">
+      <c r="I37" s="15">
         <v>1</v>
       </c>
       <c r="J37" s="15"/>
@@ -5485,7 +5664,7 @@
       <c r="L37" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="M37" s="31" t="n">
+      <c r="M37" s="31">
         <v>4607042434877</v>
       </c>
       <c r="N37" s="15"/>
@@ -5516,8 +5695,8 @@
       <c r="AC37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD37" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD37" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
@@ -5525,10 +5704,10 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
-      <c r="AK37" s="19" t="n">
+      <c r="AK37" s="19">
         <v>3</v>
       </c>
-      <c r="AL37" s="29" t="n">
+      <c r="AL37" s="29">
         <v>36</v>
       </c>
       <c r="AM37" s="19"/>
@@ -5537,8 +5716,8 @@
       </c>
       <c r="AO37" s="11"/>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+    <row r="38" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -5562,7 +5741,7 @@
       <c r="H38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="15" t="n">
+      <c r="I38" s="15">
         <v>1</v>
       </c>
       <c r="J38" s="15"/>
@@ -5570,7 +5749,7 @@
       <c r="L38" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="M38" s="26" t="n">
+      <c r="M38" s="26">
         <v>4607042434891</v>
       </c>
       <c r="N38" s="15"/>
@@ -5601,8 +5780,8 @@
       <c r="AC38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD38" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE38" s="11"/>
       <c r="AF38" s="11"/>
@@ -5610,10 +5789,10 @@
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
-      <c r="AK38" s="19" t="n">
+      <c r="AK38" s="19">
         <v>3</v>
       </c>
-      <c r="AL38" s="20" t="n">
+      <c r="AL38" s="20">
         <v>37</v>
       </c>
       <c r="AM38" s="19"/>
@@ -5622,8 +5801,8 @@
       </c>
       <c r="AO38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="n">
+    <row r="39" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -5647,7 +5826,7 @@
       <c r="H39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="15" t="n">
+      <c r="I39" s="15">
         <v>1</v>
       </c>
       <c r="J39" s="15"/>
@@ -5655,7 +5834,7 @@
       <c r="L39" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="M39" s="26" t="n">
+      <c r="M39" s="26">
         <v>4607042438738</v>
       </c>
       <c r="N39" s="15"/>
@@ -5686,8 +5865,8 @@
       <c r="AC39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD39" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD39" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
@@ -5695,10 +5874,10 @@
       <c r="AH39" s="11"/>
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
-      <c r="AK39" s="19" t="n">
+      <c r="AK39" s="19">
         <v>3</v>
       </c>
-      <c r="AL39" s="29" t="n">
+      <c r="AL39" s="29">
         <v>38</v>
       </c>
       <c r="AM39" s="19"/>
@@ -5707,8 +5886,8 @@
       </c>
       <c r="AO39" s="11"/>
     </row>
-    <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+    <row r="40" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -5732,7 +5911,7 @@
       <c r="H40" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="15" t="n">
+      <c r="I40" s="15">
         <v>1</v>
       </c>
       <c r="J40" s="15"/>
@@ -5740,7 +5919,7 @@
       <c r="L40" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="M40" s="26" t="n">
+      <c r="M40" s="26">
         <v>4607042438950</v>
       </c>
       <c r="N40" s="15"/>
@@ -5771,8 +5950,8 @@
       <c r="AC40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD40" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
@@ -5780,10 +5959,10 @@
       <c r="AH40" s="11"/>
       <c r="AI40" s="11"/>
       <c r="AJ40" s="11"/>
-      <c r="AK40" s="19" t="n">
+      <c r="AK40" s="19">
         <v>3</v>
       </c>
-      <c r="AL40" s="20" t="n">
+      <c r="AL40" s="20">
         <v>39</v>
       </c>
       <c r="AM40" s="19"/>
@@ -5792,8 +5971,8 @@
       </c>
       <c r="AO40" s="11"/>
     </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="n">
+    <row r="41" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -5817,7 +5996,7 @@
       <c r="H41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="15" t="n">
+      <c r="I41" s="15">
         <v>1</v>
       </c>
       <c r="J41" s="15"/>
@@ -5825,7 +6004,7 @@
       <c r="L41" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="M41" s="26" t="n">
+      <c r="M41" s="26">
         <v>4607042434884</v>
       </c>
       <c r="N41" s="15"/>
@@ -5856,8 +6035,8 @@
       <c r="AC41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD41" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
@@ -5865,10 +6044,10 @@
       <c r="AH41" s="11"/>
       <c r="AI41" s="11"/>
       <c r="AJ41" s="11"/>
-      <c r="AK41" s="19" t="n">
+      <c r="AK41" s="19">
         <v>3</v>
       </c>
-      <c r="AL41" s="29" t="n">
+      <c r="AL41" s="29">
         <v>40</v>
       </c>
       <c r="AM41" s="19"/>
@@ -5877,8 +6056,8 @@
       </c>
       <c r="AO41" s="11"/>
     </row>
-    <row r="42" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+    <row r="42" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5902,7 +6081,7 @@
       <c r="H42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="15" t="n">
+      <c r="I42" s="15">
         <v>1</v>
       </c>
       <c r="J42" s="15"/>
@@ -5910,7 +6089,7 @@
       <c r="L42" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M42" s="26" t="n">
+      <c r="M42" s="26">
         <v>4607174577787</v>
       </c>
       <c r="N42" s="15"/>
@@ -5941,8 +6120,8 @@
       <c r="AC42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD42" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD42" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
@@ -5950,10 +6129,10 @@
       <c r="AH42" s="11"/>
       <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
-      <c r="AK42" s="19" t="n">
+      <c r="AK42" s="19">
         <v>3</v>
       </c>
-      <c r="AL42" s="20" t="n">
+      <c r="AL42" s="20">
         <v>41</v>
       </c>
       <c r="AM42" s="19"/>
@@ -5962,8 +6141,8 @@
       </c>
       <c r="AO42" s="11"/>
     </row>
-    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="n">
+    <row r="43" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -5987,7 +6166,7 @@
       <c r="H43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="15" t="n">
+      <c r="I43" s="15">
         <v>1</v>
       </c>
       <c r="J43" s="15"/>
@@ -5995,7 +6174,7 @@
       <c r="L43" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="M43" s="31" t="n">
+      <c r="M43" s="31">
         <v>4607042430619</v>
       </c>
       <c r="N43" s="15"/>
@@ -6026,8 +6205,8 @@
       <c r="AC43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD43" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
@@ -6035,10 +6214,10 @@
       <c r="AH43" s="11"/>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11"/>
-      <c r="AK43" s="19" t="n">
+      <c r="AK43" s="19">
         <v>3</v>
       </c>
-      <c r="AL43" s="29" t="n">
+      <c r="AL43" s="29">
         <v>42</v>
       </c>
       <c r="AM43" s="19"/>
@@ -6047,8 +6226,8 @@
       </c>
       <c r="AO43" s="11"/>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+    <row r="44" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -6072,7 +6251,7 @@
       <c r="H44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="15" t="n">
+      <c r="I44" s="15">
         <v>1</v>
       </c>
       <c r="J44" s="15"/>
@@ -6080,7 +6259,7 @@
       <c r="L44" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="M44" s="26" t="n">
+      <c r="M44" s="26">
         <v>4607042430565</v>
       </c>
       <c r="N44" s="15"/>
@@ -6111,8 +6290,8 @@
       <c r="AC44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="28" t="n">
-        <v>0.0115034</v>
+      <c r="AD44" s="28">
+        <v>1.15034E-2</v>
       </c>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
@@ -6120,10 +6299,10 @@
       <c r="AH44" s="11"/>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
-      <c r="AK44" s="19" t="n">
+      <c r="AK44" s="19">
         <v>3</v>
       </c>
-      <c r="AL44" s="20" t="n">
+      <c r="AL44" s="20">
         <v>43</v>
       </c>
       <c r="AM44" s="19"/>
@@ -6132,8 +6311,8 @@
       </c>
       <c r="AO44" s="11"/>
     </row>
-    <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="n">
+    <row r="45" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -6157,7 +6336,7 @@
       <c r="H45" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="15" t="n">
+      <c r="I45" s="15">
         <v>1</v>
       </c>
       <c r="J45" s="15"/>
@@ -6165,7 +6344,7 @@
       <c r="L45" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M45" s="31" t="n">
+      <c r="M45" s="31">
         <v>4607174577794</v>
       </c>
       <c r="N45" s="15"/>
@@ -6196,8 +6375,8 @@
       <c r="AC45" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD45" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
@@ -6205,10 +6384,10 @@
       <c r="AH45" s="11"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="11"/>
-      <c r="AK45" s="19" t="n">
+      <c r="AK45" s="19">
         <v>3</v>
       </c>
-      <c r="AL45" s="29" t="n">
+      <c r="AL45" s="29">
         <v>44</v>
       </c>
       <c r="AM45" s="19"/>
@@ -6217,8 +6396,8 @@
       </c>
       <c r="AO45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+    <row r="46" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -6242,7 +6421,7 @@
       <c r="H46" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="15" t="n">
+      <c r="I46" s="15">
         <v>1</v>
       </c>
       <c r="J46" s="15"/>
@@ -6250,7 +6429,7 @@
       <c r="L46" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="M46" s="26" t="n">
+      <c r="M46" s="26">
         <v>4607174577145</v>
       </c>
       <c r="N46" s="15"/>
@@ -6281,8 +6460,8 @@
       <c r="AC46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD46" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD46" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
@@ -6290,10 +6469,10 @@
       <c r="AH46" s="11"/>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="11"/>
-      <c r="AK46" s="19" t="n">
+      <c r="AK46" s="19">
         <v>3</v>
       </c>
-      <c r="AL46" s="20" t="n">
+      <c r="AL46" s="20">
         <v>45</v>
       </c>
       <c r="AM46" s="19"/>
@@ -6302,8 +6481,8 @@
       </c>
       <c r="AO46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="n">
+    <row r="47" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -6327,7 +6506,7 @@
       <c r="H47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="15" t="n">
+      <c r="I47" s="15">
         <v>1</v>
       </c>
       <c r="J47" s="15"/>
@@ -6335,7 +6514,7 @@
       <c r="L47" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="M47" s="31" t="n">
+      <c r="M47" s="31">
         <v>4607042431388</v>
       </c>
       <c r="N47" s="15"/>
@@ -6366,8 +6545,8 @@
       <c r="AC47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD47" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD47" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
@@ -6375,10 +6554,10 @@
       <c r="AH47" s="11"/>
       <c r="AI47" s="11"/>
       <c r="AJ47" s="11"/>
-      <c r="AK47" s="19" t="n">
+      <c r="AK47" s="19">
         <v>3</v>
       </c>
-      <c r="AL47" s="29" t="n">
+      <c r="AL47" s="29">
         <v>46</v>
       </c>
       <c r="AM47" s="19"/>
@@ -6387,8 +6566,8 @@
       </c>
       <c r="AO47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+    <row r="48" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -6412,7 +6591,7 @@
       <c r="H48" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="15" t="n">
+      <c r="I48" s="15">
         <v>1</v>
       </c>
       <c r="J48" s="15"/>
@@ -6420,7 +6599,7 @@
       <c r="L48" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M48" s="26" t="n">
+      <c r="M48" s="26">
         <v>4607042431333</v>
       </c>
       <c r="N48" s="15"/>
@@ -6451,8 +6630,8 @@
       <c r="AC48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD48" s="28" t="n">
-        <v>0.0089044</v>
+      <c r="AD48" s="28">
+        <v>8.9043999999999998E-3</v>
       </c>
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
@@ -6460,10 +6639,10 @@
       <c r="AH48" s="11"/>
       <c r="AI48" s="11"/>
       <c r="AJ48" s="11"/>
-      <c r="AK48" s="19" t="n">
+      <c r="AK48" s="19">
         <v>3</v>
       </c>
-      <c r="AL48" s="20" t="n">
+      <c r="AL48" s="20">
         <v>47</v>
       </c>
       <c r="AM48" s="19"/>
@@ -6472,8 +6651,8 @@
       </c>
       <c r="AO48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="n">
+    <row r="49" spans="1:41" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -6497,7 +6676,7 @@
       <c r="H49" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="15" t="n">
+      <c r="I49" s="15">
         <v>1</v>
       </c>
       <c r="J49" s="15"/>
@@ -6505,7 +6684,7 @@
       <c r="L49" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="M49" s="31" t="n">
+      <c r="M49" s="31">
         <v>4607174579729</v>
       </c>
       <c r="N49" s="15"/>
@@ -6536,8 +6715,8 @@
       <c r="AC49" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD49" s="28" t="n">
-        <v>0.0046334</v>
+      <c r="AD49" s="28">
+        <v>4.6334000000000002E-3</v>
       </c>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
@@ -6545,10 +6724,10 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="19" t="n">
+      <c r="AK49" s="19">
         <v>3</v>
       </c>
-      <c r="AL49" s="29" t="n">
+      <c r="AL49" s="29">
         <v>48</v>
       </c>
       <c r="AM49" s="21"/>
@@ -6557,8 +6736,8 @@
       </c>
       <c r="AO49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+    <row r="50" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -6582,7 +6761,7 @@
       <c r="H50" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="15" t="n">
+      <c r="I50" s="15">
         <v>1</v>
       </c>
       <c r="J50" s="15"/>
@@ -6590,7 +6769,7 @@
       <c r="L50" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="M50" s="26" t="n">
+      <c r="M50" s="26">
         <v>4607174579309</v>
       </c>
       <c r="N50" s="15"/>
@@ -6621,8 +6800,8 @@
       <c r="AC50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="28" t="n">
-        <v>0.0046334</v>
+      <c r="AD50" s="28">
+        <v>4.6334000000000002E-3</v>
       </c>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
@@ -6630,10 +6809,10 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="19" t="n">
+      <c r="AK50" s="19">
         <v>3</v>
       </c>
-      <c r="AL50" s="20" t="n">
+      <c r="AL50" s="20">
         <v>49</v>
       </c>
       <c r="AM50" s="38"/>
@@ -6642,8 +6821,8 @@
       </c>
       <c r="AO50" s="12"/>
     </row>
-    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="n">
+    <row r="51" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -6667,7 +6846,7 @@
       <c r="H51" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="15" t="n">
+      <c r="I51" s="15">
         <v>1</v>
       </c>
       <c r="J51" s="15"/>
@@ -6675,7 +6854,7 @@
       <c r="L51" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="M51" s="26" t="n">
+      <c r="M51" s="26">
         <v>4607174579286</v>
       </c>
       <c r="N51" s="15"/>
@@ -6706,8 +6885,8 @@
       <c r="AC51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD51" s="28" t="n">
-        <v>0.0046334</v>
+      <c r="AD51" s="28">
+        <v>4.6334000000000002E-3</v>
       </c>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
@@ -6715,10 +6894,10 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="11"/>
-      <c r="AK51" s="19" t="n">
+      <c r="AK51" s="19">
         <v>3</v>
       </c>
-      <c r="AL51" s="29" t="n">
+      <c r="AL51" s="29">
         <v>50</v>
       </c>
       <c r="AM51" s="19"/>
@@ -6727,8 +6906,8 @@
       </c>
       <c r="AO51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+    <row r="52" spans="1:41" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -6784,10 +6963,10 @@
       <c r="AH52" s="11"/>
       <c r="AI52" s="11"/>
       <c r="AJ52" s="11"/>
-      <c r="AK52" s="19" t="n">
+      <c r="AK52" s="19">
         <v>2</v>
       </c>
-      <c r="AL52" s="20" t="n">
+      <c r="AL52" s="20">
         <v>51</v>
       </c>
       <c r="AM52" s="33" t="s">
@@ -6796,8 +6975,8 @@
       <c r="AN52" s="22"/>
       <c r="AO52" s="11"/>
     </row>
-    <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="n">
+    <row r="53" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -6821,7 +7000,7 @@
       <c r="H53" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I53" s="15" t="n">
+      <c r="I53" s="15">
         <v>1</v>
       </c>
       <c r="J53" s="17"/>
@@ -6829,7 +7008,7 @@
       <c r="L53" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="M53" s="27" t="n">
+      <c r="M53" s="27">
         <v>4607042431029</v>
       </c>
       <c r="N53" s="18"/>
@@ -6860,8 +7039,8 @@
       <c r="AC53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD53" s="40" t="n">
-        <v>0.00455</v>
+      <c r="AD53" s="40">
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
@@ -6869,10 +7048,10 @@
       <c r="AH53" s="11"/>
       <c r="AI53" s="11"/>
       <c r="AJ53" s="11"/>
-      <c r="AK53" s="19" t="n">
+      <c r="AK53" s="19">
         <v>3</v>
       </c>
-      <c r="AL53" s="29" t="n">
+      <c r="AL53" s="29">
         <v>52</v>
       </c>
       <c r="AM53" s="19"/>
@@ -6881,8 +7060,8 @@
       </c>
       <c r="AO53" s="11"/>
     </row>
-    <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+    <row r="54" spans="1:41" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -6906,7 +7085,7 @@
       <c r="H54" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="15" t="n">
+      <c r="I54" s="15">
         <v>1</v>
       </c>
       <c r="J54" s="15"/>
@@ -6914,7 +7093,7 @@
       <c r="L54" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="M54" s="43" t="n">
+      <c r="M54" s="43">
         <v>5449000241467</v>
       </c>
       <c r="N54" s="15"/>
@@ -6945,8 +7124,8 @@
       <c r="AC54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD54" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD54" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE54" s="11"/>
       <c r="AF54" s="11"/>
@@ -6954,10 +7133,10 @@
       <c r="AH54" s="11"/>
       <c r="AI54" s="11"/>
       <c r="AJ54" s="11"/>
-      <c r="AK54" s="19" t="n">
+      <c r="AK54" s="19">
         <v>3</v>
       </c>
-      <c r="AL54" s="20" t="n">
+      <c r="AL54" s="20">
         <v>53</v>
       </c>
       <c r="AM54" s="19"/>
@@ -6966,8 +7145,8 @@
       </c>
       <c r="AO54" s="11"/>
     </row>
-    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="n">
+    <row r="55" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -6991,7 +7170,7 @@
       <c r="H55" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="15" t="n">
+      <c r="I55" s="15">
         <v>1</v>
       </c>
       <c r="J55" s="15"/>
@@ -6999,7 +7178,7 @@
       <c r="L55" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="M55" s="26" t="n">
+      <c r="M55" s="26">
         <v>4607042431692</v>
       </c>
       <c r="N55" s="15"/>
@@ -7030,8 +7209,8 @@
       <c r="AC55" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD55" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD55" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
@@ -7039,10 +7218,10 @@
       <c r="AH55" s="11"/>
       <c r="AI55" s="11"/>
       <c r="AJ55" s="11"/>
-      <c r="AK55" s="19" t="n">
+      <c r="AK55" s="19">
         <v>3</v>
       </c>
-      <c r="AL55" s="29" t="n">
+      <c r="AL55" s="29">
         <v>54</v>
       </c>
       <c r="AM55" s="19"/>
@@ -7051,8 +7230,8 @@
       </c>
       <c r="AO55" s="11"/>
     </row>
-    <row r="56" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+    <row r="56" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -7076,7 +7255,7 @@
       <c r="H56" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="15" t="n">
+      <c r="I56" s="15">
         <v>1</v>
       </c>
       <c r="J56" s="15"/>
@@ -7084,7 +7263,7 @@
       <c r="L56" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="M56" s="26" t="n">
+      <c r="M56" s="26">
         <v>5449000172228</v>
       </c>
       <c r="N56" s="15"/>
@@ -7115,8 +7294,8 @@
       <c r="AC56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD56" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD56" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE56" s="11"/>
       <c r="AF56" s="11"/>
@@ -7124,10 +7303,10 @@
       <c r="AH56" s="11"/>
       <c r="AI56" s="11"/>
       <c r="AJ56" s="11"/>
-      <c r="AK56" s="19" t="n">
+      <c r="AK56" s="19">
         <v>3</v>
       </c>
-      <c r="AL56" s="20" t="n">
+      <c r="AL56" s="20">
         <v>55</v>
       </c>
       <c r="AM56" s="19"/>
@@ -7136,8 +7315,8 @@
       </c>
       <c r="AO56" s="11"/>
     </row>
-    <row r="57" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="n">
+    <row r="57" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -7161,7 +7340,7 @@
       <c r="H57" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I57" s="15" t="n">
+      <c r="I57" s="15">
         <v>1</v>
       </c>
       <c r="J57" s="15"/>
@@ -7169,7 +7348,7 @@
       <c r="L57" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="M57" s="26" t="n">
+      <c r="M57" s="26">
         <v>4607042431685</v>
       </c>
       <c r="N57" s="15"/>
@@ -7200,8 +7379,8 @@
       <c r="AC57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD57" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD57" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE57" s="11"/>
       <c r="AF57" s="11"/>
@@ -7209,10 +7388,10 @@
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11"/>
-      <c r="AK57" s="19" t="n">
+      <c r="AK57" s="19">
         <v>3</v>
       </c>
-      <c r="AL57" s="29" t="n">
+      <c r="AL57" s="29">
         <v>56</v>
       </c>
       <c r="AM57" s="19"/>
@@ -7221,8 +7400,8 @@
       </c>
       <c r="AO57" s="11"/>
     </row>
-    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+    <row r="58" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -7246,7 +7425,7 @@
       <c r="H58" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I58" s="15" t="n">
+      <c r="I58" s="15">
         <v>1</v>
       </c>
       <c r="J58" s="15"/>
@@ -7254,7 +7433,7 @@
       <c r="L58" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M58" s="26" t="n">
+      <c r="M58" s="26">
         <v>5449000214263</v>
       </c>
       <c r="N58" s="15"/>
@@ -7285,8 +7464,8 @@
       <c r="AC58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD58" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
@@ -7294,10 +7473,10 @@
       <c r="AH58" s="11"/>
       <c r="AI58" s="11"/>
       <c r="AJ58" s="11"/>
-      <c r="AK58" s="19" t="n">
+      <c r="AK58" s="19">
         <v>3</v>
       </c>
-      <c r="AL58" s="20" t="n">
+      <c r="AL58" s="20">
         <v>57</v>
       </c>
       <c r="AM58" s="19"/>
@@ -7306,8 +7485,8 @@
       </c>
       <c r="AO58" s="11"/>
     </row>
-    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23" t="n">
+    <row r="59" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
@@ -7331,7 +7510,7 @@
       <c r="H59" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I59" s="15" t="n">
+      <c r="I59" s="15">
         <v>1</v>
       </c>
       <c r="J59" s="15"/>
@@ -7339,7 +7518,7 @@
       <c r="L59" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="M59" s="26" t="n">
+      <c r="M59" s="26">
         <v>4650075420980</v>
       </c>
       <c r="N59" s="15"/>
@@ -7370,8 +7549,8 @@
       <c r="AC59" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD59" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD59" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
@@ -7379,10 +7558,10 @@
       <c r="AH59" s="11"/>
       <c r="AI59" s="11"/>
       <c r="AJ59" s="11"/>
-      <c r="AK59" s="19" t="n">
+      <c r="AK59" s="19">
         <v>3</v>
       </c>
-      <c r="AL59" s="29" t="n">
+      <c r="AL59" s="29">
         <v>58</v>
       </c>
       <c r="AM59" s="19"/>
@@ -7391,8 +7570,8 @@
       </c>
       <c r="AO59" s="11"/>
     </row>
-    <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+    <row r="60" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -7416,7 +7595,7 @@
       <c r="H60" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I60" s="15" t="n">
+      <c r="I60" s="15">
         <v>1</v>
       </c>
       <c r="J60" s="15"/>
@@ -7424,7 +7603,7 @@
       <c r="L60" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="M60" s="26" t="n">
+      <c r="M60" s="26">
         <v>4650075420287</v>
       </c>
       <c r="N60" s="15"/>
@@ -7455,8 +7634,8 @@
       <c r="AC60" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD60" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD60" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE60" s="11"/>
       <c r="AF60" s="11"/>
@@ -7464,10 +7643,10 @@
       <c r="AH60" s="11"/>
       <c r="AI60" s="11"/>
       <c r="AJ60" s="11"/>
-      <c r="AK60" s="19" t="n">
+      <c r="AK60" s="19">
         <v>3</v>
       </c>
-      <c r="AL60" s="20" t="n">
+      <c r="AL60" s="20">
         <v>59</v>
       </c>
       <c r="AM60" s="19"/>
@@ -7476,8 +7655,8 @@
       </c>
       <c r="AO60" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23" t="n">
+    <row r="61" spans="1:41" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -7501,7 +7680,7 @@
       <c r="H61" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="15" t="n">
+      <c r="I61" s="15">
         <v>1</v>
       </c>
       <c r="J61" s="15"/>
@@ -7509,7 +7688,7 @@
       <c r="L61" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="M61" s="26" t="n">
+      <c r="M61" s="26">
         <v>4650075421147</v>
       </c>
       <c r="N61" s="15"/>
@@ -7540,8 +7719,8 @@
       <c r="AC61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD61" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD61" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
@@ -7549,10 +7728,10 @@
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
-      <c r="AK61" s="19" t="n">
+      <c r="AK61" s="19">
         <v>3</v>
       </c>
-      <c r="AL61" s="29" t="n">
+      <c r="AL61" s="29">
         <v>60</v>
       </c>
       <c r="AM61" s="21"/>
@@ -7561,8 +7740,8 @@
       </c>
       <c r="AO61" s="12"/>
     </row>
-    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
+    <row r="62" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -7586,7 +7765,7 @@
       <c r="H62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I62" s="15" t="n">
+      <c r="I62" s="15">
         <v>1</v>
       </c>
       <c r="J62" s="15"/>
@@ -7594,7 +7773,7 @@
       <c r="L62" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="M62" s="26" t="n">
+      <c r="M62" s="26">
         <v>4607042430824</v>
       </c>
       <c r="N62" s="15"/>
@@ -7625,8 +7804,8 @@
       <c r="AC62" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD62" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE62" s="11"/>
       <c r="AF62" s="11"/>
@@ -7634,10 +7813,10 @@
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
       <c r="AJ62" s="11"/>
-      <c r="AK62" s="19" t="n">
+      <c r="AK62" s="19">
         <v>3</v>
       </c>
-      <c r="AL62" s="20" t="n">
+      <c r="AL62" s="20">
         <v>61</v>
       </c>
       <c r="AM62" s="19"/>
@@ -7646,8 +7825,8 @@
       </c>
       <c r="AO62" s="11"/>
     </row>
-    <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="n">
+    <row r="63" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -7671,7 +7850,7 @@
       <c r="H63" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I63" s="15" t="n">
+      <c r="I63" s="15">
         <v>1</v>
       </c>
       <c r="J63" s="15"/>
@@ -7679,7 +7858,7 @@
       <c r="L63" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="M63" s="26" t="n">
+      <c r="M63" s="26">
         <v>4607042430886</v>
       </c>
       <c r="N63" s="15"/>
@@ -7710,8 +7889,8 @@
       <c r="AC63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD63" s="40" t="n">
-        <v>0.004545</v>
+      <c r="AD63" s="40">
+        <v>4.5450000000000004E-3</v>
       </c>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
@@ -7719,10 +7898,10 @@
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
-      <c r="AK63" s="19" t="n">
+      <c r="AK63" s="19">
         <v>3</v>
       </c>
-      <c r="AL63" s="29" t="n">
+      <c r="AL63" s="29">
         <v>62</v>
       </c>
       <c r="AM63" s="19"/>
@@ -7731,8 +7910,8 @@
       </c>
       <c r="AO63" s="11"/>
     </row>
-    <row r="64" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
+    <row r="64" spans="1:41" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -7788,10 +7967,10 @@
       <c r="AH64" s="11"/>
       <c r="AI64" s="11"/>
       <c r="AJ64" s="11"/>
-      <c r="AK64" s="19" t="n">
+      <c r="AK64" s="19">
         <v>2</v>
       </c>
-      <c r="AL64" s="20" t="n">
+      <c r="AL64" s="20">
         <v>63</v>
       </c>
       <c r="AM64" s="33" t="s">
@@ -7800,8 +7979,8 @@
       <c r="AN64" s="22"/>
       <c r="AO64" s="11"/>
     </row>
-    <row r="65" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="n">
+    <row r="65" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -7825,7 +8004,7 @@
       <c r="H65" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I65" s="15" t="n">
+      <c r="I65" s="15">
         <v>1</v>
       </c>
       <c r="J65" s="15"/>
@@ -7833,7 +8012,7 @@
       <c r="L65" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="M65" s="46" t="n">
+      <c r="M65" s="46">
         <v>5449000131805</v>
       </c>
       <c r="N65" s="15"/>
@@ -7864,8 +8043,8 @@
       <c r="AC65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="47" t="n">
-        <v>0.003575</v>
+      <c r="AD65" s="47">
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="AE65" s="11"/>
       <c r="AF65" s="11"/>
@@ -7873,10 +8052,10 @@
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
       <c r="AJ65" s="11"/>
-      <c r="AK65" s="19" t="n">
+      <c r="AK65" s="19">
         <v>3</v>
       </c>
-      <c r="AL65" s="29" t="n">
+      <c r="AL65" s="29">
         <v>64</v>
       </c>
       <c r="AM65" s="19"/>
@@ -7885,8 +8064,8 @@
       </c>
       <c r="AO65" s="11"/>
     </row>
-    <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
+    <row r="66" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -7910,7 +8089,7 @@
       <c r="H66" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I66" s="15" t="n">
+      <c r="I66" s="15">
         <v>1</v>
       </c>
       <c r="J66" s="15"/>
@@ -7918,7 +8097,7 @@
       <c r="L66" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="M66" s="48" t="n">
+      <c r="M66" s="48">
         <v>5449000044839</v>
       </c>
       <c r="N66" s="15"/>
@@ -7949,8 +8128,8 @@
       <c r="AC66" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD66" s="47" t="n">
-        <v>0.003575</v>
+      <c r="AD66" s="47">
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="AE66" s="11"/>
       <c r="AF66" s="11"/>
@@ -7958,10 +8137,10 @@
       <c r="AH66" s="11"/>
       <c r="AI66" s="11"/>
       <c r="AJ66" s="11"/>
-      <c r="AK66" s="19" t="n">
+      <c r="AK66" s="19">
         <v>3</v>
       </c>
-      <c r="AL66" s="20" t="n">
+      <c r="AL66" s="20">
         <v>65</v>
       </c>
       <c r="AM66" s="19"/>
@@ -7970,8 +8149,8 @@
       </c>
       <c r="AO66" s="11"/>
     </row>
-    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23" t="n">
+    <row r="67" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
         <v>66</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -7995,7 +8174,7 @@
       <c r="H67" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I67" s="15" t="n">
+      <c r="I67" s="15">
         <v>1</v>
       </c>
       <c r="J67" s="15"/>
@@ -8003,7 +8182,7 @@
       <c r="L67" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="M67" s="48" t="n">
+      <c r="M67" s="48">
         <v>54490130</v>
       </c>
       <c r="N67" s="15"/>
@@ -8034,8 +8213,8 @@
       <c r="AC67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="47" t="n">
-        <v>0.003575</v>
+      <c r="AD67" s="47">
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="AE67" s="11"/>
       <c r="AF67" s="11"/>
@@ -8043,10 +8222,10 @@
       <c r="AH67" s="11"/>
       <c r="AI67" s="11"/>
       <c r="AJ67" s="11"/>
-      <c r="AK67" s="19" t="n">
+      <c r="AK67" s="19">
         <v>3</v>
       </c>
-      <c r="AL67" s="29" t="n">
+      <c r="AL67" s="29">
         <v>66</v>
       </c>
       <c r="AM67" s="19"/>
@@ -8055,8 +8234,8 @@
       </c>
       <c r="AO67" s="11"/>
     </row>
-    <row r="68" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
+    <row r="68" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -8080,7 +8259,7 @@
       <c r="H68" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I68" s="15" t="n">
+      <c r="I68" s="15">
         <v>1</v>
       </c>
       <c r="J68" s="15"/>
@@ -8088,7 +8267,7 @@
       <c r="L68" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="M68" s="48" t="n">
+      <c r="M68" s="48">
         <v>5449000044808</v>
       </c>
       <c r="N68" s="15"/>
@@ -8119,8 +8298,8 @@
       <c r="AC68" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD68" s="47" t="n">
-        <v>0.003575</v>
+      <c r="AD68" s="47">
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="AE68" s="11"/>
       <c r="AF68" s="11"/>
@@ -8128,10 +8307,10 @@
       <c r="AH68" s="11"/>
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
-      <c r="AK68" s="19" t="n">
+      <c r="AK68" s="19">
         <v>3</v>
       </c>
-      <c r="AL68" s="20" t="n">
+      <c r="AL68" s="20">
         <v>67</v>
       </c>
       <c r="AM68" s="19"/>
@@ -8140,8 +8319,8 @@
       </c>
       <c r="AO68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23" t="n">
+    <row r="69" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -8165,7 +8344,7 @@
       <c r="H69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I69" s="15" t="n">
+      <c r="I69" s="15">
         <v>1</v>
       </c>
       <c r="J69" s="15"/>
@@ -8173,7 +8352,7 @@
       <c r="L69" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="M69" s="48" t="n">
+      <c r="M69" s="48">
         <v>5449000026583</v>
       </c>
       <c r="N69" s="15"/>
@@ -8204,8 +8383,8 @@
       <c r="AC69" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD69" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE69" s="11"/>
       <c r="AF69" s="11"/>
@@ -8213,10 +8392,10 @@
       <c r="AH69" s="11"/>
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
-      <c r="AK69" s="19" t="n">
+      <c r="AK69" s="19">
         <v>3</v>
       </c>
-      <c r="AL69" s="29" t="n">
+      <c r="AL69" s="29">
         <v>68</v>
       </c>
       <c r="AM69" s="19"/>
@@ -8225,8 +8404,8 @@
       </c>
       <c r="AO69" s="11"/>
     </row>
-    <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
+    <row r="70" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -8250,7 +8429,7 @@
       <c r="H70" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I70" s="15" t="n">
+      <c r="I70" s="15">
         <v>1</v>
       </c>
       <c r="J70" s="15"/>
@@ -8258,7 +8437,7 @@
       <c r="L70" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="M70" s="48" t="n">
+      <c r="M70" s="48">
         <v>5449000148056</v>
       </c>
       <c r="N70" s="15"/>
@@ -8289,8 +8468,8 @@
       <c r="AC70" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD70" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD70" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE70" s="11"/>
       <c r="AF70" s="11"/>
@@ -8298,10 +8477,10 @@
       <c r="AH70" s="11"/>
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
-      <c r="AK70" s="19" t="n">
+      <c r="AK70" s="19">
         <v>3</v>
       </c>
-      <c r="AL70" s="20" t="n">
+      <c r="AL70" s="20">
         <v>69</v>
       </c>
       <c r="AM70" s="19"/>
@@ -8310,8 +8489,8 @@
       </c>
       <c r="AO70" s="11"/>
     </row>
-    <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23" t="n">
+    <row r="71" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
         <v>70</v>
       </c>
       <c r="B71" s="14" t="s">
@@ -8335,7 +8514,7 @@
       <c r="H71" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I71" s="15" t="n">
+      <c r="I71" s="15">
         <v>1</v>
       </c>
       <c r="J71" s="15"/>
@@ -8343,7 +8522,7 @@
       <c r="L71" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="M71" s="48" t="n">
+      <c r="M71" s="48">
         <v>5449000233509</v>
       </c>
       <c r="N71" s="15"/>
@@ -8374,8 +8553,8 @@
       <c r="AC71" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD71" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD71" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE71" s="11"/>
       <c r="AF71" s="11"/>
@@ -8383,10 +8562,10 @@
       <c r="AH71" s="11"/>
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
-      <c r="AK71" s="19" t="n">
+      <c r="AK71" s="19">
         <v>3</v>
       </c>
-      <c r="AL71" s="29" t="n">
+      <c r="AL71" s="29">
         <v>70</v>
       </c>
       <c r="AM71" s="19"/>
@@ -8395,8 +8574,8 @@
       </c>
       <c r="AO71" s="11"/>
     </row>
-    <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
+    <row r="72" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -8420,7 +8599,7 @@
       <c r="H72" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I72" s="15" t="n">
+      <c r="I72" s="15">
         <v>1</v>
       </c>
       <c r="J72" s="15"/>
@@ -8428,7 +8607,7 @@
       <c r="L72" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="M72" s="46" t="n">
+      <c r="M72" s="46">
         <v>4607174579736</v>
       </c>
       <c r="N72" s="15"/>
@@ -8459,8 +8638,8 @@
       <c r="AC72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD72" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD72" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE72" s="11"/>
       <c r="AF72" s="11"/>
@@ -8468,10 +8647,10 @@
       <c r="AH72" s="11"/>
       <c r="AI72" s="11"/>
       <c r="AJ72" s="11"/>
-      <c r="AK72" s="19" t="n">
+      <c r="AK72" s="19">
         <v>3</v>
       </c>
-      <c r="AL72" s="20" t="n">
+      <c r="AL72" s="20">
         <v>71</v>
       </c>
       <c r="AM72" s="19"/>
@@ -8480,8 +8659,8 @@
       </c>
       <c r="AO72" s="11"/>
     </row>
-    <row r="73" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23" t="n">
+    <row r="73" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -8505,7 +8684,7 @@
       <c r="H73" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I73" s="15" t="n">
+      <c r="I73" s="15">
         <v>1</v>
       </c>
       <c r="J73" s="15"/>
@@ -8513,7 +8692,7 @@
       <c r="L73" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M73" s="48" t="n">
+      <c r="M73" s="48">
         <v>4607042438967</v>
       </c>
       <c r="N73" s="15"/>
@@ -8544,8 +8723,8 @@
       <c r="AC73" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD73" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD73" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE73" s="11"/>
       <c r="AF73" s="11"/>
@@ -8553,10 +8732,10 @@
       <c r="AH73" s="11"/>
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
-      <c r="AK73" s="19" t="n">
+      <c r="AK73" s="19">
         <v>3</v>
       </c>
-      <c r="AL73" s="29" t="n">
+      <c r="AL73" s="29">
         <v>72</v>
       </c>
       <c r="AM73" s="19"/>
@@ -8565,8 +8744,8 @@
       </c>
       <c r="AO73" s="11"/>
     </row>
-    <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
+    <row r="74" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
@@ -8590,7 +8769,7 @@
       <c r="H74" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I74" s="15" t="n">
+      <c r="I74" s="15">
         <v>1</v>
       </c>
       <c r="J74" s="15"/>
@@ -8598,7 +8777,7 @@
       <c r="L74" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="M74" s="48" t="n">
+      <c r="M74" s="48">
         <v>4607042439216</v>
       </c>
       <c r="N74" s="15"/>
@@ -8629,8 +8808,8 @@
       <c r="AC74" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD74" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD74" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE74" s="11"/>
       <c r="AF74" s="11"/>
@@ -8638,10 +8817,10 @@
       <c r="AH74" s="11"/>
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
-      <c r="AK74" s="19" t="n">
+      <c r="AK74" s="19">
         <v>3</v>
       </c>
-      <c r="AL74" s="20" t="n">
+      <c r="AL74" s="20">
         <v>73</v>
       </c>
       <c r="AM74" s="19"/>
@@ -8650,8 +8829,8 @@
       </c>
       <c r="AO74" s="11"/>
     </row>
-    <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="n">
+    <row r="75" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -8675,7 +8854,7 @@
       <c r="H75" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I75" s="15" t="n">
+      <c r="I75" s="15">
         <v>1</v>
       </c>
       <c r="J75" s="15"/>
@@ -8683,7 +8862,7 @@
       <c r="L75" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="M75" s="46" t="n">
+      <c r="M75" s="46">
         <v>4607042439223</v>
       </c>
       <c r="N75" s="15"/>
@@ -8714,8 +8893,8 @@
       <c r="AC75" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD75" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD75" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE75" s="11"/>
       <c r="AF75" s="11"/>
@@ -8723,10 +8902,10 @@
       <c r="AH75" s="11"/>
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
-      <c r="AK75" s="19" t="n">
+      <c r="AK75" s="19">
         <v>3</v>
       </c>
-      <c r="AL75" s="29" t="n">
+      <c r="AL75" s="29">
         <v>74</v>
       </c>
       <c r="AM75" s="19"/>
@@ -8735,8 +8914,8 @@
       </c>
       <c r="AO75" s="11"/>
     </row>
-    <row r="76" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
+    <row r="76" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
@@ -8760,7 +8939,7 @@
       <c r="H76" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I76" s="15" t="n">
+      <c r="I76" s="15">
         <v>1</v>
       </c>
       <c r="J76" s="15"/>
@@ -8768,7 +8947,7 @@
       <c r="L76" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="M76" s="46" t="n">
+      <c r="M76" s="46">
         <v>4607042439155</v>
       </c>
       <c r="N76" s="15"/>
@@ -8799,8 +8978,8 @@
       <c r="AC76" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD76" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD76" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE76" s="11"/>
       <c r="AF76" s="11"/>
@@ -8808,10 +8987,10 @@
       <c r="AH76" s="11"/>
       <c r="AI76" s="11"/>
       <c r="AJ76" s="11"/>
-      <c r="AK76" s="19" t="n">
+      <c r="AK76" s="19">
         <v>3</v>
       </c>
-      <c r="AL76" s="20" t="n">
+      <c r="AL76" s="20">
         <v>75</v>
       </c>
       <c r="AM76" s="19"/>
@@ -8820,8 +8999,8 @@
       </c>
       <c r="AO76" s="11"/>
     </row>
-    <row r="77" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="23" t="n">
+    <row r="77" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -8845,7 +9024,7 @@
       <c r="H77" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I77" s="15" t="n">
+      <c r="I77" s="15">
         <v>1</v>
       </c>
       <c r="J77" s="15"/>
@@ -8853,7 +9032,7 @@
       <c r="L77" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="M77" s="48" t="n">
+      <c r="M77" s="48">
         <v>4607174574908</v>
       </c>
       <c r="N77" s="15"/>
@@ -8884,8 +9063,8 @@
       <c r="AC77" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD77" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD77" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE77" s="11"/>
       <c r="AF77" s="11"/>
@@ -8893,10 +9072,10 @@
       <c r="AH77" s="11"/>
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
-      <c r="AK77" s="19" t="n">
+      <c r="AK77" s="19">
         <v>3</v>
       </c>
-      <c r="AL77" s="29" t="n">
+      <c r="AL77" s="29">
         <v>76</v>
       </c>
       <c r="AM77" s="19"/>
@@ -8905,8 +9084,8 @@
       </c>
       <c r="AO77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="n">
+    <row r="78" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
         <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
@@ -8930,7 +9109,7 @@
       <c r="H78" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I78" s="15" t="n">
+      <c r="I78" s="15">
         <v>1</v>
       </c>
       <c r="J78" s="15"/>
@@ -8938,7 +9117,7 @@
       <c r="L78" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="M78" s="50" t="n">
+      <c r="M78" s="50">
         <v>4607174577947</v>
       </c>
       <c r="N78" s="15"/>
@@ -8969,8 +9148,8 @@
       <c r="AC78" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD78" s="47" t="n">
-        <v>0.00357</v>
+      <c r="AD78" s="47">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="AE78" s="11"/>
       <c r="AF78" s="11"/>
@@ -8978,10 +9157,10 @@
       <c r="AH78" s="11"/>
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
-      <c r="AK78" s="19" t="n">
+      <c r="AK78" s="19">
         <v>3</v>
       </c>
-      <c r="AL78" s="20" t="n">
+      <c r="AL78" s="20">
         <v>77</v>
       </c>
       <c r="AM78" s="19"/>
@@ -8990,8 +9169,8 @@
       </c>
       <c r="AO78" s="11"/>
     </row>
-    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23" t="n">
+    <row r="79" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
         <v>78</v>
       </c>
       <c r="B79" s="51" t="s">
@@ -9015,7 +9194,7 @@
       <c r="H79" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I79" s="52" t="n">
+      <c r="I79" s="52">
         <v>0.5</v>
       </c>
       <c r="J79" s="16"/>
@@ -9050,7 +9229,7 @@
       <c r="AC79" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD79" s="54" t="n">
+      <c r="AD79" s="54">
         <v>0.04</v>
       </c>
       <c r="AE79" s="16"/>
@@ -9059,18 +9238,18 @@
       <c r="AH79" s="16"/>
       <c r="AI79" s="16"/>
       <c r="AJ79" s="16"/>
-      <c r="AK79" s="11" t="n">
+      <c r="AK79" s="11">
         <v>2</v>
       </c>
-      <c r="AL79" s="29" t="n">
+      <c r="AL79" s="29">
         <v>78</v>
       </c>
       <c r="AM79" s="11"/>
       <c r="AN79" s="55"/>
       <c r="AO79" s="11"/>
     </row>
-    <row r="80" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="n">
+    <row r="80" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
         <v>79</v>
       </c>
       <c r="B80" s="51" t="s">
@@ -9094,7 +9273,7 @@
       <c r="H80" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I80" s="52" t="n">
+      <c r="I80" s="52">
         <v>0.15</v>
       </c>
       <c r="J80" s="16"/>
@@ -9129,8 +9308,8 @@
       <c r="AC80" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD80" s="56" t="n">
-        <v>0.025</v>
+      <c r="AD80" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE80" s="16"/>
       <c r="AF80" s="16"/>
@@ -9138,18 +9317,18 @@
       <c r="AH80" s="16"/>
       <c r="AI80" s="16"/>
       <c r="AJ80" s="16"/>
-      <c r="AK80" s="11" t="n">
+      <c r="AK80" s="11">
         <v>2</v>
       </c>
-      <c r="AL80" s="20" t="n">
+      <c r="AL80" s="20">
         <v>79</v>
       </c>
       <c r="AM80" s="11"/>
       <c r="AN80" s="55"/>
       <c r="AO80" s="11"/>
     </row>
-    <row r="81" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23" t="n">
+    <row r="81" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
         <v>80</v>
       </c>
       <c r="B81" s="51" t="s">
@@ -9173,7 +9352,7 @@
       <c r="H81" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I81" s="52" t="n">
+      <c r="I81" s="52">
         <v>0.4</v>
       </c>
       <c r="J81" s="16"/>
@@ -9208,7 +9387,7 @@
       <c r="AC81" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD81" s="56" t="n">
+      <c r="AD81" s="56">
         <v>0.04</v>
       </c>
       <c r="AE81" s="16"/>
@@ -9217,18 +9396,18 @@
       <c r="AH81" s="16"/>
       <c r="AI81" s="16"/>
       <c r="AJ81" s="16"/>
-      <c r="AK81" s="11" t="n">
+      <c r="AK81" s="11">
         <v>2</v>
       </c>
-      <c r="AL81" s="29" t="n">
+      <c r="AL81" s="29">
         <v>80</v>
       </c>
       <c r="AM81" s="11"/>
       <c r="AN81" s="55"/>
       <c r="AO81" s="11"/>
     </row>
-    <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="n">
+    <row r="82" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
         <v>81</v>
       </c>
       <c r="B82" s="51" t="s">
@@ -9252,7 +9431,7 @@
       <c r="H82" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I82" s="52" t="n">
+      <c r="I82" s="52">
         <v>0.45</v>
       </c>
       <c r="J82" s="16"/>
@@ -9287,8 +9466,8 @@
       <c r="AC82" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD82" s="56" t="n">
-        <v>0.025</v>
+      <c r="AD82" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE82" s="16"/>
       <c r="AF82" s="16"/>
@@ -9296,18 +9475,18 @@
       <c r="AH82" s="16"/>
       <c r="AI82" s="16"/>
       <c r="AJ82" s="16"/>
-      <c r="AK82" s="11" t="n">
+      <c r="AK82" s="11">
         <v>2</v>
       </c>
-      <c r="AL82" s="20" t="n">
+      <c r="AL82" s="20">
         <v>81</v>
       </c>
       <c r="AM82" s="11"/>
       <c r="AN82" s="55"/>
       <c r="AO82" s="11"/>
     </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23" t="n">
+    <row r="83" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
         <v>82</v>
       </c>
       <c r="B83" s="51" t="s">
@@ -9331,7 +9510,7 @@
       <c r="H83" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I83" s="52" t="n">
+      <c r="I83" s="52">
         <v>0.35</v>
       </c>
       <c r="J83" s="16"/>
@@ -9366,7 +9545,7 @@
       <c r="AC83" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD83" s="56" t="n">
+      <c r="AD83" s="56">
         <v>0.02</v>
       </c>
       <c r="AE83" s="16"/>
@@ -9375,18 +9554,18 @@
       <c r="AH83" s="16"/>
       <c r="AI83" s="16"/>
       <c r="AJ83" s="16"/>
-      <c r="AK83" s="11" t="n">
+      <c r="AK83" s="11">
         <v>2</v>
       </c>
-      <c r="AL83" s="29" t="n">
+      <c r="AL83" s="29">
         <v>82</v>
       </c>
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="11"/>
     </row>
-    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="n">
+    <row r="84" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
         <v>83</v>
       </c>
       <c r="B84" s="51" t="s">
@@ -9410,7 +9589,7 @@
       <c r="H84" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I84" s="16" t="n">
+      <c r="I84" s="16">
         <v>2</v>
       </c>
       <c r="J84" s="16"/>
@@ -9441,8 +9620,8 @@
       <c r="AC84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD84" s="56" t="n">
-        <v>0.024</v>
+      <c r="AD84" s="56">
+        <v>2.4E-2</v>
       </c>
       <c r="AE84" s="16"/>
       <c r="AF84" s="16"/>
@@ -9450,10 +9629,10 @@
       <c r="AH84" s="16"/>
       <c r="AI84" s="16"/>
       <c r="AJ84" s="16"/>
-      <c r="AK84" s="11" t="n">
+      <c r="AK84" s="11">
         <v>2</v>
       </c>
-      <c r="AL84" s="20" t="n">
+      <c r="AL84" s="20">
         <v>83</v>
       </c>
       <c r="AM84" s="59" t="s">
@@ -9462,8 +9641,8 @@
       <c r="AN84" s="11"/>
       <c r="AO84" s="11"/>
     </row>
-    <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23" t="n">
+    <row r="85" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
         <v>84</v>
       </c>
       <c r="B85" s="51" t="s">
@@ -9487,7 +9666,7 @@
       <c r="H85" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I85" s="16" t="n">
+      <c r="I85" s="16">
         <v>10</v>
       </c>
       <c r="J85" s="16"/>
@@ -9524,7 +9703,7 @@
       <c r="AC85" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD85" s="56" t="n">
+      <c r="AD85" s="56">
         <v>0</v>
       </c>
       <c r="AE85" s="16"/>
@@ -9533,10 +9712,10 @@
       <c r="AH85" s="16"/>
       <c r="AI85" s="16"/>
       <c r="AJ85" s="16"/>
-      <c r="AK85" s="11" t="n">
+      <c r="AK85" s="11">
         <v>3</v>
       </c>
-      <c r="AL85" s="29" t="n">
+      <c r="AL85" s="29">
         <v>84</v>
       </c>
       <c r="AM85" s="11"/>
@@ -9545,8 +9724,8 @@
       </c>
       <c r="AO85" s="11"/>
     </row>
-    <row r="86" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="n">
+    <row r="86" spans="1:41" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
         <v>85</v>
       </c>
       <c r="B86" s="51" t="s">
@@ -9570,7 +9749,7 @@
       <c r="H86" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="I86" s="16" t="n">
+      <c r="I86" s="16">
         <v>1</v>
       </c>
       <c r="J86" s="16"/>
@@ -9601,7 +9780,7 @@
       <c r="AC86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD86" s="56" t="n">
+      <c r="AD86" s="56">
         <v>0</v>
       </c>
       <c r="AE86" s="16"/>
@@ -9610,10 +9789,10 @@
       <c r="AH86" s="16"/>
       <c r="AI86" s="16"/>
       <c r="AJ86" s="16"/>
-      <c r="AK86" s="11" t="n">
+      <c r="AK86" s="11">
         <v>3</v>
       </c>
-      <c r="AL86" s="20" t="n">
+      <c r="AL86" s="20">
         <v>85</v>
       </c>
       <c r="AM86" s="59" t="s">
@@ -9624,8 +9803,8 @@
       </c>
       <c r="AO86" s="11"/>
     </row>
-    <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="n">
+    <row r="87" spans="1:41" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
         <v>86</v>
       </c>
       <c r="B87" s="51" t="s">
@@ -9655,10 +9834,12 @@
       <c r="L87" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M87" s="64" t="n">
+      <c r="M87" s="64">
         <v>5449000054227</v>
       </c>
-      <c r="N87" s="65"/>
+      <c r="N87" s="65" t="s">
+        <v>223</v>
+      </c>
       <c r="O87" s="65"/>
       <c r="P87" s="11" t="s">
         <v>53</v>
@@ -9684,7 +9865,7 @@
       <c r="AC87" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD87" s="56" t="n">
+      <c r="AD87" s="56">
         <v>0</v>
       </c>
       <c r="AE87" s="16"/>
@@ -9695,10 +9876,10 @@
       </c>
       <c r="AI87" s="16"/>
       <c r="AJ87" s="16"/>
-      <c r="AK87" s="11" t="n">
+      <c r="AK87" s="11">
         <v>4</v>
       </c>
-      <c r="AL87" s="29" t="n">
+      <c r="AL87" s="29">
         <v>86</v>
       </c>
       <c r="AM87" s="11"/>
@@ -9707,8 +9888,8 @@
       </c>
       <c r="AO87" s="11"/>
     </row>
-    <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="n">
+    <row r="88" spans="1:41" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
         <v>87</v>
       </c>
       <c r="B88" s="51" t="s">
@@ -9738,10 +9919,12 @@
       <c r="L88" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="M88" s="64" t="n">
+      <c r="M88" s="64">
         <v>5449000000439</v>
       </c>
-      <c r="N88" s="65"/>
+      <c r="N88" s="65" t="s">
+        <v>223</v>
+      </c>
       <c r="O88" s="65"/>
       <c r="P88" s="11" t="s">
         <v>53</v>
@@ -9767,7 +9950,7 @@
       <c r="AC88" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD88" s="56" t="n">
+      <c r="AD88" s="56">
         <v>0</v>
       </c>
       <c r="AE88" s="16"/>
@@ -9778,10 +9961,10 @@
       </c>
       <c r="AI88" s="16"/>
       <c r="AJ88" s="16"/>
-      <c r="AK88" s="11" t="n">
+      <c r="AK88" s="11">
         <v>4</v>
       </c>
-      <c r="AL88" s="20" t="n">
+      <c r="AL88" s="20">
         <v>87</v>
       </c>
       <c r="AM88" s="11"/>
@@ -9790,8 +9973,8 @@
       </c>
       <c r="AO88" s="11"/>
     </row>
-    <row r="89" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="23" t="n">
+    <row r="89" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
         <v>88</v>
       </c>
       <c r="B89" s="51" t="s">
@@ -9815,7 +9998,7 @@
       <c r="H89" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I89" s="16" t="n">
+      <c r="I89" s="16">
         <v>2</v>
       </c>
       <c r="J89" s="16"/>
@@ -9846,8 +10029,8 @@
       <c r="AC89" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD89" s="56" t="n">
-        <v>0.024</v>
+      <c r="AD89" s="56">
+        <v>2.4E-2</v>
       </c>
       <c r="AE89" s="16"/>
       <c r="AF89" s="16"/>
@@ -9855,10 +10038,10 @@
       <c r="AH89" s="16"/>
       <c r="AI89" s="16"/>
       <c r="AJ89" s="16"/>
-      <c r="AK89" s="11" t="n">
+      <c r="AK89" s="11">
         <v>2</v>
       </c>
-      <c r="AL89" s="29" t="n">
+      <c r="AL89" s="29">
         <v>88</v>
       </c>
       <c r="AM89" s="59" t="s">
@@ -9867,8 +10050,8 @@
       <c r="AN89" s="11"/>
       <c r="AO89" s="11"/>
     </row>
-    <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="n">
+    <row r="90" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
         <v>89</v>
       </c>
       <c r="B90" s="51" t="s">
@@ -9892,7 +10075,7 @@
       <c r="H90" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I90" s="16" t="n">
+      <c r="I90" s="16">
         <v>10</v>
       </c>
       <c r="J90" s="16"/>
@@ -9929,7 +10112,7 @@
       <c r="AC90" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD90" s="56" t="n">
+      <c r="AD90" s="56">
         <v>0</v>
       </c>
       <c r="AE90" s="16"/>
@@ -9938,10 +10121,10 @@
       <c r="AH90" s="16"/>
       <c r="AI90" s="16"/>
       <c r="AJ90" s="16"/>
-      <c r="AK90" s="11" t="n">
+      <c r="AK90" s="11">
         <v>3</v>
       </c>
-      <c r="AL90" s="20" t="n">
+      <c r="AL90" s="20">
         <v>89</v>
       </c>
       <c r="AM90" s="11"/>
@@ -9950,8 +10133,8 @@
       </c>
       <c r="AO90" s="11"/>
     </row>
-    <row r="91" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="23" t="n">
+    <row r="91" spans="1:41" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
         <v>90</v>
       </c>
       <c r="B91" s="51" t="s">
@@ -9981,7 +10164,7 @@
       <c r="L91" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="M91" s="64" t="n">
+      <c r="M91" s="64">
         <v>5449000005489</v>
       </c>
       <c r="N91" s="53"/>
@@ -10010,7 +10193,7 @@
       <c r="AC91" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD91" s="56" t="n">
+      <c r="AD91" s="56">
         <v>0</v>
       </c>
       <c r="AE91" s="16"/>
@@ -10021,10 +10204,10 @@
       </c>
       <c r="AI91" s="16"/>
       <c r="AJ91" s="16"/>
-      <c r="AK91" s="11" t="n">
+      <c r="AK91" s="11">
         <v>3</v>
       </c>
-      <c r="AL91" s="29" t="n">
+      <c r="AL91" s="29">
         <v>90</v>
       </c>
       <c r="AM91" s="11"/>
@@ -10033,8 +10216,8 @@
       </c>
       <c r="AO91" s="11"/>
     </row>
-    <row r="92" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="n">
+    <row r="92" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
         <v>91</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -10058,7 +10241,7 @@
       <c r="H92" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I92" s="16" t="n">
+      <c r="I92" s="16">
         <v>2</v>
       </c>
       <c r="J92" s="16"/>
@@ -10089,8 +10272,8 @@
       <c r="AC92" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD92" s="56" t="n">
-        <v>0.024</v>
+      <c r="AD92" s="56">
+        <v>2.4E-2</v>
       </c>
       <c r="AE92" s="16"/>
       <c r="AF92" s="16"/>
@@ -10098,10 +10281,10 @@
       <c r="AH92" s="16"/>
       <c r="AI92" s="16"/>
       <c r="AJ92" s="16"/>
-      <c r="AK92" s="11" t="n">
+      <c r="AK92" s="11">
         <v>2</v>
       </c>
-      <c r="AL92" s="20" t="n">
+      <c r="AL92" s="20">
         <v>91</v>
       </c>
       <c r="AM92" s="59" t="s">
@@ -10110,8 +10293,8 @@
       <c r="AN92" s="11"/>
       <c r="AO92" s="11"/>
     </row>
-    <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23" t="n">
+    <row r="93" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
         <v>92</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -10135,7 +10318,7 @@
       <c r="H93" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I93" s="16" t="n">
+      <c r="I93" s="16">
         <v>10</v>
       </c>
       <c r="J93" s="16"/>
@@ -10172,7 +10355,7 @@
       <c r="AC93" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD93" s="56" t="n">
+      <c r="AD93" s="56">
         <v>0</v>
       </c>
       <c r="AE93" s="16"/>
@@ -10181,10 +10364,10 @@
       <c r="AH93" s="16"/>
       <c r="AI93" s="16"/>
       <c r="AJ93" s="16"/>
-      <c r="AK93" s="11" t="n">
+      <c r="AK93" s="11">
         <v>3</v>
       </c>
-      <c r="AL93" s="29" t="n">
+      <c r="AL93" s="29">
         <v>92</v>
       </c>
       <c r="AM93" s="11"/>
@@ -10193,8 +10376,8 @@
       </c>
       <c r="AO93" s="11"/>
     </row>
-    <row r="94" customFormat="false" ht="108" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="n">
+    <row r="94" spans="1:41" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
         <v>93</v>
       </c>
       <c r="B94" s="51" t="s">
@@ -10218,7 +10401,7 @@
       <c r="H94" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="I94" s="16" t="n">
+      <c r="I94" s="16">
         <v>1</v>
       </c>
       <c r="J94" s="16"/>
@@ -10249,7 +10432,7 @@
       <c r="AC94" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD94" s="56" t="n">
+      <c r="AD94" s="56">
         <v>0</v>
       </c>
       <c r="AE94" s="16"/>
@@ -10258,10 +10441,10 @@
       <c r="AH94" s="16"/>
       <c r="AI94" s="16"/>
       <c r="AJ94" s="16"/>
-      <c r="AK94" s="11" t="n">
+      <c r="AK94" s="11">
         <v>3</v>
       </c>
-      <c r="AL94" s="20" t="n">
+      <c r="AL94" s="20">
         <v>93</v>
       </c>
       <c r="AM94" s="59" t="s">
@@ -10272,8 +10455,8 @@
       </c>
       <c r="AO94" s="11"/>
     </row>
-    <row r="95" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="23" t="n">
+    <row r="95" spans="1:41" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
         <v>94</v>
       </c>
       <c r="B95" s="51" t="s">
@@ -10303,7 +10486,7 @@
       <c r="L95" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="M95" s="68" t="n">
+      <c r="M95" s="68">
         <v>4607042434877</v>
       </c>
       <c r="N95" s="65"/>
@@ -10332,7 +10515,7 @@
       <c r="AC95" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD95" s="56" t="n">
+      <c r="AD95" s="56">
         <v>0</v>
       </c>
       <c r="AE95" s="16"/>
@@ -10343,10 +10526,10 @@
       </c>
       <c r="AI95" s="16"/>
       <c r="AJ95" s="16"/>
-      <c r="AK95" s="11" t="n">
+      <c r="AK95" s="11">
         <v>4</v>
       </c>
-      <c r="AL95" s="29" t="n">
+      <c r="AL95" s="29">
         <v>94</v>
       </c>
       <c r="AM95" s="11"/>
@@ -10355,8 +10538,8 @@
       </c>
       <c r="AO95" s="11"/>
     </row>
-    <row r="96" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="n">
+    <row r="96" spans="1:41" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
         <v>95</v>
       </c>
       <c r="B96" s="51" t="s">
@@ -10386,7 +10569,7 @@
       <c r="L96" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="M96" s="65" t="n">
+      <c r="M96" s="65">
         <v>4607042434891</v>
       </c>
       <c r="N96" s="65"/>
@@ -10415,7 +10598,7 @@
       <c r="AC96" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD96" s="56" t="n">
+      <c r="AD96" s="56">
         <v>0</v>
       </c>
       <c r="AE96" s="16"/>
@@ -10426,10 +10609,10 @@
       </c>
       <c r="AI96" s="16"/>
       <c r="AJ96" s="16"/>
-      <c r="AK96" s="11" t="n">
+      <c r="AK96" s="11">
         <v>4</v>
       </c>
-      <c r="AL96" s="20" t="n">
+      <c r="AL96" s="20">
         <v>95</v>
       </c>
       <c r="AM96" s="11"/>
@@ -10438,8 +10621,8 @@
       </c>
       <c r="AO96" s="11"/>
     </row>
-    <row r="97" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="n">
+    <row r="97" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
         <v>96</v>
       </c>
       <c r="B97" s="51" t="s">
@@ -10463,7 +10646,7 @@
       <c r="H97" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I97" s="16" t="n">
+      <c r="I97" s="16">
         <v>1</v>
       </c>
       <c r="J97" s="16"/>
@@ -10494,8 +10677,8 @@
       <c r="AC97" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD97" s="56" t="n">
-        <v>0.024</v>
+      <c r="AD97" s="56">
+        <v>2.4E-2</v>
       </c>
       <c r="AE97" s="16"/>
       <c r="AF97" s="16"/>
@@ -10503,10 +10686,10 @@
       <c r="AH97" s="16"/>
       <c r="AI97" s="16"/>
       <c r="AJ97" s="16"/>
-      <c r="AK97" s="11" t="n">
+      <c r="AK97" s="11">
         <v>2</v>
       </c>
-      <c r="AL97" s="29" t="n">
+      <c r="AL97" s="29">
         <v>96</v>
       </c>
       <c r="AM97" s="59" t="s">
@@ -10515,8 +10698,8 @@
       <c r="AN97" s="11"/>
       <c r="AO97" s="11"/>
     </row>
-    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="n">
+    <row r="98" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
         <v>97</v>
       </c>
       <c r="B98" s="51" t="s">
@@ -10540,7 +10723,7 @@
       <c r="H98" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I98" s="16" t="n">
+      <c r="I98" s="16">
         <v>10</v>
       </c>
       <c r="J98" s="16"/>
@@ -10577,7 +10760,7 @@
       <c r="AC98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD98" s="56" t="n">
+      <c r="AD98" s="56">
         <v>0</v>
       </c>
       <c r="AE98" s="16"/>
@@ -10586,10 +10769,10 @@
       <c r="AH98" s="16"/>
       <c r="AI98" s="16"/>
       <c r="AJ98" s="16"/>
-      <c r="AK98" s="11" t="n">
+      <c r="AK98" s="11">
         <v>3</v>
       </c>
-      <c r="AL98" s="20" t="n">
+      <c r="AL98" s="20">
         <v>97</v>
       </c>
       <c r="AM98" s="11"/>
@@ -10598,8 +10781,8 @@
       </c>
       <c r="AO98" s="11"/>
     </row>
-    <row r="99" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23" t="n">
+    <row r="99" spans="1:41" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
         <v>98</v>
       </c>
       <c r="B99" s="51" t="s">
@@ -10623,7 +10806,7 @@
       <c r="H99" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="I99" s="16" t="n">
+      <c r="I99" s="16">
         <v>1</v>
       </c>
       <c r="J99" s="16"/>
@@ -10654,7 +10837,7 @@
       <c r="AC99" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD99" s="56" t="n">
+      <c r="AD99" s="56">
         <v>0</v>
       </c>
       <c r="AE99" s="16"/>
@@ -10663,10 +10846,10 @@
       <c r="AH99" s="16"/>
       <c r="AI99" s="16"/>
       <c r="AJ99" s="16"/>
-      <c r="AK99" s="11" t="n">
+      <c r="AK99" s="11">
         <v>3</v>
       </c>
-      <c r="AL99" s="29" t="n">
+      <c r="AL99" s="29">
         <v>98</v>
       </c>
       <c r="AM99" s="59" t="s">
@@ -10677,8 +10860,8 @@
       </c>
       <c r="AO99" s="11"/>
     </row>
-    <row r="100" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="n">
+    <row r="100" spans="1:41" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
         <v>99</v>
       </c>
       <c r="B100" s="51" t="s">
@@ -10708,7 +10891,7 @@
       <c r="L100" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="M100" s="64" t="n">
+      <c r="M100" s="64">
         <v>5449000233509</v>
       </c>
       <c r="N100" s="65"/>
@@ -10737,7 +10920,7 @@
       <c r="AC100" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD100" s="56" t="n">
+      <c r="AD100" s="56">
         <v>0</v>
       </c>
       <c r="AE100" s="16"/>
@@ -10748,10 +10931,10 @@
       </c>
       <c r="AI100" s="16"/>
       <c r="AJ100" s="16"/>
-      <c r="AK100" s="11" t="n">
+      <c r="AK100" s="11">
         <v>4</v>
       </c>
-      <c r="AL100" s="20" t="n">
+      <c r="AL100" s="20">
         <v>99</v>
       </c>
       <c r="AM100" s="11"/>
@@ -10760,8 +10943,8 @@
       </c>
       <c r="AO100" s="11"/>
     </row>
-    <row r="101" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="n">
+    <row r="101" spans="1:41" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
         <v>100</v>
       </c>
       <c r="B101" s="51" t="s">
@@ -10791,7 +10974,7 @@
       <c r="L101" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="M101" s="64" t="n">
+      <c r="M101" s="64">
         <v>5449000189318</v>
       </c>
       <c r="N101" s="65"/>
@@ -10820,7 +11003,7 @@
       <c r="AC101" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD101" s="56" t="n">
+      <c r="AD101" s="56">
         <v>0</v>
       </c>
       <c r="AE101" s="16"/>
@@ -10831,10 +11014,10 @@
       </c>
       <c r="AI101" s="16"/>
       <c r="AJ101" s="16"/>
-      <c r="AK101" s="11" t="n">
+      <c r="AK101" s="11">
         <v>4</v>
       </c>
-      <c r="AL101" s="29" t="n">
+      <c r="AL101" s="29">
         <v>100</v>
       </c>
       <c r="AM101" s="11"/>
@@ -10843,8 +11026,8 @@
       </c>
       <c r="AO101" s="11"/>
     </row>
-    <row r="102" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="n">
+    <row r="102" spans="1:41" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
         <v>101</v>
       </c>
       <c r="B102" s="51" t="s">
@@ -10868,7 +11051,7 @@
       <c r="H102" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I102" s="16" t="n">
+      <c r="I102" s="16">
         <v>3</v>
       </c>
       <c r="J102" s="16"/>
@@ -10897,7 +11080,7 @@
       <c r="AC102" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD102" s="56" t="n">
+      <c r="AD102" s="56">
         <v>0.03</v>
       </c>
       <c r="AE102" s="16"/>
@@ -10906,10 +11089,10 @@
       <c r="AH102" s="16"/>
       <c r="AI102" s="16"/>
       <c r="AJ102" s="16"/>
-      <c r="AK102" s="11" t="n">
+      <c r="AK102" s="11">
         <v>2</v>
       </c>
-      <c r="AL102" s="20" t="n">
+      <c r="AL102" s="20">
         <v>101</v>
       </c>
       <c r="AM102" s="59" t="s">
@@ -10920,8 +11103,8 @@
       </c>
       <c r="AO102" s="11"/>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="n">
+    <row r="103" spans="1:41" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
         <v>102</v>
       </c>
       <c r="B103" s="51" t="s">
@@ -10945,7 +11128,7 @@
       <c r="H103" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="I103" s="16" t="n">
+      <c r="I103" s="16">
         <v>1</v>
       </c>
       <c r="J103" s="16"/>
@@ -10980,7 +11163,7 @@
       <c r="AC103" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD103" s="56" t="n">
+      <c r="AD103" s="56">
         <v>0</v>
       </c>
       <c r="AE103" s="16"/>
@@ -10989,10 +11172,10 @@
       <c r="AH103" s="16"/>
       <c r="AI103" s="16"/>
       <c r="AJ103" s="16"/>
-      <c r="AK103" s="11" t="n">
+      <c r="AK103" s="11">
         <v>3</v>
       </c>
-      <c r="AL103" s="29" t="n">
+      <c r="AL103" s="29">
         <v>102</v>
       </c>
       <c r="AM103" s="16"/>
@@ -11001,8 +11184,8 @@
       </c>
       <c r="AO103" s="11"/>
     </row>
-    <row r="104" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="n">
+    <row r="104" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
         <v>103</v>
       </c>
       <c r="B104" s="51" t="s">
@@ -11026,7 +11209,7 @@
       <c r="H104" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="I104" s="16" t="n">
+      <c r="I104" s="16">
         <v>1</v>
       </c>
       <c r="J104" s="16"/>
@@ -11061,7 +11244,7 @@
       <c r="AC104" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD104" s="56" t="n">
+      <c r="AD104" s="56">
         <v>0</v>
       </c>
       <c r="AE104" s="16"/>
@@ -11070,10 +11253,10 @@
       <c r="AH104" s="16"/>
       <c r="AI104" s="16"/>
       <c r="AJ104" s="16"/>
-      <c r="AK104" s="11" t="n">
+      <c r="AK104" s="11">
         <v>3</v>
       </c>
-      <c r="AL104" s="20" t="n">
+      <c r="AL104" s="20">
         <v>103</v>
       </c>
       <c r="AM104" s="16"/>
@@ -11082,8 +11265,8 @@
       </c>
       <c r="AO104" s="11"/>
     </row>
-    <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23" t="n">
+    <row r="105" spans="1:41" ht="120" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
         <v>104</v>
       </c>
       <c r="B105" s="51" t="s">
@@ -11107,7 +11290,7 @@
       <c r="H105" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="I105" s="16" t="n">
+      <c r="I105" s="16">
         <v>1</v>
       </c>
       <c r="J105" s="16"/>
@@ -11142,7 +11325,7 @@
       <c r="AC105" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD105" s="56" t="n">
+      <c r="AD105" s="56">
         <v>0</v>
       </c>
       <c r="AE105" s="16"/>
@@ -11151,10 +11334,10 @@
       <c r="AH105" s="16"/>
       <c r="AI105" s="16"/>
       <c r="AJ105" s="16"/>
-      <c r="AK105" s="11" t="n">
+      <c r="AK105" s="11">
         <v>3</v>
       </c>
-      <c r="AL105" s="29" t="n">
+      <c r="AL105" s="29">
         <v>104</v>
       </c>
       <c r="AM105" s="16"/>
@@ -11163,8 +11346,8 @@
       </c>
       <c r="AO105" s="11"/>
     </row>
-    <row r="106" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="n">
+    <row r="106" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
         <v>105</v>
       </c>
       <c r="B106" s="51" t="s">
@@ -11188,7 +11371,7 @@
       <c r="H106" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I106" s="16" t="n">
+      <c r="I106" s="16">
         <v>1</v>
       </c>
       <c r="J106" s="16"/>
@@ -11219,8 +11402,8 @@
       <c r="AC106" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD106" s="56" t="n">
-        <v>0.024</v>
+      <c r="AD106" s="56">
+        <v>2.4E-2</v>
       </c>
       <c r="AE106" s="16"/>
       <c r="AF106" s="16"/>
@@ -11228,10 +11411,10 @@
       <c r="AH106" s="16"/>
       <c r="AI106" s="16"/>
       <c r="AJ106" s="16"/>
-      <c r="AK106" s="11" t="n">
+      <c r="AK106" s="11">
         <v>2</v>
       </c>
-      <c r="AL106" s="20" t="n">
+      <c r="AL106" s="20">
         <v>105</v>
       </c>
       <c r="AM106" s="59" t="s">
@@ -11242,8 +11425,8 @@
       </c>
       <c r="AO106" s="11"/>
     </row>
-    <row r="107" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="23" t="n">
+    <row r="107" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
         <v>106</v>
       </c>
       <c r="B107" s="51" t="s">
@@ -11267,8 +11450,8 @@
       <c r="H107" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I107" s="16" t="n">
-        <v>10</v>
+      <c r="I107" s="16">
+        <v>4</v>
       </c>
       <c r="J107" s="71"/>
       <c r="K107" s="71"/>
@@ -11304,7 +11487,7 @@
       <c r="AC107" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD107" s="11" t="n">
+      <c r="AD107" s="11">
         <v>0</v>
       </c>
       <c r="AE107" s="11"/>
@@ -11313,10 +11496,10 @@
       <c r="AH107" s="11"/>
       <c r="AI107" s="11"/>
       <c r="AJ107" s="11"/>
-      <c r="AK107" s="11" t="n">
+      <c r="AK107" s="11">
         <v>3</v>
       </c>
-      <c r="AL107" s="29" t="n">
+      <c r="AL107" s="29">
         <v>106</v>
       </c>
       <c r="AM107" s="11"/>
@@ -11325,8 +11508,8 @@
       </c>
       <c r="AO107" s="11"/>
     </row>
-    <row r="108" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="n">
+    <row r="108" spans="1:41" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
         <v>107</v>
       </c>
       <c r="B108" s="51" t="s">
@@ -11376,7 +11559,7 @@
       <c r="AC108" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD108" s="56" t="n">
+      <c r="AD108" s="56">
         <v>0.1</v>
       </c>
       <c r="AE108" s="16"/>
@@ -11387,10 +11570,10 @@
       </c>
       <c r="AI108" s="16"/>
       <c r="AJ108" s="16"/>
-      <c r="AK108" s="11" t="n">
+      <c r="AK108" s="11">
         <v>2</v>
       </c>
-      <c r="AL108" s="20" t="n">
+      <c r="AL108" s="20">
         <v>107</v>
       </c>
       <c r="AM108" s="59" t="s">
@@ -11399,8 +11582,8 @@
       <c r="AN108" s="11"/>
       <c r="AO108" s="11"/>
     </row>
-    <row r="109" customFormat="false" ht="97" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="23" t="n">
+    <row r="109" spans="1:41" ht="96.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
         <v>108</v>
       </c>
       <c r="B109" s="51" t="s">
@@ -11424,10 +11607,10 @@
       <c r="H109" s="75" t="s">
         <v>336</v>
       </c>
-      <c r="I109" s="16" t="n">
+      <c r="I109" s="16">
         <v>0.5</v>
       </c>
-      <c r="J109" s="33" t="n">
+      <c r="J109" s="33">
         <v>30</v>
       </c>
       <c r="K109" s="16"/>
@@ -11461,7 +11644,7 @@
       <c r="AC109" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD109" s="56" t="n">
+      <c r="AD109" s="56">
         <v>0</v>
       </c>
       <c r="AE109" s="16"/>
@@ -11474,10 +11657,10 @@
       </c>
       <c r="AI109" s="16"/>
       <c r="AJ109" s="16"/>
-      <c r="AK109" s="11" t="n">
+      <c r="AK109" s="11">
         <v>3</v>
       </c>
-      <c r="AL109" s="29" t="n">
+      <c r="AL109" s="29">
         <v>108</v>
       </c>
       <c r="AM109" s="11"/>
@@ -11486,8 +11669,8 @@
       </c>
       <c r="AO109" s="11"/>
     </row>
-    <row r="110" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="n">
+    <row r="110" spans="1:41" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
         <v>109</v>
       </c>
       <c r="B110" s="51" t="s">
@@ -11511,7 +11694,7 @@
       <c r="H110" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="I110" s="16" t="n">
+      <c r="I110" s="16">
         <v>0.01</v>
       </c>
       <c r="J110" s="16"/>
@@ -11546,7 +11729,7 @@
       <c r="AC110" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD110" s="56" t="n">
+      <c r="AD110" s="56">
         <v>0</v>
       </c>
       <c r="AE110" s="16"/>
@@ -11555,10 +11738,10 @@
       <c r="AH110" s="16"/>
       <c r="AI110" s="16"/>
       <c r="AJ110" s="16"/>
-      <c r="AK110" s="11" t="n">
+      <c r="AK110" s="11">
         <v>3</v>
       </c>
-      <c r="AL110" s="20" t="n">
+      <c r="AL110" s="20">
         <v>109</v>
       </c>
       <c r="AM110" s="11"/>
@@ -11567,8 +11750,8 @@
       </c>
       <c r="AO110" s="11"/>
     </row>
-    <row r="111" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="23" t="n">
+    <row r="111" spans="1:41" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
         <v>110</v>
       </c>
       <c r="B111" s="51" t="s">
@@ -11592,7 +11775,7 @@
       <c r="H111" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="I111" s="39" t="n">
+      <c r="I111" s="39">
         <v>1</v>
       </c>
       <c r="J111" s="16"/>
@@ -11627,8 +11810,8 @@
       <c r="AC111" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD111" s="56" t="n">
-        <v>0.025</v>
+      <c r="AD111" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE111" s="16"/>
       <c r="AF111" s="16"/>
@@ -11640,10 +11823,10 @@
       </c>
       <c r="AI111" s="16"/>
       <c r="AJ111" s="16"/>
-      <c r="AK111" s="11" t="n">
+      <c r="AK111" s="11">
         <v>2</v>
       </c>
-      <c r="AL111" s="29" t="n">
+      <c r="AL111" s="29">
         <v>110</v>
       </c>
       <c r="AM111" s="11"/>
@@ -11652,8 +11835,8 @@
       </c>
       <c r="AO111" s="11"/>
     </row>
-    <row r="112" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="n">
+    <row r="112" spans="1:41" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
         <v>111</v>
       </c>
       <c r="B112" s="51" t="s">
@@ -11678,10 +11861,10 @@
         <v>354</v>
       </c>
       <c r="I112" s="16"/>
-      <c r="J112" s="39" t="n">
+      <c r="J112" s="39">
         <v>1</v>
       </c>
-      <c r="K112" s="39" t="n">
+      <c r="K112" s="39">
         <v>23</v>
       </c>
       <c r="L112" s="51" t="s">
@@ -11712,8 +11895,8 @@
       <c r="AC112" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD112" s="56" t="n">
-        <v>0.025</v>
+      <c r="AD112" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE112" s="16"/>
       <c r="AF112" s="16"/>
@@ -11725,10 +11908,10 @@
       </c>
       <c r="AI112" s="16"/>
       <c r="AJ112" s="16"/>
-      <c r="AK112" s="11" t="n">
+      <c r="AK112" s="11">
         <v>2</v>
       </c>
-      <c r="AL112" s="20" t="n">
+      <c r="AL112" s="20">
         <v>111</v>
       </c>
       <c r="AM112" s="11"/>
@@ -11737,8 +11920,8 @@
       </c>
       <c r="AO112" s="11"/>
     </row>
-    <row r="113" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23" t="n">
+    <row r="113" spans="1:41" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23">
         <v>112</v>
       </c>
       <c r="B113" s="51" t="s">
@@ -11791,8 +11974,8 @@
       <c r="AC113" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD113" s="56" t="n">
-        <v>0.025</v>
+      <c r="AD113" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE113" s="16"/>
       <c r="AF113" s="16"/>
@@ -11804,10 +11987,10 @@
       </c>
       <c r="AI113" s="16"/>
       <c r="AJ113" s="16"/>
-      <c r="AK113" s="11" t="n">
+      <c r="AK113" s="11">
         <v>2</v>
       </c>
-      <c r="AL113" s="29" t="n">
+      <c r="AL113" s="29">
         <v>112</v>
       </c>
       <c r="AM113" s="83" t="s">
@@ -11818,8 +12001,8 @@
       </c>
       <c r="AO113" s="11"/>
     </row>
-    <row r="114" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="n">
+    <row r="114" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
         <v>113</v>
       </c>
       <c r="B114" s="51" t="s">
@@ -11843,7 +12026,7 @@
       <c r="H114" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="I114" s="16" t="n">
+      <c r="I114" s="16">
         <v>16</v>
       </c>
       <c r="J114" s="16"/>
@@ -11874,13 +12057,13 @@
       <c r="AC114" s="80" t="s">
         <v>363</v>
       </c>
-      <c r="AD114" s="56" t="n">
+      <c r="AD114" s="56">
         <v>0</v>
       </c>
-      <c r="AE114" s="16" t="n">
+      <c r="AE114" s="16">
         <v>0.8</v>
       </c>
-      <c r="AF114" s="16" t="n">
+      <c r="AF114" s="16">
         <v>1</v>
       </c>
       <c r="AG114" s="16" t="s">
@@ -11891,10 +12074,10 @@
       </c>
       <c r="AI114" s="16"/>
       <c r="AJ114" s="16"/>
-      <c r="AK114" s="11" t="n">
+      <c r="AK114" s="11">
         <v>3</v>
       </c>
-      <c r="AL114" s="20" t="n">
+      <c r="AL114" s="20">
         <v>113</v>
       </c>
       <c r="AM114" s="59" t="s">
@@ -11905,8 +12088,8 @@
       </c>
       <c r="AO114" s="11"/>
     </row>
-    <row r="115" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23" t="n">
+    <row r="115" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23">
         <v>114</v>
       </c>
       <c r="B115" s="51" t="s">
@@ -11930,7 +12113,7 @@
       <c r="H115" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I115" s="16" t="n">
+      <c r="I115" s="16">
         <v>1</v>
       </c>
       <c r="J115" s="16"/>
@@ -11938,7 +12121,7 @@
       <c r="L115" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="M115" s="53" t="n">
+      <c r="M115" s="53">
         <v>90494406</v>
       </c>
       <c r="N115" s="53"/>
@@ -11967,7 +12150,7 @@
       <c r="AC115" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD115" s="56" t="n">
+      <c r="AD115" s="56">
         <v>0</v>
       </c>
       <c r="AE115" s="16"/>
@@ -11978,10 +12161,10 @@
       </c>
       <c r="AI115" s="16"/>
       <c r="AJ115" s="16"/>
-      <c r="AK115" s="86" t="n">
+      <c r="AK115" s="86">
         <v>4</v>
       </c>
-      <c r="AL115" s="29" t="n">
+      <c r="AL115" s="29">
         <v>114</v>
       </c>
       <c r="AM115" s="11"/>
@@ -11990,8 +12173,8 @@
       </c>
       <c r="AO115" s="11"/>
     </row>
-    <row r="116" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="n">
+    <row r="116" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
         <v>115</v>
       </c>
       <c r="B116" s="51" t="s">
@@ -12015,7 +12198,7 @@
       <c r="H116" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I116" s="16" t="n">
+      <c r="I116" s="16">
         <v>1</v>
       </c>
       <c r="J116" s="16"/>
@@ -12023,7 +12206,7 @@
       <c r="L116" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="M116" s="53" t="n">
+      <c r="M116" s="53">
         <v>40822426</v>
       </c>
       <c r="N116" s="53"/>
@@ -12052,7 +12235,7 @@
       <c r="AC116" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD116" s="56" t="n">
+      <c r="AD116" s="56">
         <v>0</v>
       </c>
       <c r="AE116" s="16"/>
@@ -12063,10 +12246,10 @@
       </c>
       <c r="AI116" s="16"/>
       <c r="AJ116" s="16"/>
-      <c r="AK116" s="86" t="n">
+      <c r="AK116" s="86">
         <v>4</v>
       </c>
-      <c r="AL116" s="20" t="n">
+      <c r="AL116" s="20">
         <v>115</v>
       </c>
       <c r="AM116" s="11"/>
@@ -12075,8 +12258,8 @@
       </c>
       <c r="AO116" s="11"/>
     </row>
-    <row r="117" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23" t="n">
+    <row r="117" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
         <v>116</v>
       </c>
       <c r="B117" s="51" t="s">
@@ -12100,7 +12283,7 @@
       <c r="H117" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I117" s="16" t="n">
+      <c r="I117" s="16">
         <v>1</v>
       </c>
       <c r="J117" s="16"/>
@@ -12108,7 +12291,7 @@
       <c r="L117" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M117" s="53" t="n">
+      <c r="M117" s="53">
         <v>5449000131768</v>
       </c>
       <c r="N117" s="53"/>
@@ -12137,7 +12320,7 @@
       <c r="AC117" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD117" s="56" t="n">
+      <c r="AD117" s="56">
         <v>0</v>
       </c>
       <c r="AE117" s="16"/>
@@ -12148,10 +12331,10 @@
       </c>
       <c r="AI117" s="16"/>
       <c r="AJ117" s="16"/>
-      <c r="AK117" s="86" t="n">
+      <c r="AK117" s="86">
         <v>4</v>
       </c>
-      <c r="AL117" s="29" t="n">
+      <c r="AL117" s="29">
         <v>116</v>
       </c>
       <c r="AM117" s="11"/>
@@ -12160,8 +12343,8 @@
       </c>
       <c r="AO117" s="11"/>
     </row>
-    <row r="118" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="n">
+    <row r="118" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
         <v>117</v>
       </c>
       <c r="B118" s="51" t="s">
@@ -12185,7 +12368,7 @@
       <c r="H118" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I118" s="16" t="n">
+      <c r="I118" s="16">
         <v>1</v>
       </c>
       <c r="J118" s="16"/>
@@ -12193,7 +12376,7 @@
       <c r="L118" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M118" s="53" t="n">
+      <c r="M118" s="53">
         <v>5449000008046</v>
       </c>
       <c r="N118" s="53"/>
@@ -12222,7 +12405,7 @@
       <c r="AC118" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD118" s="56" t="n">
+      <c r="AD118" s="56">
         <v>0</v>
       </c>
       <c r="AE118" s="16"/>
@@ -12233,10 +12416,10 @@
       </c>
       <c r="AI118" s="16"/>
       <c r="AJ118" s="16"/>
-      <c r="AK118" s="86" t="n">
+      <c r="AK118" s="86">
         <v>4</v>
       </c>
-      <c r="AL118" s="20" t="n">
+      <c r="AL118" s="20">
         <v>117</v>
       </c>
       <c r="AM118" s="11"/>
@@ -12245,8 +12428,8 @@
       </c>
       <c r="AO118" s="11"/>
     </row>
-    <row r="119" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="23" t="n">
+    <row r="119" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
         <v>118</v>
       </c>
       <c r="B119" s="51" t="s">
@@ -12270,7 +12453,7 @@
       <c r="H119" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I119" s="16" t="n">
+      <c r="I119" s="16">
         <v>1</v>
       </c>
       <c r="J119" s="16"/>
@@ -12278,7 +12461,7 @@
       <c r="L119" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M119" s="53" t="n">
+      <c r="M119" s="53">
         <v>5449000000996</v>
       </c>
       <c r="N119" s="53"/>
@@ -12307,7 +12490,7 @@
       <c r="AC119" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD119" s="56" t="n">
+      <c r="AD119" s="56">
         <v>0</v>
       </c>
       <c r="AE119" s="16"/>
@@ -12318,10 +12501,10 @@
       </c>
       <c r="AI119" s="16"/>
       <c r="AJ119" s="16"/>
-      <c r="AK119" s="86" t="n">
+      <c r="AK119" s="86">
         <v>4</v>
       </c>
-      <c r="AL119" s="29" t="n">
+      <c r="AL119" s="29">
         <v>118</v>
       </c>
       <c r="AM119" s="11"/>
@@ -12330,8 +12513,8 @@
       </c>
       <c r="AO119" s="11"/>
     </row>
-    <row r="120" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="n">
+    <row r="120" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
         <v>119</v>
       </c>
       <c r="B120" s="51" t="s">
@@ -12355,7 +12538,7 @@
       <c r="H120" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I120" s="16" t="n">
+      <c r="I120" s="16">
         <v>1</v>
       </c>
       <c r="J120" s="16"/>
@@ -12363,7 +12546,7 @@
       <c r="L120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M120" s="53" t="n">
+      <c r="M120" s="53">
         <v>54491472</v>
       </c>
       <c r="N120" s="53"/>
@@ -12392,7 +12575,7 @@
       <c r="AC120" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD120" s="56" t="n">
+      <c r="AD120" s="56">
         <v>0</v>
       </c>
       <c r="AE120" s="16"/>
@@ -12403,10 +12586,10 @@
       </c>
       <c r="AI120" s="16"/>
       <c r="AJ120" s="16"/>
-      <c r="AK120" s="86" t="n">
+      <c r="AK120" s="86">
         <v>4</v>
       </c>
-      <c r="AL120" s="20" t="n">
+      <c r="AL120" s="20">
         <v>119</v>
       </c>
       <c r="AM120" s="11"/>
@@ -12415,8 +12598,8 @@
       </c>
       <c r="AO120" s="11"/>
     </row>
-    <row r="121" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="23" t="n">
+    <row r="121" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23">
         <v>120</v>
       </c>
       <c r="B121" s="51" t="s">
@@ -12440,7 +12623,7 @@
       <c r="H121" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I121" s="16" t="n">
+      <c r="I121" s="16">
         <v>1</v>
       </c>
       <c r="J121" s="16"/>
@@ -12448,7 +12631,7 @@
       <c r="L121" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M121" s="53" t="n">
+      <c r="M121" s="53">
         <v>5449000054227</v>
       </c>
       <c r="N121" s="53"/>
@@ -12477,7 +12660,7 @@
       <c r="AC121" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD121" s="56" t="n">
+      <c r="AD121" s="56">
         <v>0</v>
       </c>
       <c r="AE121" s="16"/>
@@ -12488,10 +12671,10 @@
       </c>
       <c r="AI121" s="16"/>
       <c r="AJ121" s="16"/>
-      <c r="AK121" s="86" t="n">
+      <c r="AK121" s="86">
         <v>4</v>
       </c>
-      <c r="AL121" s="29" t="n">
+      <c r="AL121" s="29">
         <v>120</v>
       </c>
       <c r="AM121" s="11"/>
@@ -12500,8 +12683,8 @@
       </c>
       <c r="AO121" s="11"/>
     </row>
-    <row r="122" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="n">
+    <row r="122" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
         <v>121</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -12525,7 +12708,7 @@
       <c r="H122" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I122" s="16" t="n">
+      <c r="I122" s="16">
         <v>1</v>
       </c>
       <c r="J122" s="16"/>
@@ -12533,7 +12716,7 @@
       <c r="L122" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="M122" s="53" t="n">
+      <c r="M122" s="53">
         <v>5449000131836</v>
       </c>
       <c r="N122" s="53"/>
@@ -12562,7 +12745,7 @@
       <c r="AC122" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD122" s="56" t="n">
+      <c r="AD122" s="56">
         <v>0</v>
       </c>
       <c r="AE122" s="16"/>
@@ -12573,10 +12756,10 @@
       </c>
       <c r="AI122" s="16"/>
       <c r="AJ122" s="16"/>
-      <c r="AK122" s="86" t="n">
+      <c r="AK122" s="86">
         <v>4</v>
       </c>
-      <c r="AL122" s="20" t="n">
+      <c r="AL122" s="20">
         <v>121</v>
       </c>
       <c r="AM122" s="11"/>
@@ -12585,8 +12768,8 @@
       </c>
       <c r="AO122" s="11"/>
     </row>
-    <row r="123" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="23" t="n">
+    <row r="123" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
         <v>122</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -12610,7 +12793,7 @@
       <c r="H123" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I123" s="16" t="n">
+      <c r="I123" s="16">
         <v>1</v>
       </c>
       <c r="J123" s="16"/>
@@ -12618,7 +12801,7 @@
       <c r="L123" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="M123" s="53" t="n">
+      <c r="M123" s="53">
         <v>5449000133328</v>
       </c>
       <c r="N123" s="53"/>
@@ -12647,7 +12830,7 @@
       <c r="AC123" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD123" s="56" t="n">
+      <c r="AD123" s="56">
         <v>0</v>
       </c>
       <c r="AE123" s="16"/>
@@ -12658,10 +12841,10 @@
       </c>
       <c r="AI123" s="16"/>
       <c r="AJ123" s="16"/>
-      <c r="AK123" s="86" t="n">
+      <c r="AK123" s="86">
         <v>4</v>
       </c>
-      <c r="AL123" s="29" t="n">
+      <c r="AL123" s="29">
         <v>122</v>
       </c>
       <c r="AM123" s="11"/>
@@ -12670,8 +12853,8 @@
       </c>
       <c r="AO123" s="11"/>
     </row>
-    <row r="124" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="n">
+    <row r="124" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
         <v>123</v>
       </c>
       <c r="B124" s="51" t="s">
@@ -12695,7 +12878,7 @@
       <c r="H124" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I124" s="16" t="n">
+      <c r="I124" s="16">
         <v>1</v>
       </c>
       <c r="J124" s="16"/>
@@ -12703,7 +12886,7 @@
       <c r="L124" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M124" s="53" t="n">
+      <c r="M124" s="53">
         <v>40822938</v>
       </c>
       <c r="N124" s="53"/>
@@ -12732,7 +12915,7 @@
       <c r="AC124" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD124" s="56" t="n">
+      <c r="AD124" s="56">
         <v>0</v>
       </c>
       <c r="AE124" s="16"/>
@@ -12743,10 +12926,10 @@
       </c>
       <c r="AI124" s="16"/>
       <c r="AJ124" s="16"/>
-      <c r="AK124" s="86" t="n">
+      <c r="AK124" s="86">
         <v>4</v>
       </c>
-      <c r="AL124" s="20" t="n">
+      <c r="AL124" s="20">
         <v>123</v>
       </c>
       <c r="AM124" s="11"/>
@@ -12755,8 +12938,8 @@
       </c>
       <c r="AO124" s="11"/>
     </row>
-    <row r="125" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="23" t="n">
+    <row r="125" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
         <v>124</v>
       </c>
       <c r="B125" s="51" t="s">
@@ -12780,7 +12963,7 @@
       <c r="H125" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I125" s="16" t="n">
+      <c r="I125" s="16">
         <v>1</v>
       </c>
       <c r="J125" s="16"/>
@@ -12788,7 +12971,7 @@
       <c r="L125" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M125" s="53" t="n">
+      <c r="M125" s="53">
         <v>5449000006271</v>
       </c>
       <c r="N125" s="53"/>
@@ -12817,7 +13000,7 @@
       <c r="AC125" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD125" s="56" t="n">
+      <c r="AD125" s="56">
         <v>0</v>
       </c>
       <c r="AE125" s="16"/>
@@ -12828,10 +13011,10 @@
       </c>
       <c r="AI125" s="16"/>
       <c r="AJ125" s="16"/>
-      <c r="AK125" s="86" t="n">
+      <c r="AK125" s="86">
         <v>4</v>
       </c>
-      <c r="AL125" s="29" t="n">
+      <c r="AL125" s="29">
         <v>124</v>
       </c>
       <c r="AM125" s="11"/>
@@ -12840,8 +13023,8 @@
       </c>
       <c r="AO125" s="11"/>
     </row>
-    <row r="126" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="n">
+    <row r="126" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
         <v>125</v>
       </c>
       <c r="B126" s="51" t="s">
@@ -12865,7 +13048,7 @@
       <c r="H126" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I126" s="16" t="n">
+      <c r="I126" s="16">
         <v>1</v>
       </c>
       <c r="J126" s="16"/>
@@ -12902,7 +13085,7 @@
       <c r="AC126" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD126" s="56" t="n">
+      <c r="AD126" s="56">
         <v>0</v>
       </c>
       <c r="AE126" s="16"/>
@@ -12913,10 +13096,10 @@
       </c>
       <c r="AI126" s="16"/>
       <c r="AJ126" s="16"/>
-      <c r="AK126" s="86" t="n">
+      <c r="AK126" s="86">
         <v>4</v>
       </c>
-      <c r="AL126" s="20" t="n">
+      <c r="AL126" s="20">
         <v>125</v>
       </c>
       <c r="AM126" s="11"/>
@@ -12925,8 +13108,8 @@
       </c>
       <c r="AO126" s="11"/>
     </row>
-    <row r="127" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="23" t="n">
+    <row r="127" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23">
         <v>126</v>
       </c>
       <c r="B127" s="51" t="s">
@@ -12950,7 +13133,7 @@
       <c r="H127" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I127" s="16" t="n">
+      <c r="I127" s="16">
         <v>1</v>
       </c>
       <c r="J127" s="16"/>
@@ -12987,7 +13170,7 @@
       <c r="AC127" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD127" s="56" t="n">
+      <c r="AD127" s="56">
         <v>0</v>
       </c>
       <c r="AE127" s="16"/>
@@ -12998,10 +13181,10 @@
       </c>
       <c r="AI127" s="16"/>
       <c r="AJ127" s="16"/>
-      <c r="AK127" s="86" t="n">
+      <c r="AK127" s="86">
         <v>4</v>
       </c>
-      <c r="AL127" s="29" t="n">
+      <c r="AL127" s="29">
         <v>126</v>
       </c>
       <c r="AM127" s="11"/>
@@ -13010,8 +13193,8 @@
       </c>
       <c r="AO127" s="11"/>
     </row>
-    <row r="128" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="n">
+    <row r="128" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
         <v>127</v>
       </c>
       <c r="B128" s="51" t="s">
@@ -13035,7 +13218,7 @@
       <c r="H128" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I128" s="16" t="n">
+      <c r="I128" s="16">
         <v>1</v>
       </c>
       <c r="J128" s="16"/>
@@ -13043,7 +13226,7 @@
       <c r="L128" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M128" s="53" t="n">
+      <c r="M128" s="53">
         <v>5060335632906</v>
       </c>
       <c r="N128" s="53"/>
@@ -13072,7 +13255,7 @@
       <c r="AC128" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD128" s="56" t="n">
+      <c r="AD128" s="56">
         <v>0</v>
       </c>
       <c r="AE128" s="16"/>
@@ -13083,10 +13266,10 @@
       </c>
       <c r="AI128" s="16"/>
       <c r="AJ128" s="16"/>
-      <c r="AK128" s="86" t="n">
+      <c r="AK128" s="86">
         <v>4</v>
       </c>
-      <c r="AL128" s="20" t="n">
+      <c r="AL128" s="20">
         <v>127</v>
       </c>
       <c r="AM128" s="11"/>
@@ -13095,8 +13278,8 @@
       </c>
       <c r="AO128" s="11"/>
     </row>
-    <row r="129" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="23" t="n">
+    <row r="129" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23">
         <v>128</v>
       </c>
       <c r="B129" s="51" t="s">
@@ -13120,7 +13303,7 @@
       <c r="H129" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I129" s="16" t="n">
+      <c r="I129" s="16">
         <v>1</v>
       </c>
       <c r="J129" s="16"/>
@@ -13128,7 +13311,7 @@
       <c r="L129" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M129" s="53" t="n">
+      <c r="M129" s="53">
         <v>54491069</v>
       </c>
       <c r="N129" s="53"/>
@@ -13157,7 +13340,7 @@
       <c r="AC129" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD129" s="56" t="n">
+      <c r="AD129" s="56">
         <v>0</v>
       </c>
       <c r="AE129" s="16"/>
@@ -13168,10 +13351,10 @@
       </c>
       <c r="AI129" s="16"/>
       <c r="AJ129" s="16"/>
-      <c r="AK129" s="86" t="n">
+      <c r="AK129" s="86">
         <v>4</v>
       </c>
-      <c r="AL129" s="29" t="n">
+      <c r="AL129" s="29">
         <v>128</v>
       </c>
       <c r="AM129" s="11"/>
@@ -13180,8 +13363,8 @@
       </c>
       <c r="AO129" s="11"/>
     </row>
-    <row r="130" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="n">
+    <row r="130" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
         <v>129</v>
       </c>
       <c r="B130" s="51" t="s">
@@ -13205,7 +13388,7 @@
       <c r="H130" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I130" s="16" t="n">
+      <c r="I130" s="16">
         <v>1</v>
       </c>
       <c r="J130" s="16"/>
@@ -13213,7 +13396,7 @@
       <c r="L130" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M130" s="53" t="n">
+      <c r="M130" s="53">
         <v>5449000050939</v>
       </c>
       <c r="N130" s="53"/>
@@ -13242,7 +13425,7 @@
       <c r="AC130" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD130" s="56" t="n">
+      <c r="AD130" s="56">
         <v>0</v>
       </c>
       <c r="AE130" s="16"/>
@@ -13253,10 +13436,10 @@
       </c>
       <c r="AI130" s="16"/>
       <c r="AJ130" s="16"/>
-      <c r="AK130" s="86" t="n">
+      <c r="AK130" s="86">
         <v>4</v>
       </c>
-      <c r="AL130" s="20" t="n">
+      <c r="AL130" s="20">
         <v>129</v>
       </c>
       <c r="AM130" s="11"/>
@@ -13265,8 +13448,8 @@
       </c>
       <c r="AO130" s="11"/>
     </row>
-    <row r="131" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23" t="n">
+    <row r="131" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
         <v>130</v>
       </c>
       <c r="B131" s="51" t="s">
@@ -13290,7 +13473,7 @@
       <c r="H131" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="I131" s="16" t="n">
+      <c r="I131" s="16">
         <v>11</v>
       </c>
       <c r="J131" s="16"/>
@@ -13321,13 +13504,13 @@
       <c r="AC131" s="80" t="s">
         <v>363</v>
       </c>
-      <c r="AD131" s="56" t="n">
+      <c r="AD131" s="56">
         <v>0</v>
       </c>
-      <c r="AE131" s="16" t="n">
+      <c r="AE131" s="16">
         <v>0.8</v>
       </c>
-      <c r="AF131" s="16" t="n">
+      <c r="AF131" s="16">
         <v>1</v>
       </c>
       <c r="AG131" s="16" t="s">
@@ -13338,10 +13521,10 @@
       </c>
       <c r="AI131" s="16"/>
       <c r="AJ131" s="16"/>
-      <c r="AK131" s="11" t="n">
+      <c r="AK131" s="11">
         <v>3</v>
       </c>
-      <c r="AL131" s="29" t="n">
+      <c r="AL131" s="29">
         <v>130</v>
       </c>
       <c r="AM131" s="59" t="s">
@@ -13352,8 +13535,8 @@
       </c>
       <c r="AO131" s="11"/>
     </row>
-    <row r="132" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="13" t="n">
+    <row r="132" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13">
         <v>131</v>
       </c>
       <c r="B132" s="51" t="s">
@@ -13377,7 +13560,7 @@
       <c r="H132" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I132" s="16" t="n">
+      <c r="I132" s="16">
         <v>1</v>
       </c>
       <c r="J132" s="16"/>
@@ -13385,7 +13568,7 @@
       <c r="L132" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M132" s="53" t="n">
+      <c r="M132" s="53">
         <v>5449000008046</v>
       </c>
       <c r="N132" s="53"/>
@@ -13414,7 +13597,7 @@
       <c r="AC132" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD132" s="56" t="n">
+      <c r="AD132" s="56">
         <v>0</v>
       </c>
       <c r="AE132" s="16"/>
@@ -13425,10 +13608,10 @@
       </c>
       <c r="AI132" s="16"/>
       <c r="AJ132" s="16"/>
-      <c r="AK132" s="86" t="n">
+      <c r="AK132" s="86">
         <v>4</v>
       </c>
-      <c r="AL132" s="20" t="n">
+      <c r="AL132" s="20">
         <v>131</v>
       </c>
       <c r="AM132" s="11"/>
@@ -13437,8 +13620,8 @@
       </c>
       <c r="AO132" s="11"/>
     </row>
-    <row r="133" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="23" t="n">
+    <row r="133" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23">
         <v>132</v>
       </c>
       <c r="B133" s="51" t="s">
@@ -13462,7 +13645,7 @@
       <c r="H133" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I133" s="16" t="n">
+      <c r="I133" s="16">
         <v>1</v>
       </c>
       <c r="J133" s="16"/>
@@ -13470,7 +13653,7 @@
       <c r="L133" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M133" s="53" t="n">
+      <c r="M133" s="53">
         <v>5449000000996</v>
       </c>
       <c r="N133" s="53"/>
@@ -13499,7 +13682,7 @@
       <c r="AC133" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD133" s="56" t="n">
+      <c r="AD133" s="56">
         <v>0</v>
       </c>
       <c r="AE133" s="16"/>
@@ -13510,10 +13693,10 @@
       </c>
       <c r="AI133" s="16"/>
       <c r="AJ133" s="16"/>
-      <c r="AK133" s="86" t="n">
+      <c r="AK133" s="86">
         <v>4</v>
       </c>
-      <c r="AL133" s="29" t="n">
+      <c r="AL133" s="29">
         <v>132</v>
       </c>
       <c r="AM133" s="11"/>
@@ -13522,8 +13705,8 @@
       </c>
       <c r="AO133" s="11"/>
     </row>
-    <row r="134" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="13" t="n">
+    <row r="134" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
         <v>133</v>
       </c>
       <c r="B134" s="51" t="s">
@@ -13547,7 +13730,7 @@
       <c r="H134" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I134" s="16" t="n">
+      <c r="I134" s="16">
         <v>1</v>
       </c>
       <c r="J134" s="16"/>
@@ -13555,7 +13738,7 @@
       <c r="L134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M134" s="53" t="n">
+      <c r="M134" s="53">
         <v>54491472</v>
       </c>
       <c r="N134" s="53"/>
@@ -13584,7 +13767,7 @@
       <c r="AC134" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD134" s="56" t="n">
+      <c r="AD134" s="56">
         <v>0</v>
       </c>
       <c r="AE134" s="16"/>
@@ -13595,10 +13778,10 @@
       </c>
       <c r="AI134" s="16"/>
       <c r="AJ134" s="16"/>
-      <c r="AK134" s="86" t="n">
+      <c r="AK134" s="86">
         <v>4</v>
       </c>
-      <c r="AL134" s="20" t="n">
+      <c r="AL134" s="20">
         <v>133</v>
       </c>
       <c r="AM134" s="11"/>
@@ -13607,8 +13790,8 @@
       </c>
       <c r="AO134" s="11"/>
     </row>
-    <row r="135" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23" t="n">
+    <row r="135" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="23">
         <v>134</v>
       </c>
       <c r="B135" s="51" t="s">
@@ -13632,7 +13815,7 @@
       <c r="H135" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I135" s="16" t="n">
+      <c r="I135" s="16">
         <v>1</v>
       </c>
       <c r="J135" s="16"/>
@@ -13640,7 +13823,7 @@
       <c r="L135" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M135" s="53" t="n">
+      <c r="M135" s="53">
         <v>5449000054227</v>
       </c>
       <c r="N135" s="53"/>
@@ -13669,7 +13852,7 @@
       <c r="AC135" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD135" s="56" t="n">
+      <c r="AD135" s="56">
         <v>0</v>
       </c>
       <c r="AE135" s="16"/>
@@ -13680,10 +13863,10 @@
       </c>
       <c r="AI135" s="16"/>
       <c r="AJ135" s="16"/>
-      <c r="AK135" s="86" t="n">
+      <c r="AK135" s="86">
         <v>4</v>
       </c>
-      <c r="AL135" s="29" t="n">
+      <c r="AL135" s="29">
         <v>134</v>
       </c>
       <c r="AM135" s="11"/>
@@ -13692,8 +13875,8 @@
       </c>
       <c r="AO135" s="11"/>
     </row>
-    <row r="136" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="13" t="n">
+    <row r="136" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13">
         <v>135</v>
       </c>
       <c r="B136" s="51" t="s">
@@ -13717,7 +13900,7 @@
       <c r="H136" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I136" s="16" t="n">
+      <c r="I136" s="16">
         <v>1</v>
       </c>
       <c r="J136" s="16"/>
@@ -13725,7 +13908,7 @@
       <c r="L136" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="M136" s="53" t="n">
+      <c r="M136" s="53">
         <v>5449000131836</v>
       </c>
       <c r="N136" s="53"/>
@@ -13754,7 +13937,7 @@
       <c r="AC136" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD136" s="56" t="n">
+      <c r="AD136" s="56">
         <v>0</v>
       </c>
       <c r="AE136" s="16"/>
@@ -13765,10 +13948,10 @@
       </c>
       <c r="AI136" s="16"/>
       <c r="AJ136" s="16"/>
-      <c r="AK136" s="86" t="n">
+      <c r="AK136" s="86">
         <v>4</v>
       </c>
-      <c r="AL136" s="20" t="n">
+      <c r="AL136" s="20">
         <v>135</v>
       </c>
       <c r="AM136" s="11"/>
@@ -13777,8 +13960,8 @@
       </c>
       <c r="AO136" s="11"/>
     </row>
-    <row r="137" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="23" t="n">
+    <row r="137" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23">
         <v>136</v>
       </c>
       <c r="B137" s="51" t="s">
@@ -13802,7 +13985,7 @@
       <c r="H137" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I137" s="16" t="n">
+      <c r="I137" s="16">
         <v>1</v>
       </c>
       <c r="J137" s="16"/>
@@ -13810,7 +13993,7 @@
       <c r="L137" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="M137" s="53" t="n">
+      <c r="M137" s="53">
         <v>5449000133328</v>
       </c>
       <c r="N137" s="53"/>
@@ -13839,7 +14022,7 @@
       <c r="AC137" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD137" s="56" t="n">
+      <c r="AD137" s="56">
         <v>0</v>
       </c>
       <c r="AE137" s="16"/>
@@ -13850,10 +14033,10 @@
       </c>
       <c r="AI137" s="16"/>
       <c r="AJ137" s="16"/>
-      <c r="AK137" s="86" t="n">
+      <c r="AK137" s="86">
         <v>4</v>
       </c>
-      <c r="AL137" s="29" t="n">
+      <c r="AL137" s="29">
         <v>136</v>
       </c>
       <c r="AM137" s="11"/>
@@ -13862,8 +14045,8 @@
       </c>
       <c r="AO137" s="11"/>
     </row>
-    <row r="138" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13" t="n">
+    <row r="138" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13">
         <v>137</v>
       </c>
       <c r="B138" s="51" t="s">
@@ -13887,7 +14070,7 @@
       <c r="H138" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I138" s="16" t="n">
+      <c r="I138" s="16">
         <v>1</v>
       </c>
       <c r="J138" s="16"/>
@@ -13895,7 +14078,7 @@
       <c r="L138" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M138" s="53" t="n">
+      <c r="M138" s="53">
         <v>5449000213631</v>
       </c>
       <c r="N138" s="53"/>
@@ -13924,7 +14107,7 @@
       <c r="AC138" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD138" s="56" t="n">
+      <c r="AD138" s="56">
         <v>0</v>
       </c>
       <c r="AE138" s="16"/>
@@ -13935,10 +14118,10 @@
       </c>
       <c r="AI138" s="16"/>
       <c r="AJ138" s="16"/>
-      <c r="AK138" s="86" t="n">
+      <c r="AK138" s="86">
         <v>4</v>
       </c>
-      <c r="AL138" s="20" t="n">
+      <c r="AL138" s="20">
         <v>137</v>
       </c>
       <c r="AM138" s="11"/>
@@ -13947,8 +14130,8 @@
       </c>
       <c r="AO138" s="11"/>
     </row>
-    <row r="139" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23" t="n">
+    <row r="139" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23">
         <v>138</v>
       </c>
       <c r="B139" s="51" t="s">
@@ -13972,7 +14155,7 @@
       <c r="H139" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I139" s="16" t="n">
+      <c r="I139" s="16">
         <v>1</v>
       </c>
       <c r="J139" s="16"/>
@@ -13980,7 +14163,7 @@
       <c r="L139" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M139" s="53" t="n">
+      <c r="M139" s="53">
         <v>40822938</v>
       </c>
       <c r="N139" s="53"/>
@@ -14009,7 +14192,7 @@
       <c r="AC139" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD139" s="56" t="n">
+      <c r="AD139" s="56">
         <v>0</v>
       </c>
       <c r="AE139" s="16"/>
@@ -14020,10 +14203,10 @@
       </c>
       <c r="AI139" s="16"/>
       <c r="AJ139" s="16"/>
-      <c r="AK139" s="86" t="n">
+      <c r="AK139" s="86">
         <v>4</v>
       </c>
-      <c r="AL139" s="29" t="n">
+      <c r="AL139" s="29">
         <v>138</v>
       </c>
       <c r="AM139" s="11"/>
@@ -14032,8 +14215,8 @@
       </c>
       <c r="AO139" s="11"/>
     </row>
-    <row r="140" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="n">
+    <row r="140" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13">
         <v>139</v>
       </c>
       <c r="B140" s="51" t="s">
@@ -14057,7 +14240,7 @@
       <c r="H140" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I140" s="16" t="n">
+      <c r="I140" s="16">
         <v>1</v>
       </c>
       <c r="J140" s="16"/>
@@ -14065,7 +14248,7 @@
       <c r="L140" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M140" s="53" t="n">
+      <c r="M140" s="53">
         <v>5449000006271</v>
       </c>
       <c r="N140" s="53"/>
@@ -14094,7 +14277,7 @@
       <c r="AC140" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD140" s="56" t="n">
+      <c r="AD140" s="56">
         <v>0</v>
       </c>
       <c r="AE140" s="16"/>
@@ -14105,10 +14288,10 @@
       </c>
       <c r="AI140" s="16"/>
       <c r="AJ140" s="16"/>
-      <c r="AK140" s="86" t="n">
+      <c r="AK140" s="86">
         <v>4</v>
       </c>
-      <c r="AL140" s="20" t="n">
+      <c r="AL140" s="20">
         <v>139</v>
       </c>
       <c r="AM140" s="11"/>
@@ -14117,8 +14300,8 @@
       </c>
       <c r="AO140" s="11"/>
     </row>
-    <row r="141" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="23" t="n">
+    <row r="141" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23">
         <v>140</v>
       </c>
       <c r="B141" s="51" t="s">
@@ -14142,7 +14325,7 @@
       <c r="H141" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I141" s="16" t="n">
+      <c r="I141" s="16">
         <v>1</v>
       </c>
       <c r="J141" s="16"/>
@@ -14150,7 +14333,7 @@
       <c r="L141" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M141" s="53" t="n">
+      <c r="M141" s="53">
         <v>54491069</v>
       </c>
       <c r="N141" s="53"/>
@@ -14179,7 +14362,7 @@
       <c r="AC141" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD141" s="56" t="n">
+      <c r="AD141" s="56">
         <v>0</v>
       </c>
       <c r="AE141" s="16"/>
@@ -14190,10 +14373,10 @@
       </c>
       <c r="AI141" s="16"/>
       <c r="AJ141" s="16"/>
-      <c r="AK141" s="86" t="n">
+      <c r="AK141" s="86">
         <v>4</v>
       </c>
-      <c r="AL141" s="29" t="n">
+      <c r="AL141" s="29">
         <v>140</v>
       </c>
       <c r="AM141" s="11"/>
@@ -14202,8 +14385,8 @@
       </c>
       <c r="AO141" s="11"/>
     </row>
-    <row r="142" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13" t="n">
+    <row r="142" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="13">
         <v>141</v>
       </c>
       <c r="B142" s="51" t="s">
@@ -14227,7 +14410,7 @@
       <c r="H142" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="16" t="n">
+      <c r="I142" s="16">
         <v>1</v>
       </c>
       <c r="J142" s="16"/>
@@ -14235,7 +14418,7 @@
       <c r="L142" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M142" s="53" t="n">
+      <c r="M142" s="53">
         <v>5449000050939</v>
       </c>
       <c r="N142" s="53"/>
@@ -14264,7 +14447,7 @@
       <c r="AC142" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD142" s="56" t="n">
+      <c r="AD142" s="56">
         <v>0</v>
       </c>
       <c r="AE142" s="16"/>
@@ -14275,10 +14458,10 @@
       </c>
       <c r="AI142" s="16"/>
       <c r="AJ142" s="16"/>
-      <c r="AK142" s="86" t="n">
+      <c r="AK142" s="86">
         <v>4</v>
       </c>
-      <c r="AL142" s="20" t="n">
+      <c r="AL142" s="20">
         <v>141</v>
       </c>
       <c r="AM142" s="11"/>
@@ -14287,8 +14470,8 @@
       </c>
       <c r="AO142" s="11"/>
     </row>
-    <row r="143" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="23" t="n">
+    <row r="143" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="23">
         <v>142</v>
       </c>
       <c r="B143" s="51" t="s">
@@ -14312,7 +14495,7 @@
       <c r="H143" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="I143" s="16" t="n">
+      <c r="I143" s="16">
         <v>10</v>
       </c>
       <c r="J143" s="16"/>
@@ -14343,13 +14526,13 @@
       <c r="AC143" s="80" t="s">
         <v>363</v>
       </c>
-      <c r="AD143" s="56" t="n">
+      <c r="AD143" s="56">
         <v>0</v>
       </c>
-      <c r="AE143" s="16" t="n">
+      <c r="AE143" s="16">
         <v>0.8</v>
       </c>
-      <c r="AF143" s="16" t="n">
+      <c r="AF143" s="16">
         <v>1</v>
       </c>
       <c r="AG143" s="16" t="s">
@@ -14360,10 +14543,10 @@
       </c>
       <c r="AI143" s="16"/>
       <c r="AJ143" s="16"/>
-      <c r="AK143" s="11" t="n">
+      <c r="AK143" s="11">
         <v>3</v>
       </c>
-      <c r="AL143" s="29" t="n">
+      <c r="AL143" s="29">
         <v>142</v>
       </c>
       <c r="AM143" s="59" t="s">
@@ -14374,8 +14557,8 @@
       </c>
       <c r="AO143" s="11"/>
     </row>
-    <row r="144" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13" t="n">
+    <row r="144" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13">
         <v>143</v>
       </c>
       <c r="B144" s="51" t="s">
@@ -14399,7 +14582,7 @@
       <c r="H144" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I144" s="16" t="n">
+      <c r="I144" s="16">
         <v>1</v>
       </c>
       <c r="J144" s="16"/>
@@ -14407,7 +14590,7 @@
       <c r="L144" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="M144" s="57" t="n">
+      <c r="M144" s="57">
         <v>90494406</v>
       </c>
       <c r="N144" s="53"/>
@@ -14436,7 +14619,7 @@
       <c r="AC144" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD144" s="56" t="n">
+      <c r="AD144" s="56">
         <v>0</v>
       </c>
       <c r="AE144" s="16"/>
@@ -14447,10 +14630,10 @@
       </c>
       <c r="AI144" s="16"/>
       <c r="AJ144" s="16"/>
-      <c r="AK144" s="86" t="n">
+      <c r="AK144" s="86">
         <v>4</v>
       </c>
-      <c r="AL144" s="20" t="n">
+      <c r="AL144" s="20">
         <v>143</v>
       </c>
       <c r="AM144" s="11"/>
@@ -14459,8 +14642,8 @@
       </c>
       <c r="AO144" s="11"/>
     </row>
-    <row r="145" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="23" t="n">
+    <row r="145" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="23">
         <v>144</v>
       </c>
       <c r="B145" s="51" t="s">
@@ -14484,7 +14667,7 @@
       <c r="H145" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I145" s="16" t="n">
+      <c r="I145" s="16">
         <v>1</v>
       </c>
       <c r="J145" s="16"/>
@@ -14492,7 +14675,7 @@
       <c r="L145" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="M145" s="57" t="n">
+      <c r="M145" s="57">
         <v>40822426</v>
       </c>
       <c r="N145" s="53"/>
@@ -14521,7 +14704,7 @@
       <c r="AC145" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD145" s="56" t="n">
+      <c r="AD145" s="56">
         <v>0</v>
       </c>
       <c r="AE145" s="16"/>
@@ -14532,10 +14715,10 @@
       </c>
       <c r="AI145" s="16"/>
       <c r="AJ145" s="16"/>
-      <c r="AK145" s="86" t="n">
+      <c r="AK145" s="86">
         <v>4</v>
       </c>
-      <c r="AL145" s="29" t="n">
+      <c r="AL145" s="29">
         <v>144</v>
       </c>
       <c r="AM145" s="11"/>
@@ -14544,8 +14727,8 @@
       </c>
       <c r="AO145" s="11"/>
     </row>
-    <row r="146" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="13" t="n">
+    <row r="146" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13">
         <v>145</v>
       </c>
       <c r="B146" s="51" t="s">
@@ -14569,7 +14752,7 @@
       <c r="H146" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I146" s="16" t="n">
+      <c r="I146" s="16">
         <v>1</v>
       </c>
       <c r="J146" s="16"/>
@@ -14577,7 +14760,7 @@
       <c r="L146" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M146" s="57" t="n">
+      <c r="M146" s="57">
         <v>5449000005489</v>
       </c>
       <c r="N146" s="53"/>
@@ -14606,7 +14789,7 @@
       <c r="AC146" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD146" s="56" t="n">
+      <c r="AD146" s="56">
         <v>0</v>
       </c>
       <c r="AE146" s="16"/>
@@ -14617,10 +14800,10 @@
       </c>
       <c r="AI146" s="16"/>
       <c r="AJ146" s="16"/>
-      <c r="AK146" s="86" t="n">
+      <c r="AK146" s="86">
         <v>4</v>
       </c>
-      <c r="AL146" s="20" t="n">
+      <c r="AL146" s="20">
         <v>145</v>
       </c>
       <c r="AM146" s="11"/>
@@ -14629,8 +14812,8 @@
       </c>
       <c r="AO146" s="11"/>
     </row>
-    <row r="147" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="23" t="n">
+    <row r="147" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23">
         <v>146</v>
       </c>
       <c r="B147" s="51" t="s">
@@ -14654,7 +14837,7 @@
       <c r="H147" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I147" s="16" t="n">
+      <c r="I147" s="16">
         <v>1</v>
       </c>
       <c r="J147" s="16"/>
@@ -14662,7 +14845,7 @@
       <c r="L147" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M147" s="57" t="n">
+      <c r="M147" s="57">
         <v>5449000152190</v>
       </c>
       <c r="N147" s="53"/>
@@ -14691,7 +14874,7 @@
       <c r="AC147" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD147" s="56" t="n">
+      <c r="AD147" s="56">
         <v>0</v>
       </c>
       <c r="AE147" s="16"/>
@@ -14702,10 +14885,10 @@
       </c>
       <c r="AI147" s="16"/>
       <c r="AJ147" s="16"/>
-      <c r="AK147" s="86" t="n">
+      <c r="AK147" s="86">
         <v>4</v>
       </c>
-      <c r="AL147" s="29" t="n">
+      <c r="AL147" s="29">
         <v>146</v>
       </c>
       <c r="AM147" s="11"/>
@@ -14714,8 +14897,8 @@
       </c>
       <c r="AO147" s="11"/>
     </row>
-    <row r="148" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="13" t="n">
+    <row r="148" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="13">
         <v>147</v>
       </c>
       <c r="B148" s="51" t="s">
@@ -14739,7 +14922,7 @@
       <c r="H148" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I148" s="16" t="n">
+      <c r="I148" s="16">
         <v>1</v>
       </c>
       <c r="J148" s="16"/>
@@ -14747,7 +14930,7 @@
       <c r="L148" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M148" s="57" t="n">
+      <c r="M148" s="57">
         <v>5449000131768</v>
       </c>
       <c r="N148" s="53"/>
@@ -14776,7 +14959,7 @@
       <c r="AC148" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD148" s="56" t="n">
+      <c r="AD148" s="56">
         <v>0</v>
       </c>
       <c r="AE148" s="16"/>
@@ -14787,10 +14970,10 @@
       </c>
       <c r="AI148" s="16"/>
       <c r="AJ148" s="16"/>
-      <c r="AK148" s="86" t="n">
+      <c r="AK148" s="86">
         <v>4</v>
       </c>
-      <c r="AL148" s="20" t="n">
+      <c r="AL148" s="20">
         <v>147</v>
       </c>
       <c r="AM148" s="11"/>
@@ -14799,8 +14982,8 @@
       </c>
       <c r="AO148" s="11"/>
     </row>
-    <row r="149" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="23" t="n">
+    <row r="149" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23">
         <v>148</v>
       </c>
       <c r="B149" s="51" t="s">
@@ -14824,7 +15007,7 @@
       <c r="H149" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I149" s="16" t="n">
+      <c r="I149" s="16">
         <v>1</v>
       </c>
       <c r="J149" s="16"/>
@@ -14861,7 +15044,7 @@
       <c r="AC149" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD149" s="56" t="n">
+      <c r="AD149" s="56">
         <v>0</v>
       </c>
       <c r="AE149" s="16"/>
@@ -14872,10 +15055,10 @@
       </c>
       <c r="AI149" s="16"/>
       <c r="AJ149" s="16"/>
-      <c r="AK149" s="86" t="n">
+      <c r="AK149" s="86">
         <v>4</v>
       </c>
-      <c r="AL149" s="29" t="n">
+      <c r="AL149" s="29">
         <v>148</v>
       </c>
       <c r="AM149" s="11"/>
@@ -14884,8 +15067,8 @@
       </c>
       <c r="AO149" s="11"/>
     </row>
-    <row r="150" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="13" t="n">
+    <row r="150" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13">
         <v>149</v>
       </c>
       <c r="B150" s="51" t="s">
@@ -14909,7 +15092,7 @@
       <c r="H150" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I150" s="16" t="n">
+      <c r="I150" s="16">
         <v>1</v>
       </c>
       <c r="J150" s="16"/>
@@ -14946,7 +15129,7 @@
       <c r="AC150" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD150" s="56" t="n">
+      <c r="AD150" s="56">
         <v>0</v>
       </c>
       <c r="AE150" s="16"/>
@@ -14957,10 +15140,10 @@
       </c>
       <c r="AI150" s="16"/>
       <c r="AJ150" s="16"/>
-      <c r="AK150" s="86" t="n">
+      <c r="AK150" s="86">
         <v>4</v>
       </c>
-      <c r="AL150" s="20" t="n">
+      <c r="AL150" s="20">
         <v>149</v>
       </c>
       <c r="AM150" s="11"/>
@@ -14969,8 +15152,8 @@
       </c>
       <c r="AO150" s="11"/>
     </row>
-    <row r="151" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="23" t="n">
+    <row r="151" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23">
         <v>150</v>
       </c>
       <c r="B151" s="51" t="s">
@@ -14994,7 +15177,7 @@
       <c r="H151" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I151" s="16" t="n">
+      <c r="I151" s="16">
         <v>1</v>
       </c>
       <c r="J151" s="16"/>
@@ -15031,7 +15214,7 @@
       <c r="AC151" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD151" s="56" t="n">
+      <c r="AD151" s="56">
         <v>0</v>
       </c>
       <c r="AE151" s="16"/>
@@ -15042,10 +15225,10 @@
       </c>
       <c r="AI151" s="16"/>
       <c r="AJ151" s="16"/>
-      <c r="AK151" s="86" t="n">
+      <c r="AK151" s="86">
         <v>4</v>
       </c>
-      <c r="AL151" s="29" t="n">
+      <c r="AL151" s="29">
         <v>150</v>
       </c>
       <c r="AM151" s="11"/>
@@ -15054,8 +15237,8 @@
       </c>
       <c r="AO151" s="11"/>
     </row>
-    <row r="152" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="13" t="n">
+    <row r="152" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13">
         <v>151</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -15079,7 +15262,7 @@
       <c r="H152" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I152" s="16" t="n">
+      <c r="I152" s="16">
         <v>1</v>
       </c>
       <c r="J152" s="16"/>
@@ -15087,7 +15270,7 @@
       <c r="L152" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M152" s="57" t="n">
+      <c r="M152" s="57">
         <v>5060335632906</v>
       </c>
       <c r="N152" s="53"/>
@@ -15116,7 +15299,7 @@
       <c r="AC152" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD152" s="56" t="n">
+      <c r="AD152" s="56">
         <v>0</v>
       </c>
       <c r="AE152" s="16"/>
@@ -15127,10 +15310,10 @@
       </c>
       <c r="AI152" s="16"/>
       <c r="AJ152" s="16"/>
-      <c r="AK152" s="86" t="n">
+      <c r="AK152" s="86">
         <v>4</v>
       </c>
-      <c r="AL152" s="20" t="n">
+      <c r="AL152" s="20">
         <v>151</v>
       </c>
       <c r="AM152" s="11"/>
@@ -15139,8 +15322,8 @@
       </c>
       <c r="AO152" s="11"/>
     </row>
-    <row r="153" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="23" t="n">
+    <row r="153" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="23">
         <v>152</v>
       </c>
       <c r="B153" s="51" t="s">
@@ -15164,7 +15347,7 @@
       <c r="H153" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I153" s="16" t="n">
+      <c r="I153" s="16">
         <v>1</v>
       </c>
       <c r="J153" s="16"/>
@@ -15201,7 +15384,7 @@
       <c r="AC153" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD153" s="56" t="n">
+      <c r="AD153" s="56">
         <v>0</v>
       </c>
       <c r="AE153" s="16"/>
@@ -15212,10 +15395,10 @@
       </c>
       <c r="AI153" s="16"/>
       <c r="AJ153" s="16"/>
-      <c r="AK153" s="86" t="n">
+      <c r="AK153" s="86">
         <v>4</v>
       </c>
-      <c r="AL153" s="29" t="n">
+      <c r="AL153" s="29">
         <v>152</v>
       </c>
       <c r="AM153" s="11"/>
@@ -15224,8 +15407,8 @@
       </c>
       <c r="AO153" s="11"/>
     </row>
-    <row r="154" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13" t="n">
+    <row r="154" spans="1:41" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13">
         <v>153</v>
       </c>
       <c r="B154" s="51" t="s">
@@ -15280,8 +15463,8 @@
       <c r="AC154" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD154" s="56" t="n">
-        <v>0.025</v>
+      <c r="AD154" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE154" s="16"/>
       <c r="AF154" s="16"/>
@@ -15293,10 +15476,10 @@
       </c>
       <c r="AI154" s="16"/>
       <c r="AJ154" s="16"/>
-      <c r="AK154" s="11" t="n">
+      <c r="AK154" s="11">
         <v>2</v>
       </c>
-      <c r="AL154" s="20" t="n">
+      <c r="AL154" s="20">
         <v>153</v>
       </c>
       <c r="AM154" s="11"/>
@@ -15305,8 +15488,8 @@
       </c>
       <c r="AO154" s="11"/>
     </row>
-    <row r="155" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="23" t="n">
+    <row r="155" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="23">
         <v>154</v>
       </c>
       <c r="B155" s="51" t="s">
@@ -15351,7 +15534,7 @@
       <c r="AA155" s="90"/>
       <c r="AB155" s="90"/>
       <c r="AC155" s="90"/>
-      <c r="AD155" s="90" t="n">
+      <c r="AD155" s="90">
         <v>0</v>
       </c>
       <c r="AE155" s="90"/>
@@ -15363,15 +15546,15 @@
       <c r="AK155" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL155" s="29" t="n">
+      <c r="AL155" s="29">
         <v>154</v>
       </c>
       <c r="AM155" s="90"/>
       <c r="AN155" s="90"/>
       <c r="AO155" s="90"/>
     </row>
-    <row r="156" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="n">
+    <row r="156" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="13">
         <v>155</v>
       </c>
       <c r="B156" s="51" t="s">
@@ -15416,7 +15599,7 @@
       <c r="AA156" s="90"/>
       <c r="AB156" s="90"/>
       <c r="AC156" s="90"/>
-      <c r="AD156" s="90" t="n">
+      <c r="AD156" s="90">
         <v>0</v>
       </c>
       <c r="AE156" s="90"/>
@@ -15428,15 +15611,15 @@
       <c r="AK156" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL156" s="20" t="n">
+      <c r="AL156" s="20">
         <v>155</v>
       </c>
       <c r="AM156" s="90"/>
       <c r="AN156" s="90"/>
       <c r="AO156" s="90"/>
     </row>
-    <row r="157" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="23" t="n">
+    <row r="157" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="23">
         <v>156</v>
       </c>
       <c r="B157" s="51" t="s">
@@ -15481,7 +15664,7 @@
       <c r="AA157" s="90"/>
       <c r="AB157" s="90"/>
       <c r="AC157" s="90"/>
-      <c r="AD157" s="90" t="n">
+      <c r="AD157" s="90">
         <v>0</v>
       </c>
       <c r="AE157" s="90"/>
@@ -15493,15 +15676,15 @@
       <c r="AK157" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL157" s="29" t="n">
+      <c r="AL157" s="29">
         <v>156</v>
       </c>
       <c r="AM157" s="90"/>
       <c r="AN157" s="90"/>
       <c r="AO157" s="90"/>
     </row>
-    <row r="158" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13" t="n">
+    <row r="158" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13">
         <v>157</v>
       </c>
       <c r="B158" s="51" t="s">
@@ -15546,7 +15729,7 @@
       <c r="AA158" s="90"/>
       <c r="AB158" s="90"/>
       <c r="AC158" s="90"/>
-      <c r="AD158" s="90" t="n">
+      <c r="AD158" s="90">
         <v>0</v>
       </c>
       <c r="AE158" s="90"/>
@@ -15558,15 +15741,15 @@
       <c r="AK158" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL158" s="20" t="n">
+      <c r="AL158" s="20">
         <v>157</v>
       </c>
       <c r="AM158" s="90"/>
       <c r="AN158" s="90"/>
       <c r="AO158" s="90"/>
     </row>
-    <row r="159" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="23" t="n">
+    <row r="159" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
         <v>158</v>
       </c>
       <c r="B159" s="51" t="s">
@@ -15611,7 +15794,7 @@
       <c r="AA159" s="90"/>
       <c r="AB159" s="90"/>
       <c r="AC159" s="90"/>
-      <c r="AD159" s="90" t="n">
+      <c r="AD159" s="90">
         <v>0</v>
       </c>
       <c r="AE159" s="90"/>
@@ -15623,15 +15806,15 @@
       <c r="AK159" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL159" s="29" t="n">
+      <c r="AL159" s="29">
         <v>158</v>
       </c>
       <c r="AM159" s="90"/>
       <c r="AN159" s="90"/>
       <c r="AO159" s="90"/>
     </row>
-    <row r="160" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="13" t="n">
+    <row r="160" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="13">
         <v>159</v>
       </c>
       <c r="B160" s="51" t="s">
@@ -15676,7 +15859,7 @@
       <c r="AA160" s="90"/>
       <c r="AB160" s="90"/>
       <c r="AC160" s="90"/>
-      <c r="AD160" s="90" t="n">
+      <c r="AD160" s="90">
         <v>0</v>
       </c>
       <c r="AE160" s="90"/>
@@ -15688,15 +15871,15 @@
       <c r="AK160" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL160" s="20" t="n">
+      <c r="AL160" s="20">
         <v>159</v>
       </c>
       <c r="AM160" s="90"/>
       <c r="AN160" s="90"/>
       <c r="AO160" s="90"/>
     </row>
-    <row r="161" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="23" t="n">
+    <row r="161" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23">
         <v>160</v>
       </c>
       <c r="B161" s="51" t="s">
@@ -15741,7 +15924,7 @@
       <c r="AA161" s="90"/>
       <c r="AB161" s="90"/>
       <c r="AC161" s="90"/>
-      <c r="AD161" s="90" t="n">
+      <c r="AD161" s="90">
         <v>0</v>
       </c>
       <c r="AE161" s="90"/>
@@ -15753,7 +15936,7 @@
       <c r="AK161" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="AL161" s="29" t="n">
+      <c r="AL161" s="29">
         <v>160</v>
       </c>
       <c r="AM161" s="90"/>
@@ -15762,235 +15945,204 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO161"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>483</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>484</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>485</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>16</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>488</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>490</v>
       </c>
       <c r="H7" s="95"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>491</v>
       </c>
       <c r="H8" s="95"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="95"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>14</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>16</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>494</v>
       </c>
       <c r="E15" s="95"/>
       <c r="H15" s="95"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="95"/>
       <c r="H16" s="95"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="95" t="s">
         <v>489</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" s="95" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>11</v>
       </c>
       <c r="C19" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>10</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>497</v>
       </c>
@@ -16004,17 +16156,17 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="0" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25" s="95" t="s">
         <v>489</v>
       </c>
@@ -16023,16 +16175,16 @@
       </c>
       <c r="J25" s="95"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>11</v>
       </c>
       <c r="J26" s="95"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="95" t="s">
         <v>489</v>
       </c>
@@ -16042,63 +16194,53 @@
       <c r="D28" s="95" t="s">
         <v>489</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
         <v>2</v>
       </c>
@@ -16139,18 +16281,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="100" t="s">
         <v>509</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
@@ -33,6 +33,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2116,7 +2117,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2239,6 +2240,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2657,25 +2662,20 @@
   </sheetPr>
   <dimension ref="A1:AQ165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D153" activeCellId="0" sqref="D153"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O58" activeCellId="0" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1093117408907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="35" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.3603238866397"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="21.0607287449393"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="81.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AQ10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
@@ -3611,8 +3611,8 @@
       <c r="N11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="27" t="n">
-        <v>5449000008046</v>
+      <c r="O11" s="31" t="n">
+        <v>5449000000729</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="AQ15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
@@ -4046,8 +4046,8 @@
       <c r="N16" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O16" s="27" t="n">
-        <v>5449000020987</v>
+      <c r="O16" s="31" t="n">
+        <v>5449000000712</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -4118,7 +4118,7 @@
       <c r="G17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="32" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -4133,7 +4133,7 @@
       <c r="N17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="32" t="n">
+      <c r="O17" s="33" t="n">
         <v>5449000213693</v>
       </c>
       <c r="P17" s="16"/>
@@ -4540,7 +4540,7 @@
       <c r="B22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -4550,48 +4550,48 @@
         <v>96</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="33" t="s">
+      <c r="J22" s="34"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" s="33" t="s">
+      <c r="AE22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
       <c r="AM22" s="20" t="n">
         <v>2</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="B27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -4969,42 +4969,42 @@
         <v>96</v>
       </c>
       <c r="F27" s="24"/>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="33" t="s">
+      <c r="J27" s="34"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE27" s="33" t="s">
+      <c r="AE27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF27" s="35"/>
+      <c r="AF27" s="36"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
       <c r="AI27" s="20"/>
@@ -5291,7 +5291,7 @@
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -5301,42 +5301,42 @@
         <v>96</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="33" t="s">
+      <c r="J31" s="34"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE31" s="33" t="s">
+      <c r="AE31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF31" s="35"/>
+      <c r="AF31" s="36"/>
       <c r="AG31" s="20"/>
       <c r="AH31" s="20"/>
       <c r="AI31" s="20"/>
@@ -5349,7 +5349,7 @@
       <c r="AN31" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="AO31" s="37" t="s">
+      <c r="AO31" s="38" t="s">
         <v>119</v>
       </c>
       <c r="AP31" s="23"/>
@@ -5710,7 +5710,7 @@
       <c r="B36" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -5720,42 +5720,42 @@
         <v>96</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="33" t="s">
+      <c r="J36" s="34"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE36" s="33" t="s">
+      <c r="AE36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF36" s="35"/>
+      <c r="AF36" s="36"/>
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
       <c r="AI36" s="20"/>
@@ -5768,7 +5768,7 @@
       <c r="AN36" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="AO36" s="34" t="s">
+      <c r="AO36" s="35" t="s">
         <v>130</v>
       </c>
       <c r="AP36" s="23"/>
@@ -5791,7 +5791,7 @@
         <v>96</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="39" t="s">
         <v>131</v>
       </c>
       <c r="H37" s="26" t="s">
@@ -5806,10 +5806,10 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="38" t="s">
+      <c r="N37" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O37" s="32" t="n">
+      <c r="O37" s="33" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P37" s="16"/>
@@ -5878,7 +5878,7 @@
         <v>96</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="39" t="s">
         <v>133</v>
       </c>
       <c r="H38" s="26" t="s">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="38" t="s">
+      <c r="N38" s="39" t="s">
         <v>133</v>
       </c>
       <c r="O38" s="27" t="n">
@@ -5965,7 +5965,7 @@
         <v>96</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="39" t="s">
         <v>135</v>
       </c>
       <c r="H39" s="26" t="s">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="38" t="s">
+      <c r="N39" s="39" t="s">
         <v>135</v>
       </c>
       <c r="O39" s="27" t="n">
@@ -6052,7 +6052,7 @@
         <v>96</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="39" t="s">
         <v>137</v>
       </c>
       <c r="H40" s="26" t="s">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="39" t="s">
         <v>137</v>
       </c>
       <c r="O40" s="27" t="n">
@@ -6139,7 +6139,7 @@
         <v>96</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="39" t="s">
         <v>139</v>
       </c>
       <c r="H41" s="26" t="s">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="38" t="s">
+      <c r="N41" s="39" t="s">
         <v>139</v>
       </c>
       <c r="O41" s="27" t="n">
@@ -6226,7 +6226,7 @@
         <v>96</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="39" t="s">
         <v>141</v>
       </c>
       <c r="H42" s="26" t="s">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="39" t="s">
         <v>141</v>
       </c>
       <c r="O42" s="27" t="n">
@@ -6313,7 +6313,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="39" t="s">
         <v>143</v>
       </c>
       <c r="H43" s="26" t="s">
@@ -6328,10 +6328,10 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="38" t="s">
+      <c r="N43" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="O43" s="32" t="n">
+      <c r="O43" s="33" t="n">
         <v>4607042430619</v>
       </c>
       <c r="P43" s="16"/>
@@ -6400,7 +6400,7 @@
         <v>96</v>
       </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="39" t="s">
         <v>145</v>
       </c>
       <c r="H44" s="26" t="s">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="38" t="s">
+      <c r="N44" s="39" t="s">
         <v>145</v>
       </c>
       <c r="O44" s="27" t="n">
@@ -6487,7 +6487,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="39" t="s">
         <v>147</v>
       </c>
       <c r="H45" s="26" t="s">
@@ -6502,10 +6502,10 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="38" t="s">
+      <c r="N45" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O45" s="32" t="n">
+      <c r="O45" s="33" t="n">
         <v>4607174577794</v>
       </c>
       <c r="P45" s="16"/>
@@ -6574,7 +6574,7 @@
         <v>96</v>
       </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="39" t="s">
         <v>149</v>
       </c>
       <c r="H46" s="26" t="s">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="38" t="s">
+      <c r="N46" s="39" t="s">
         <v>149</v>
       </c>
       <c r="O46" s="27" t="n">
@@ -6661,7 +6661,7 @@
         <v>96</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="39" t="s">
         <v>151</v>
       </c>
       <c r="H47" s="26" t="s">
@@ -6676,10 +6676,10 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="38" t="s">
+      <c r="N47" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="O47" s="32" t="n">
+      <c r="O47" s="33" t="n">
         <v>4607042431388</v>
       </c>
       <c r="P47" s="16"/>
@@ -6748,7 +6748,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="39" t="s">
         <v>153</v>
       </c>
       <c r="H48" s="26" t="s">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="38" t="s">
+      <c r="N48" s="39" t="s">
         <v>153</v>
       </c>
       <c r="O48" s="27" t="n">
@@ -6835,7 +6835,7 @@
         <v>96</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="39" t="s">
         <v>155</v>
       </c>
       <c r="H49" s="26" t="s">
@@ -6850,10 +6850,10 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="38" t="s">
+      <c r="N49" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="O49" s="32" t="n">
+      <c r="O49" s="33" t="n">
         <v>4607174579729</v>
       </c>
       <c r="P49" s="16"/>
@@ -6922,7 +6922,7 @@
         <v>96</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="39" t="s">
         <v>157</v>
       </c>
       <c r="H50" s="26" t="s">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="38" t="s">
+      <c r="N50" s="39" t="s">
         <v>157</v>
       </c>
       <c r="O50" s="27" t="n">
@@ -6986,7 +6986,7 @@
       <c r="AN50" s="21" t="n">
         <v>49</v>
       </c>
-      <c r="AO50" s="39"/>
+      <c r="AO50" s="40"/>
       <c r="AP50" s="20" t="s">
         <v>128</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>96</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="39" t="s">
         <v>159</v>
       </c>
       <c r="H51" s="26" t="s">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="38" t="s">
+      <c r="N51" s="39" t="s">
         <v>159</v>
       </c>
       <c r="O51" s="27" t="n">
@@ -7096,10 +7096,10 @@
         <v>162</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="41" t="s">
         <v>164</v>
       </c>
       <c r="I52" s="16" t="s">
@@ -7144,7 +7144,7 @@
       <c r="AN52" s="21" t="n">
         <v>51</v>
       </c>
-      <c r="AO52" s="34" t="s">
+      <c r="AO52" s="35" t="s">
         <v>165</v>
       </c>
       <c r="AP52" s="23"/>
@@ -7167,25 +7167,25 @@
         <v>162</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42" t="n">
+      <c r="J53" s="43"/>
+      <c r="K53" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="41" t="s">
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="O53" s="44" t="n">
+      <c r="O53" s="45" t="n">
         <v>5449000214744</v>
       </c>
       <c r="P53" s="19"/>
@@ -7216,7 +7216,7 @@
       <c r="AE53" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF53" s="45" t="n">
+      <c r="AF53" s="46" t="n">
         <v>0.00455</v>
       </c>
       <c r="AG53" s="12"/>
@@ -7232,7 +7232,7 @@
         <v>52</v>
       </c>
       <c r="AO53" s="20"/>
-      <c r="AP53" s="46" t="s">
+      <c r="AP53" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ53" s="12"/>
@@ -7254,10 +7254,10 @@
         <v>162</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="47" t="s">
+      <c r="G54" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="32" t="s">
         <v>169</v>
       </c>
       <c r="I54" s="16" t="s">
@@ -7269,10 +7269,10 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="47" t="s">
+      <c r="N54" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="O54" s="48" t="n">
+      <c r="O54" s="49" t="n">
         <v>5449000241467</v>
       </c>
       <c r="P54" s="16"/>
@@ -7303,7 +7303,7 @@
       <c r="AE54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF54" s="45" t="n">
+      <c r="AF54" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG54" s="12"/>
@@ -7319,12 +7319,12 @@
         <v>53</v>
       </c>
       <c r="AO54" s="20"/>
-      <c r="AP54" s="46" t="s">
+      <c r="AP54" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
         <v>54</v>
       </c>
@@ -7359,8 +7359,8 @@
       <c r="N55" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="O55" s="27" t="n">
-        <v>4607042431692</v>
+      <c r="O55" s="31" t="n">
+        <v>5449000134912</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
@@ -7390,7 +7390,7 @@
       <c r="AE55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF55" s="45" t="n">
+      <c r="AF55" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG55" s="12"/>
@@ -7406,7 +7406,7 @@
         <v>54</v>
       </c>
       <c r="AO55" s="20"/>
-      <c r="AP55" s="46" t="s">
+      <c r="AP55" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ55" s="12"/>
@@ -7477,7 +7477,7 @@
       <c r="AE56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF56" s="45" t="n">
+      <c r="AF56" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG56" s="12"/>
@@ -7493,12 +7493,12 @@
         <v>55</v>
       </c>
       <c r="AO56" s="20"/>
-      <c r="AP56" s="46" t="s">
+      <c r="AP56" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
         <v>56</v>
       </c>
@@ -7533,8 +7533,8 @@
       <c r="N57" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="O57" s="27" t="n">
-        <v>4607042431685</v>
+      <c r="O57" s="31" t="n">
+        <v>5060517884710</v>
       </c>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
@@ -7564,7 +7564,7 @@
       <c r="AE57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF57" s="45" t="n">
+      <c r="AF57" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG57" s="12"/>
@@ -7580,7 +7580,7 @@
         <v>56</v>
       </c>
       <c r="AO57" s="20"/>
-      <c r="AP57" s="46" t="s">
+      <c r="AP57" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ57" s="12"/>
@@ -7651,7 +7651,7 @@
       <c r="AE58" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF58" s="45" t="n">
+      <c r="AF58" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG58" s="12"/>
@@ -7667,7 +7667,7 @@
         <v>57</v>
       </c>
       <c r="AO58" s="20"/>
-      <c r="AP58" s="46" t="s">
+      <c r="AP58" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ58" s="12"/>
@@ -7689,7 +7689,7 @@
         <v>162</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="50" t="s">
         <v>178</v>
       </c>
       <c r="H59" s="26" t="s">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="49" t="s">
+      <c r="N59" s="50" t="s">
         <v>178</v>
       </c>
       <c r="O59" s="27" t="n">
@@ -7738,7 +7738,7 @@
       <c r="AE59" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF59" s="45" t="n">
+      <c r="AF59" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG59" s="12"/>
@@ -7754,7 +7754,7 @@
         <v>58</v>
       </c>
       <c r="AO59" s="20"/>
-      <c r="AP59" s="46" t="s">
+      <c r="AP59" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ59" s="12"/>
@@ -7776,7 +7776,7 @@
         <v>162</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="51" t="s">
         <v>180</v>
       </c>
       <c r="H60" s="26" t="s">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="50" t="s">
+      <c r="N60" s="51" t="s">
         <v>180</v>
       </c>
       <c r="O60" s="27" t="n">
@@ -7825,7 +7825,7 @@
       <c r="AE60" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF60" s="45" t="n">
+      <c r="AF60" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG60" s="12"/>
@@ -7841,7 +7841,7 @@
         <v>59</v>
       </c>
       <c r="AO60" s="20"/>
-      <c r="AP60" s="46" t="s">
+      <c r="AP60" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ60" s="12"/>
@@ -7863,7 +7863,7 @@
         <v>162</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="50" t="s">
+      <c r="G61" s="51" t="s">
         <v>182</v>
       </c>
       <c r="H61" s="26" t="s">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="50" t="s">
+      <c r="N61" s="51" t="s">
         <v>182</v>
       </c>
       <c r="O61" s="27" t="n">
@@ -7912,7 +7912,7 @@
       <c r="AE61" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF61" s="45" t="n">
+      <c r="AF61" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG61" s="7"/>
@@ -7928,7 +7928,7 @@
         <v>60</v>
       </c>
       <c r="AO61" s="22"/>
-      <c r="AP61" s="46" t="s">
+      <c r="AP61" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ61" s="13"/>
@@ -7950,7 +7950,7 @@
         <v>162</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="50" t="s">
         <v>184</v>
       </c>
       <c r="H62" s="26" t="s">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="49" t="s">
+      <c r="N62" s="50" t="s">
         <v>184</v>
       </c>
       <c r="O62" s="27" t="n">
@@ -7999,7 +7999,7 @@
       <c r="AE62" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF62" s="45" t="n">
+      <c r="AF62" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG62" s="12"/>
@@ -8015,7 +8015,7 @@
         <v>61</v>
       </c>
       <c r="AO62" s="20"/>
-      <c r="AP62" s="46" t="s">
+      <c r="AP62" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ62" s="12"/>
@@ -8037,7 +8037,7 @@
         <v>162</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="50" t="s">
         <v>186</v>
       </c>
       <c r="H63" s="26" t="s">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="49" t="s">
+      <c r="N63" s="50" t="s">
         <v>186</v>
       </c>
       <c r="O63" s="27" t="n">
@@ -8086,7 +8086,7 @@
       <c r="AE63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF63" s="45" t="n">
+      <c r="AF63" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG63" s="12"/>
@@ -8102,7 +8102,7 @@
         <v>62</v>
       </c>
       <c r="AO63" s="20"/>
-      <c r="AP63" s="46" t="s">
+      <c r="AP63" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ63" s="12"/>
@@ -8124,10 +8124,10 @@
         <v>188</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="41" t="s">
         <v>190</v>
       </c>
       <c r="I64" s="16" t="s">
@@ -8172,7 +8172,7 @@
       <c r="AN64" s="21" t="n">
         <v>63</v>
       </c>
-      <c r="AO64" s="34" t="s">
+      <c r="AO64" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AP64" s="23"/>
@@ -8213,7 +8213,7 @@
       <c r="N65" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="O65" s="51" t="n">
+      <c r="O65" s="52" t="n">
         <v>5449000131805</v>
       </c>
       <c r="P65" s="16"/>
@@ -8244,7 +8244,7 @@
       <c r="AE65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF65" s="52" t="n">
+      <c r="AF65" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG65" s="12"/>
@@ -8260,7 +8260,7 @@
         <v>64</v>
       </c>
       <c r="AO65" s="20"/>
-      <c r="AP65" s="46" t="s">
+      <c r="AP65" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ65" s="12"/>
@@ -8300,7 +8300,7 @@
       <c r="N66" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="53" t="n">
+      <c r="O66" s="54" t="n">
         <v>5449000044839</v>
       </c>
       <c r="P66" s="16"/>
@@ -8331,7 +8331,7 @@
       <c r="AE66" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF66" s="52" t="n">
+      <c r="AF66" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG66" s="12"/>
@@ -8347,7 +8347,7 @@
         <v>65</v>
       </c>
       <c r="AO66" s="20"/>
-      <c r="AP66" s="46" t="s">
+      <c r="AP66" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ66" s="12"/>
@@ -8387,7 +8387,7 @@
       <c r="N67" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="O67" s="53" t="n">
+      <c r="O67" s="54" t="n">
         <v>54490130</v>
       </c>
       <c r="P67" s="16"/>
@@ -8418,7 +8418,7 @@
       <c r="AE67" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF67" s="52" t="n">
+      <c r="AF67" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG67" s="12"/>
@@ -8434,7 +8434,7 @@
         <v>66</v>
       </c>
       <c r="AO67" s="20"/>
-      <c r="AP67" s="46" t="s">
+      <c r="AP67" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ67" s="12"/>
@@ -8474,7 +8474,7 @@
       <c r="N68" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="O68" s="53" t="n">
+      <c r="O68" s="54" t="n">
         <v>5449000044808</v>
       </c>
       <c r="P68" s="16"/>
@@ -8505,7 +8505,7 @@
       <c r="AE68" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF68" s="52" t="n">
+      <c r="AF68" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG68" s="12"/>
@@ -8521,7 +8521,7 @@
         <v>67</v>
       </c>
       <c r="AO68" s="20"/>
-      <c r="AP68" s="46" t="s">
+      <c r="AP68" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ68" s="12"/>
@@ -8561,7 +8561,7 @@
       <c r="N69" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="O69" s="53" t="n">
+      <c r="O69" s="54" t="n">
         <v>5449000026583</v>
       </c>
       <c r="P69" s="16"/>
@@ -8592,7 +8592,7 @@
       <c r="AE69" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF69" s="52" t="n">
+      <c r="AF69" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG69" s="12"/>
@@ -8608,7 +8608,7 @@
         <v>68</v>
       </c>
       <c r="AO69" s="20"/>
-      <c r="AP69" s="46" t="s">
+      <c r="AP69" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ69" s="12"/>
@@ -8648,7 +8648,7 @@
       <c r="N70" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="O70" s="53" t="n">
+      <c r="O70" s="54" t="n">
         <v>5449000148056</v>
       </c>
       <c r="P70" s="16"/>
@@ -8679,7 +8679,7 @@
       <c r="AE70" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF70" s="52" t="n">
+      <c r="AF70" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG70" s="12"/>
@@ -8695,7 +8695,7 @@
         <v>69</v>
       </c>
       <c r="AO70" s="20"/>
-      <c r="AP70" s="46" t="s">
+      <c r="AP70" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ70" s="12"/>
@@ -8735,7 +8735,7 @@
       <c r="N71" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="O71" s="53" t="n">
+      <c r="O71" s="54" t="n">
         <v>5449000233509</v>
       </c>
       <c r="P71" s="16"/>
@@ -8766,7 +8766,7 @@
       <c r="AE71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF71" s="52" t="n">
+      <c r="AF71" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG71" s="12"/>
@@ -8782,7 +8782,7 @@
         <v>70</v>
       </c>
       <c r="AO71" s="20"/>
-      <c r="AP71" s="46" t="s">
+      <c r="AP71" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ71" s="12"/>
@@ -8804,7 +8804,7 @@
         <v>188</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="39" t="s">
         <v>206</v>
       </c>
       <c r="H72" s="26" t="s">
@@ -8819,10 +8819,10 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-      <c r="N72" s="38" t="s">
+      <c r="N72" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="O72" s="51" t="n">
+      <c r="O72" s="52" t="n">
         <v>4607174579736</v>
       </c>
       <c r="P72" s="16"/>
@@ -8853,7 +8853,7 @@
       <c r="AE72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF72" s="52" t="n">
+      <c r="AF72" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG72" s="12"/>
@@ -8869,7 +8869,7 @@
         <v>71</v>
       </c>
       <c r="AO72" s="20"/>
-      <c r="AP72" s="46" t="s">
+      <c r="AP72" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ72" s="12"/>
@@ -8891,7 +8891,7 @@
         <v>188</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="39" t="s">
         <v>208</v>
       </c>
       <c r="H73" s="26" t="s">
@@ -8906,10 +8906,10 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="38" t="s">
+      <c r="N73" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="O73" s="53" t="n">
+      <c r="O73" s="54" t="n">
         <v>4607042438967</v>
       </c>
       <c r="P73" s="16"/>
@@ -8940,7 +8940,7 @@
       <c r="AE73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF73" s="52" t="n">
+      <c r="AF73" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG73" s="12"/>
@@ -8956,7 +8956,7 @@
         <v>72</v>
       </c>
       <c r="AO73" s="20"/>
-      <c r="AP73" s="46" t="s">
+      <c r="AP73" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ73" s="12"/>
@@ -8978,7 +8978,7 @@
         <v>188</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="39" t="s">
         <v>210</v>
       </c>
       <c r="H74" s="26" t="s">
@@ -8993,10 +8993,10 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="38" t="s">
+      <c r="N74" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="O74" s="53" t="n">
+      <c r="O74" s="54" t="n">
         <v>4607042439216</v>
       </c>
       <c r="P74" s="16"/>
@@ -9027,7 +9027,7 @@
       <c r="AE74" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF74" s="52" t="n">
+      <c r="AF74" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG74" s="12"/>
@@ -9043,7 +9043,7 @@
         <v>73</v>
       </c>
       <c r="AO74" s="20"/>
-      <c r="AP74" s="46" t="s">
+      <c r="AP74" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ74" s="12"/>
@@ -9065,7 +9065,7 @@
         <v>188</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="39" t="s">
         <v>212</v>
       </c>
       <c r="H75" s="26" t="s">
@@ -9080,10 +9080,10 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="38" t="s">
+      <c r="N75" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="O75" s="51" t="n">
+      <c r="O75" s="52" t="n">
         <v>4607042439223</v>
       </c>
       <c r="P75" s="16"/>
@@ -9114,7 +9114,7 @@
       <c r="AE75" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF75" s="52" t="n">
+      <c r="AF75" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG75" s="12"/>
@@ -9130,7 +9130,7 @@
         <v>74</v>
       </c>
       <c r="AO75" s="20"/>
-      <c r="AP75" s="46" t="s">
+      <c r="AP75" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ75" s="12"/>
@@ -9152,7 +9152,7 @@
         <v>188</v>
       </c>
       <c r="F76" s="15"/>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="39" t="s">
         <v>214</v>
       </c>
       <c r="H76" s="26" t="s">
@@ -9167,10 +9167,10 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
-      <c r="N76" s="38" t="s">
+      <c r="N76" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="O76" s="51" t="n">
+      <c r="O76" s="52" t="n">
         <v>4607042439155</v>
       </c>
       <c r="P76" s="16"/>
@@ -9201,7 +9201,7 @@
       <c r="AE76" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF76" s="52" t="n">
+      <c r="AF76" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG76" s="12"/>
@@ -9217,7 +9217,7 @@
         <v>75</v>
       </c>
       <c r="AO76" s="20"/>
-      <c r="AP76" s="46" t="s">
+      <c r="AP76" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ76" s="12"/>
@@ -9239,7 +9239,7 @@
         <v>188</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="39" t="s">
         <v>216</v>
       </c>
       <c r="H77" s="26" t="s">
@@ -9254,10 +9254,10 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="54" t="s">
+      <c r="N77" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="O77" s="53" t="n">
+      <c r="O77" s="54" t="n">
         <v>4607174574908</v>
       </c>
       <c r="P77" s="16"/>
@@ -9288,7 +9288,7 @@
       <c r="AE77" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF77" s="52" t="n">
+      <c r="AF77" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG77" s="12"/>
@@ -9304,7 +9304,7 @@
         <v>76</v>
       </c>
       <c r="AO77" s="20"/>
-      <c r="AP77" s="46" t="s">
+      <c r="AP77" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ77" s="12"/>
@@ -9326,7 +9326,7 @@
         <v>188</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="39" t="s">
         <v>218</v>
       </c>
       <c r="H78" s="26" t="s">
@@ -9341,10 +9341,10 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="54" t="s">
+      <c r="N78" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="O78" s="55" t="n">
+      <c r="O78" s="56" t="n">
         <v>4607174577947</v>
       </c>
       <c r="P78" s="16"/>
@@ -9375,7 +9375,7 @@
       <c r="AE78" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF78" s="52" t="n">
+      <c r="AF78" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG78" s="12"/>
@@ -9391,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AO78" s="20"/>
-      <c r="AP78" s="46" t="s">
+      <c r="AP78" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ78" s="12"/>
@@ -9400,19 +9400,19 @@
       <c r="A79" s="24" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D79" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="17" t="s">
         <v>221</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>223</v>
       </c>
       <c r="J79" s="17"/>
-      <c r="K79" s="57" t="n">
+      <c r="K79" s="58" t="n">
         <v>0.5</v>
       </c>
       <c r="L79" s="17"/>
@@ -9431,11 +9431,11 @@
       <c r="N79" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O79" s="58" t="s">
+      <c r="O79" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="P79" s="58"/>
-      <c r="Q79" s="58"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
       <c r="R79" s="12"/>
       <c r="S79" s="12" t="s">
         <v>226</v>
@@ -9458,7 +9458,7 @@
       <c r="AE79" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF79" s="59" t="n">
+      <c r="AF79" s="60" t="n">
         <v>0.04</v>
       </c>
       <c r="AG79" s="17"/>
@@ -9474,26 +9474,26 @@
         <v>78</v>
       </c>
       <c r="AO79" s="12"/>
-      <c r="AP79" s="60"/>
+      <c r="AP79" s="61"/>
       <c r="AQ79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="56" t="s">
+      <c r="E80" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="17" t="s">
         <v>230</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>223</v>
       </c>
       <c r="J80" s="17"/>
-      <c r="K80" s="57" t="n">
+      <c r="K80" s="58" t="n">
         <v>0.15</v>
       </c>
       <c r="L80" s="17"/>
@@ -9512,11 +9512,11 @@
       <c r="N80" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O80" s="58" t="s">
+      <c r="O80" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12" t="s">
         <v>226</v>
@@ -9539,7 +9539,7 @@
       <c r="AE80" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF80" s="61" t="n">
+      <c r="AF80" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG80" s="17"/>
@@ -9555,26 +9555,26 @@
         <v>79</v>
       </c>
       <c r="AO80" s="12"/>
-      <c r="AP80" s="60"/>
+      <c r="AP80" s="61"/>
       <c r="AQ80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D81" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="56" t="s">
+      <c r="E81" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="56"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="17" t="s">
         <v>234</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>223</v>
       </c>
       <c r="J81" s="17"/>
-      <c r="K81" s="57" t="n">
+      <c r="K81" s="58" t="n">
         <v>0.4</v>
       </c>
       <c r="L81" s="17"/>
@@ -9593,11 +9593,11 @@
       <c r="N81" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O81" s="58" t="s">
+      <c r="O81" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12" t="s">
         <v>226</v>
@@ -9620,7 +9620,7 @@
       <c r="AE81" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF81" s="61" t="n">
+      <c r="AF81" s="62" t="n">
         <v>0.04</v>
       </c>
       <c r="AG81" s="17"/>
@@ -9636,26 +9636,26 @@
         <v>80</v>
       </c>
       <c r="AO81" s="12"/>
-      <c r="AP81" s="60"/>
+      <c r="AP81" s="61"/>
       <c r="AQ81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="56"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="17" t="s">
         <v>238</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>223</v>
       </c>
       <c r="J82" s="17"/>
-      <c r="K82" s="57" t="n">
+      <c r="K82" s="58" t="n">
         <v>0.45</v>
       </c>
       <c r="L82" s="17"/>
@@ -9674,12 +9674,12 @@
       <c r="N82" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O82" s="62" t="s">
+      <c r="O82" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="64"/>
       <c r="S82" s="12" t="s">
         <v>226</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="AE82" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF82" s="61" t="n">
+      <c r="AF82" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG82" s="17"/>
@@ -9717,26 +9717,26 @@
         <v>81</v>
       </c>
       <c r="AO82" s="12"/>
-      <c r="AP82" s="60"/>
+      <c r="AP82" s="61"/>
       <c r="AQ82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D83" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="F83" s="56"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="17" t="s">
         <v>242</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>223</v>
       </c>
       <c r="J83" s="17"/>
-      <c r="K83" s="57" t="n">
+      <c r="K83" s="58" t="n">
         <v>0.35</v>
       </c>
       <c r="L83" s="17"/>
@@ -9755,11 +9755,11 @@
       <c r="N83" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O83" s="62" t="s">
+      <c r="O83" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
         <v>226</v>
@@ -9782,7 +9782,7 @@
       <c r="AE83" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF83" s="61" t="n">
+      <c r="AF83" s="62" t="n">
         <v>0.02</v>
       </c>
       <c r="AG83" s="17"/>
@@ -9805,19 +9805,19 @@
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F84" s="56"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="12" t="s">
         <v>246</v>
       </c>
@@ -9834,9 +9834,9 @@
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
       <c r="N84" s="12"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
       <c r="R84" s="12" t="s">
         <v>249</v>
       </c>
@@ -9859,7 +9859,7 @@
       <c r="AE84" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF84" s="61" t="n">
+      <c r="AF84" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG84" s="17"/>
@@ -9874,7 +9874,7 @@
       <c r="AN84" s="21" t="n">
         <v>83</v>
       </c>
-      <c r="AO84" s="64" t="s">
+      <c r="AO84" s="65" t="s">
         <v>251</v>
       </c>
       <c r="AP84" s="12"/>
@@ -9884,19 +9884,19 @@
       <c r="A85" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="12" t="s">
         <v>252</v>
       </c>
@@ -9915,11 +9915,11 @@
       <c r="N85" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O85" s="58" t="s">
+      <c r="O85" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
       <c r="R85" s="12" t="s">
         <v>55</v>
       </c>
@@ -9944,7 +9944,7 @@
       <c r="AE85" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF85" s="61" t="n">
+      <c r="AF85" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG85" s="17"/>
@@ -9969,23 +9969,23 @@
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="65" t="s">
+      <c r="D86" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="65" t="s">
+      <c r="E86" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F86" s="65"/>
+      <c r="F86" s="66"/>
       <c r="G86" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H86" s="34" t="s">
+      <c r="H86" s="35" t="s">
         <v>255</v>
       </c>
       <c r="I86" s="17" t="s">
@@ -9998,9 +9998,9 @@
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="12"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
       <c r="R86" s="12" t="s">
         <v>55</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="AE86" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF86" s="61" t="n">
+      <c r="AF86" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG86" s="17"/>
@@ -10038,7 +10038,7 @@
       <c r="AN86" s="21" t="n">
         <v>85</v>
       </c>
-      <c r="AO86" s="64" t="s">
+      <c r="AO86" s="65" t="s">
         <v>257</v>
       </c>
       <c r="AP86" s="12" t="s">
@@ -10050,42 +10050,42 @@
       <c r="A87" s="24" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="65" t="s">
+      <c r="D87" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F87" s="56"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="66" t="s">
+      <c r="I87" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
-      <c r="N87" s="68" t="s">
+      <c r="N87" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O87" s="69" t="n">
+      <c r="O87" s="70" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="P87" s="70" t="s">
+      <c r="P87" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="Q87" s="70"/>
+      <c r="Q87" s="71"/>
       <c r="R87" s="12" t="s">
         <v>55</v>
       </c>
@@ -10110,7 +10110,7 @@
       <c r="AE87" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF87" s="61" t="n">
+      <c r="AF87" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG87" s="17"/>
@@ -10137,42 +10137,42 @@
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="65" t="s">
+      <c r="D88" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="56" t="s">
+      <c r="E88" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F88" s="56"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="I88" s="66" t="s">
+      <c r="I88" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J88" s="66"/>
-      <c r="K88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="68"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
-      <c r="N88" s="68" t="s">
+      <c r="N88" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="O88" s="69" t="n">
+      <c r="O88" s="70" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P88" s="70" t="s">
+      <c r="P88" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="Q88" s="70"/>
+      <c r="Q88" s="71"/>
       <c r="R88" s="12" t="s">
         <v>55</v>
       </c>
@@ -10197,7 +10197,7 @@
       <c r="AE88" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF88" s="61" t="n">
+      <c r="AF88" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG88" s="17"/>
@@ -10224,19 +10224,19 @@
       <c r="A89" s="24" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D89" s="56" t="s">
+      <c r="D89" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="12" t="s">
         <v>265</v>
       </c>
@@ -10253,16 +10253,16 @@
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="12"/>
-      <c r="O89" s="58"/>
-      <c r="P89" s="58"/>
-      <c r="Q89" s="58"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
       <c r="R89" s="12" t="s">
         <v>249</v>
       </c>
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
-      <c r="V89" s="71"/>
+      <c r="V89" s="72"/>
       <c r="W89" s="12"/>
       <c r="X89" s="12" t="s">
         <v>267</v>
@@ -10278,7 +10278,7 @@
       <c r="AE89" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF89" s="61" t="n">
+      <c r="AF89" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG89" s="17"/>
@@ -10293,7 +10293,7 @@
       <c r="AN89" s="30" t="n">
         <v>88</v>
       </c>
-      <c r="AO89" s="64" t="s">
+      <c r="AO89" s="65" t="s">
         <v>268</v>
       </c>
       <c r="AP89" s="12"/>
@@ -10303,23 +10303,23 @@
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="56"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H90" s="72" t="s">
+      <c r="H90" s="73" t="s">
         <v>270</v>
       </c>
       <c r="I90" s="17" t="s">
@@ -10334,11 +10334,11 @@
       <c r="N90" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O90" s="58" t="s">
+      <c r="O90" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="P90" s="58"/>
-      <c r="Q90" s="58"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
       <c r="R90" s="12" t="s">
         <v>55</v>
       </c>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
-      <c r="V90" s="71"/>
+      <c r="V90" s="72"/>
       <c r="W90" s="12"/>
       <c r="X90" s="12" t="s">
         <v>267</v>
@@ -10363,7 +10363,7 @@
       <c r="AE90" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF90" s="61" t="n">
+      <c r="AF90" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG90" s="17"/>
@@ -10388,40 +10388,40 @@
       <c r="A91" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F91" s="56"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H91" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="I91" s="66" t="s">
+      <c r="I91" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J91" s="66"/>
-      <c r="K91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="68"/>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
-      <c r="N91" s="68" t="s">
+      <c r="N91" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="O91" s="69" t="n">
+      <c r="O91" s="70" t="n">
         <v>5449000005489</v>
       </c>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
       <c r="R91" s="12" t="s">
         <v>55</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="AE91" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF91" s="61" t="n">
+      <c r="AF91" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG91" s="17"/>
@@ -10473,19 +10473,19 @@
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="56"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="12" t="s">
         <v>274</v>
       </c>
@@ -10502,16 +10502,16 @@
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" s="12"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="58"/>
-      <c r="Q92" s="58"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
       <c r="R92" s="12" t="s">
         <v>249</v>
       </c>
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
-      <c r="V92" s="71"/>
+      <c r="V92" s="72"/>
       <c r="W92" s="12"/>
       <c r="X92" s="12" t="s">
         <v>276</v>
@@ -10527,7 +10527,7 @@
       <c r="AE92" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF92" s="61" t="n">
+      <c r="AF92" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG92" s="17"/>
@@ -10542,7 +10542,7 @@
       <c r="AN92" s="21" t="n">
         <v>91</v>
       </c>
-      <c r="AO92" s="64" t="s">
+      <c r="AO92" s="65" t="s">
         <v>277</v>
       </c>
       <c r="AP92" s="12"/>
@@ -10552,23 +10552,23 @@
       <c r="A93" s="24" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D93" s="56" t="s">
+      <c r="D93" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="H93" s="72" t="s">
+      <c r="H93" s="73" t="s">
         <v>279</v>
       </c>
       <c r="I93" s="17" t="s">
@@ -10583,11 +10583,11 @@
       <c r="N93" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O93" s="58" t="s">
+      <c r="O93" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="P93" s="58"/>
-      <c r="Q93" s="58"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
       <c r="R93" s="12" t="s">
         <v>55</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
-      <c r="V93" s="71"/>
+      <c r="V93" s="72"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12" t="s">
         <v>276</v>
@@ -10612,7 +10612,7 @@
       <c r="AE93" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF93" s="61" t="n">
+      <c r="AF93" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG93" s="17"/>
@@ -10637,23 +10637,23 @@
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="D94" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="65" t="s">
+      <c r="E94" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H94" s="34" t="s">
+      <c r="H94" s="35" t="s">
         <v>281</v>
       </c>
       <c r="I94" s="17" t="s">
@@ -10666,16 +10666,16 @@
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="12"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="58"/>
-      <c r="Q94" s="58"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
       <c r="R94" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
-      <c r="V94" s="71"/>
+      <c r="V94" s="72"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12" t="s">
         <v>276</v>
@@ -10691,7 +10691,7 @@
       <c r="AE94" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF94" s="61" t="n">
+      <c r="AF94" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG94" s="17"/>
@@ -10706,7 +10706,7 @@
       <c r="AN94" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="AO94" s="64" t="s">
+      <c r="AO94" s="65" t="s">
         <v>282</v>
       </c>
       <c r="AP94" s="12" t="s">
@@ -10718,40 +10718,40 @@
       <c r="A95" s="24" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="56" t="s">
+      <c r="D95" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F95" s="56"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="I95" s="66" t="s">
+      <c r="I95" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J95" s="66"/>
-      <c r="K95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="68"/>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
-      <c r="N95" s="63" t="s">
+      <c r="N95" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O95" s="73" t="n">
+      <c r="O95" s="74" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="70"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71"/>
       <c r="R95" s="12" t="s">
         <v>55</v>
       </c>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="T95" s="12"/>
       <c r="U95" s="12"/>
-      <c r="V95" s="71"/>
+      <c r="V95" s="72"/>
       <c r="W95" s="12"/>
       <c r="X95" s="12" t="s">
         <v>276</v>
@@ -10776,7 +10776,7 @@
       <c r="AE95" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF95" s="61" t="n">
+      <c r="AF95" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG95" s="17"/>
@@ -10803,40 +10803,40 @@
       <c r="A96" s="14" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D96" s="56" t="s">
+      <c r="D96" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="56" t="s">
+      <c r="E96" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F96" s="56"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="I96" s="66" t="s">
+      <c r="I96" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J96" s="66"/>
-      <c r="K96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>
-      <c r="N96" s="63" t="s">
+      <c r="N96" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="O96" s="70" t="n">
+      <c r="O96" s="71" t="n">
         <v>4607042434891</v>
       </c>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
       <c r="R96" s="12" t="s">
         <v>55</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
-      <c r="V96" s="71"/>
+      <c r="V96" s="72"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12" t="s">
         <v>276</v>
@@ -10861,7 +10861,7 @@
       <c r="AE96" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF96" s="61" t="n">
+      <c r="AF96" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG96" s="17"/>
@@ -10888,19 +10888,19 @@
       <c r="A97" s="24" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="56" t="s">
+      <c r="E97" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F97" s="56"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="12" t="s">
         <v>289</v>
       </c>
@@ -10917,16 +10917,16 @@
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
       <c r="N97" s="12"/>
-      <c r="O97" s="58"/>
-      <c r="P97" s="58"/>
-      <c r="Q97" s="58"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
       <c r="R97" s="12" t="s">
         <v>249</v>
       </c>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
-      <c r="V97" s="71"/>
+      <c r="V97" s="72"/>
       <c r="W97" s="12"/>
       <c r="X97" s="12" t="s">
         <v>291</v>
@@ -10942,7 +10942,7 @@
       <c r="AE97" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF97" s="61" t="n">
+      <c r="AF97" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG97" s="17"/>
@@ -10957,7 +10957,7 @@
       <c r="AN97" s="30" t="n">
         <v>96</v>
       </c>
-      <c r="AO97" s="64" t="s">
+      <c r="AO97" s="65" t="s">
         <v>292</v>
       </c>
       <c r="AP97" s="12"/>
@@ -10967,23 +10967,23 @@
       <c r="A98" s="14" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="56" t="s">
+      <c r="D98" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="E98" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F98" s="56"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="H98" s="72" t="s">
+      <c r="H98" s="73" t="s">
         <v>294</v>
       </c>
       <c r="I98" s="17" t="s">
@@ -10998,11 +10998,11 @@
       <c r="N98" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O98" s="62" t="s">
+      <c r="O98" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="P98" s="62"/>
-      <c r="Q98" s="58"/>
+      <c r="P98" s="63"/>
+      <c r="Q98" s="59"/>
       <c r="R98" s="12" t="s">
         <v>55</v>
       </c>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
-      <c r="V98" s="71"/>
+      <c r="V98" s="72"/>
       <c r="W98" s="12"/>
       <c r="X98" s="12" t="s">
         <v>291</v>
@@ -11027,7 +11027,7 @@
       <c r="AE98" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF98" s="61" t="n">
+      <c r="AF98" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG98" s="17"/>
@@ -11043,7 +11043,7 @@
         <v>97</v>
       </c>
       <c r="AO98" s="12"/>
-      <c r="AP98" s="74" t="s">
+      <c r="AP98" s="75" t="s">
         <v>289</v>
       </c>
       <c r="AQ98" s="12"/>
@@ -11052,23 +11052,23 @@
       <c r="A99" s="24" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="65" t="s">
+      <c r="D99" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="65" t="s">
+      <c r="E99" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F99" s="65"/>
+      <c r="F99" s="66"/>
       <c r="G99" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="H99" s="34" t="s">
+      <c r="H99" s="35" t="s">
         <v>296</v>
       </c>
       <c r="I99" s="17" t="s">
@@ -11081,16 +11081,16 @@
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" s="12"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
-      <c r="Q99" s="58"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
       <c r="R99" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
-      <c r="V99" s="71"/>
+      <c r="V99" s="72"/>
       <c r="W99" s="12"/>
       <c r="X99" s="12" t="s">
         <v>291</v>
@@ -11106,7 +11106,7 @@
       <c r="AE99" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF99" s="61" t="n">
+      <c r="AF99" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG99" s="17"/>
@@ -11121,7 +11121,7 @@
       <c r="AN99" s="30" t="n">
         <v>98</v>
       </c>
-      <c r="AO99" s="64" t="s">
+      <c r="AO99" s="65" t="s">
         <v>297</v>
       </c>
       <c r="AP99" s="12" t="s">
@@ -11133,40 +11133,40 @@
       <c r="A100" s="14" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E100" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F100" s="56"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="H100" s="33" t="s">
+      <c r="H100" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="I100" s="66" t="s">
+      <c r="I100" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J100" s="66"/>
-      <c r="K100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="68"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
       <c r="N100" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="O100" s="69" t="n">
+      <c r="O100" s="70" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="70"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
       <c r="R100" s="12" t="s">
         <v>55</v>
       </c>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
-      <c r="V100" s="71"/>
+      <c r="V100" s="72"/>
       <c r="W100" s="12"/>
       <c r="X100" s="12" t="s">
         <v>291</v>
@@ -11191,7 +11191,7 @@
       <c r="AE100" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF100" s="61" t="n">
+      <c r="AF100" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG100" s="17"/>
@@ -11218,40 +11218,40 @@
       <c r="A101" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="65" t="s">
+      <c r="D101" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F101" s="56"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="I101" s="66" t="s">
+      <c r="I101" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J101" s="66"/>
-      <c r="K101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="68"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="O101" s="69" t="n">
+      <c r="O101" s="70" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
       <c r="R101" s="12" t="s">
         <v>55</v>
       </c>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
-      <c r="V101" s="71"/>
+      <c r="V101" s="72"/>
       <c r="W101" s="12"/>
       <c r="X101" s="12" t="s">
         <v>291</v>
@@ -11276,7 +11276,7 @@
       <c r="AE101" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF101" s="61" t="n">
+      <c r="AF101" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG101" s="17"/>
@@ -11303,19 +11303,19 @@
       <c r="A102" s="14" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F102" s="56"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="17" t="s">
         <v>305</v>
       </c>
@@ -11332,9 +11332,9 @@
       <c r="L102" s="17"/>
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
+      <c r="O102" s="63"/>
+      <c r="P102" s="63"/>
+      <c r="Q102" s="63"/>
       <c r="R102" s="17" t="s">
         <v>55</v>
       </c>
@@ -11346,7 +11346,7 @@
       <c r="X102" s="17"/>
       <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
-      <c r="AA102" s="40"/>
+      <c r="AA102" s="41"/>
       <c r="AB102" s="17"/>
       <c r="AC102" s="17"/>
       <c r="AD102" s="17" t="s">
@@ -11355,7 +11355,7 @@
       <c r="AE102" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF102" s="61" t="n">
+      <c r="AF102" s="62" t="n">
         <v>0.03</v>
       </c>
       <c r="AG102" s="17"/>
@@ -11370,10 +11370,10 @@
       <c r="AN102" s="21" t="n">
         <v>101</v>
       </c>
-      <c r="AO102" s="64" t="s">
+      <c r="AO102" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="AP102" s="75" t="s">
+      <c r="AP102" s="76" t="s">
         <v>308</v>
       </c>
       <c r="AQ102" s="12"/>
@@ -11382,19 +11382,19 @@
       <c r="A103" s="24" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D103" s="56" t="s">
+      <c r="D103" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F103" s="56"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="17" t="s">
         <v>309</v>
       </c>
@@ -11414,8 +11414,8 @@
       <c r="O103" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="63"/>
       <c r="R103" s="17" t="s">
         <v>55</v>
       </c>
@@ -11440,7 +11440,7 @@
       <c r="AE103" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF103" s="61" t="n">
+      <c r="AF103" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG103" s="17"/>
@@ -11465,19 +11465,19 @@
       <c r="A104" s="14" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="56" t="s">
+      <c r="B104" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D104" s="56" t="s">
+      <c r="D104" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E104" s="56" t="s">
+      <c r="E104" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F104" s="56"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="17" t="s">
         <v>314</v>
       </c>
@@ -11497,15 +11497,15 @@
       <c r="O104" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="P104" s="62"/>
-      <c r="Q104" s="62"/>
+      <c r="P104" s="63"/>
+      <c r="Q104" s="63"/>
       <c r="R104" s="17" t="s">
         <v>55</v>
       </c>
       <c r="S104" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="76"/>
+      <c r="T104" s="77"/>
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
       <c r="W104" s="17"/>
@@ -11523,7 +11523,7 @@
       <c r="AE104" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF104" s="61" t="n">
+      <c r="AF104" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG104" s="17"/>
@@ -11548,19 +11548,19 @@
       <c r="A105" s="24" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="56" t="s">
+      <c r="D105" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E105" s="56" t="s">
+      <c r="E105" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F105" s="56"/>
+      <c r="F105" s="57"/>
       <c r="G105" s="17" t="s">
         <v>317</v>
       </c>
@@ -11580,15 +11580,15 @@
       <c r="O105" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="P105" s="62"/>
-      <c r="Q105" s="62"/>
+      <c r="P105" s="63"/>
+      <c r="Q105" s="63"/>
       <c r="R105" s="17" t="s">
         <v>55</v>
       </c>
       <c r="S105" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="T105" s="76"/>
+      <c r="T105" s="77"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
       <c r="W105" s="17"/>
@@ -11606,7 +11606,7 @@
       <c r="AE105" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF105" s="61" t="n">
+      <c r="AF105" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG105" s="17"/>
@@ -11631,19 +11631,19 @@
       <c r="A106" s="14" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D106" s="56" t="s">
+      <c r="D106" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E106" s="77" t="s">
+      <c r="E106" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="F106" s="77"/>
+      <c r="F106" s="78"/>
       <c r="G106" s="17" t="s">
         <v>320</v>
       </c>
@@ -11660,9 +11660,9 @@
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
-      <c r="O106" s="62"/>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="62"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="63"/>
+      <c r="Q106" s="63"/>
       <c r="R106" s="12" t="s">
         <v>55</v>
       </c>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="Y106" s="17"/>
       <c r="Z106" s="17"/>
-      <c r="AA106" s="40"/>
+      <c r="AA106" s="41"/>
       <c r="AB106" s="17"/>
       <c r="AC106" s="17"/>
       <c r="AD106" s="17" t="s">
@@ -11685,7 +11685,7 @@
       <c r="AE106" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF106" s="61" t="n">
+      <c r="AF106" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG106" s="17"/>
@@ -11700,10 +11700,10 @@
       <c r="AN106" s="21" t="n">
         <v>105</v>
       </c>
-      <c r="AO106" s="64" t="s">
+      <c r="AO106" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="AP106" s="78" t="s">
+      <c r="AP106" s="79" t="s">
         <v>323</v>
       </c>
       <c r="AQ106" s="12"/>
@@ -11712,19 +11712,19 @@
       <c r="A107" s="24" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E107" s="56" t="s">
+      <c r="E107" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F107" s="56"/>
+      <c r="F107" s="57"/>
       <c r="G107" s="17" t="s">
         <v>324</v>
       </c>
@@ -11738,9 +11738,9 @@
       <c r="K107" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="56" t="s">
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="57" t="s">
         <v>326</v>
       </c>
       <c r="O107" s="12" t="s">
@@ -11797,19 +11797,19 @@
       <c r="A108" s="14" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D108" s="56" t="s">
+      <c r="D108" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="56" t="s">
+      <c r="E108" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F108" s="56"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="17" t="s">
         <v>330</v>
       </c>
@@ -11823,9 +11823,9 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="12"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
-      <c r="Q108" s="58"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
       <c r="R108" s="4" t="s">
         <v>333</v>
       </c>
@@ -11846,13 +11846,13 @@
       <c r="AE108" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF108" s="61" t="n">
+      <c r="AF108" s="62" t="n">
         <v>0.1</v>
       </c>
       <c r="AG108" s="17"/>
       <c r="AH108" s="17"/>
       <c r="AI108" s="17"/>
-      <c r="AJ108" s="79" t="s">
+      <c r="AJ108" s="80" t="s">
         <v>334</v>
       </c>
       <c r="AK108" s="17"/>
@@ -11863,7 +11863,7 @@
       <c r="AN108" s="21" t="n">
         <v>107</v>
       </c>
-      <c r="AO108" s="64" t="s">
+      <c r="AO108" s="65" t="s">
         <v>335</v>
       </c>
       <c r="AP108" s="12"/>
@@ -11873,44 +11873,44 @@
       <c r="A109" s="24" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D109" s="56" t="s">
+      <c r="D109" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="56" t="s">
+      <c r="E109" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F109" s="56"/>
+      <c r="F109" s="57"/>
       <c r="G109" s="17" t="s">
         <v>336</v>
       </c>
       <c r="H109" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I109" s="80" t="s">
+      <c r="I109" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="J109" s="80"/>
+      <c r="J109" s="81"/>
       <c r="K109" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L109" s="34" t="n">
+      <c r="L109" s="35" t="n">
         <v>30</v>
       </c>
       <c r="M109" s="17"/>
-      <c r="N109" s="56" t="s">
+      <c r="N109" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="O109" s="62" t="s">
+      <c r="O109" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="62"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="63"/>
       <c r="R109" s="12"/>
       <c r="S109" s="17" t="s">
         <v>328</v>
@@ -11933,7 +11933,7 @@
       <c r="AE109" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF109" s="61" t="n">
+      <c r="AF109" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG109" s="17"/>
@@ -11941,7 +11941,7 @@
       <c r="AI109" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="AJ109" s="34" t="s">
+      <c r="AJ109" s="35" t="s">
         <v>341</v>
       </c>
       <c r="AK109" s="17"/>
@@ -11962,19 +11962,19 @@
       <c r="A110" s="14" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="56" t="s">
+      <c r="D110" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="56" t="s">
+      <c r="E110" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F110" s="56"/>
+      <c r="F110" s="57"/>
       <c r="G110" s="17" t="s">
         <v>342</v>
       </c>
@@ -11993,11 +11993,11 @@
       <c r="N110" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O110" s="58" t="s">
+      <c r="O110" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="P110" s="58"/>
-      <c r="Q110" s="58"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
       <c r="R110" s="12"/>
       <c r="S110" s="4" t="s">
         <v>328</v>
@@ -12020,7 +12020,7 @@
       <c r="AE110" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF110" s="61" t="n">
+      <c r="AF110" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG110" s="17"/>
@@ -12045,55 +12045,55 @@
       <c r="A111" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="56" t="s">
+      <c r="B111" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="56" t="s">
+      <c r="D111" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="56" t="s">
+      <c r="E111" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F111" s="56"/>
+      <c r="F111" s="57"/>
       <c r="G111" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="H111" s="40" t="s">
+      <c r="H111" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="I111" s="81" t="s">
+      <c r="I111" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="J111" s="81"/>
-      <c r="K111" s="40" t="n">
+      <c r="J111" s="82"/>
+      <c r="K111" s="41" t="n">
         <v>1</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="12"/>
-      <c r="O111" s="82" t="s">
+      <c r="O111" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="P111" s="58"/>
-      <c r="Q111" s="58"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
       <c r="R111" s="12"/>
       <c r="S111" s="7" t="s">
         <v>350</v>
       </c>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
-      <c r="V111" s="83"/>
+      <c r="V111" s="84"/>
       <c r="W111" s="12"/>
-      <c r="X111" s="79" t="s">
+      <c r="X111" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="82" t="s">
+      <c r="Y111" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="Z111" s="83"/>
+      <c r="Z111" s="84"/>
       <c r="AA111" s="17"/>
       <c r="AB111" s="12"/>
       <c r="AC111" s="12"/>
@@ -12103,7 +12103,7 @@
       <c r="AE111" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF111" s="61" t="n">
+      <c r="AF111" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG111" s="17"/>
@@ -12111,7 +12111,7 @@
       <c r="AI111" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ111" s="84" t="s">
+      <c r="AJ111" s="85" t="s">
         <v>352</v>
       </c>
       <c r="AK111" s="17"/>
@@ -12123,7 +12123,7 @@
         <v>110</v>
       </c>
       <c r="AO111" s="12"/>
-      <c r="AP111" s="78" t="s">
+      <c r="AP111" s="79" t="s">
         <v>353</v>
       </c>
       <c r="AQ111" s="12"/>
@@ -12132,19 +12132,19 @@
       <c r="A112" s="14" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="56" t="s">
+      <c r="B112" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="56" t="s">
+      <c r="D112" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="56" t="s">
+      <c r="E112" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F112" s="56"/>
+      <c r="F112" s="57"/>
       <c r="G112" s="17" t="s">
         <v>354</v>
       </c>
@@ -12156,20 +12156,20 @@
       </c>
       <c r="J112" s="13"/>
       <c r="K112" s="17"/>
-      <c r="L112" s="40" t="n">
+      <c r="L112" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="M112" s="40" t="n">
+      <c r="M112" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="N112" s="56" t="s">
+      <c r="N112" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="O112" s="58" t="s">
+      <c r="O112" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="P112" s="58"/>
-      <c r="Q112" s="58"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
@@ -12190,7 +12190,7 @@
       <c r="AE112" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF112" s="61" t="n">
+      <c r="AF112" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG112" s="17"/>
@@ -12198,7 +12198,7 @@
       <c r="AI112" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ112" s="84" t="s">
+      <c r="AJ112" s="85" t="s">
         <v>357</v>
       </c>
       <c r="AK112" s="17"/>
@@ -12210,7 +12210,7 @@
         <v>111</v>
       </c>
       <c r="AO112" s="12"/>
-      <c r="AP112" s="78" t="s">
+      <c r="AP112" s="79" t="s">
         <v>353</v>
       </c>
       <c r="AQ112" s="12"/>
@@ -12219,36 +12219,36 @@
       <c r="A113" s="24" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="56" t="s">
+      <c r="D113" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="56" t="s">
+      <c r="E113" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F113" s="56"/>
-      <c r="G113" s="85" t="s">
+      <c r="F113" s="57"/>
+      <c r="G113" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="H113" s="85" t="s">
+      <c r="H113" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="I113" s="86" t="s">
+      <c r="I113" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="J113" s="86"/>
+      <c r="J113" s="87"/>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="12"/>
-      <c r="O113" s="87"/>
-      <c r="P113" s="58"/>
-      <c r="Q113" s="58"/>
+      <c r="O113" s="88"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
       <c r="R113" s="17" t="s">
         <v>249</v>
       </c>
@@ -12271,7 +12271,7 @@
       <c r="AE113" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF113" s="61" t="n">
+      <c r="AF113" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG113" s="17"/>
@@ -12279,7 +12279,7 @@
       <c r="AI113" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ113" s="84" t="s">
+      <c r="AJ113" s="85" t="s">
         <v>357</v>
       </c>
       <c r="AK113" s="17"/>
@@ -12290,10 +12290,10 @@
       <c r="AN113" s="30" t="n">
         <v>112</v>
       </c>
-      <c r="AO113" s="88" t="s">
+      <c r="AO113" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="AP113" s="78" t="s">
+      <c r="AP113" s="79" t="s">
         <v>353</v>
       </c>
       <c r="AQ113" s="12"/>
@@ -12302,38 +12302,38 @@
       <c r="A114" s="14" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="56" t="s">
+      <c r="B114" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D114" s="56" t="s">
+      <c r="D114" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="56" t="s">
+      <c r="E114" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F114" s="56"/>
+      <c r="F114" s="57"/>
       <c r="G114" s="17" t="s">
         <v>362</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="I114" s="89" t="s">
+      <c r="I114" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="J114" s="89"/>
+      <c r="J114" s="90"/>
       <c r="K114" s="17" t="n">
         <v>16</v>
       </c>
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="87"/>
-      <c r="P114" s="58"/>
-      <c r="Q114" s="58"/>
+      <c r="O114" s="88"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="59"/>
       <c r="R114" s="17" t="s">
         <v>249</v>
       </c>
@@ -12353,10 +12353,10 @@
       <c r="AD114" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE114" s="85" t="s">
+      <c r="AE114" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="AF114" s="61" t="n">
+      <c r="AF114" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG114" s="17" t="n">
@@ -12368,7 +12368,7 @@
       <c r="AI114" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="AJ114" s="84" t="s">
+      <c r="AJ114" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK114" s="17"/>
@@ -12379,10 +12379,10 @@
       <c r="AN114" s="21" t="n">
         <v>113</v>
       </c>
-      <c r="AO114" s="64" t="s">
+      <c r="AO114" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="AP114" s="90" t="s">
+      <c r="AP114" s="91" t="s">
         <v>358</v>
       </c>
       <c r="AQ114" s="12"/>
@@ -12391,29 +12391,29 @@
       <c r="A115" s="24" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D115" s="56" t="s">
+      <c r="D115" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="56" t="s">
+      <c r="E115" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F115" s="56"/>
+      <c r="F115" s="57"/>
       <c r="G115" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="H115" s="33" t="s">
+      <c r="H115" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="I115" s="40" t="s">
+      <c r="I115" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J115" s="40"/>
+      <c r="J115" s="41"/>
       <c r="K115" s="17" t="n">
         <v>1</v>
       </c>
@@ -12422,11 +12422,11 @@
       <c r="N115" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O115" s="58" t="n">
+      <c r="O115" s="59" t="n">
         <v>90494406</v>
       </c>
-      <c r="P115" s="58"/>
-      <c r="Q115" s="58"/>
+      <c r="P115" s="59"/>
+      <c r="Q115" s="59"/>
       <c r="R115" s="17" t="s">
         <v>55</v>
       </c>
@@ -12451,25 +12451,25 @@
       <c r="AE115" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF115" s="61" t="n">
+      <c r="AF115" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG115" s="17"/>
       <c r="AH115" s="17"/>
       <c r="AI115" s="17"/>
-      <c r="AJ115" s="84" t="s">
+      <c r="AJ115" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK115" s="17"/>
       <c r="AL115" s="17"/>
-      <c r="AM115" s="91" t="n">
+      <c r="AM115" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN115" s="30" t="n">
         <v>114</v>
       </c>
       <c r="AO115" s="12"/>
-      <c r="AP115" s="90" t="s">
+      <c r="AP115" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ115" s="12"/>
@@ -12478,29 +12478,29 @@
       <c r="A116" s="14" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="56" t="s">
+      <c r="B116" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D116" s="56" t="s">
+      <c r="D116" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F116" s="56"/>
+      <c r="F116" s="57"/>
       <c r="G116" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="I116" s="40" t="s">
+      <c r="I116" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J116" s="40"/>
+      <c r="J116" s="41"/>
       <c r="K116" s="17" t="n">
         <v>1</v>
       </c>
@@ -12509,11 +12509,11 @@
       <c r="N116" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O116" s="58" t="n">
+      <c r="O116" s="59" t="n">
         <v>40822426</v>
       </c>
-      <c r="P116" s="58"/>
-      <c r="Q116" s="58"/>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="59"/>
       <c r="R116" s="17" t="s">
         <v>55</v>
       </c>
@@ -12538,25 +12538,25 @@
       <c r="AE116" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF116" s="61" t="n">
+      <c r="AF116" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG116" s="17"/>
       <c r="AH116" s="17"/>
       <c r="AI116" s="17"/>
-      <c r="AJ116" s="84" t="s">
+      <c r="AJ116" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK116" s="17"/>
       <c r="AL116" s="17"/>
-      <c r="AM116" s="91" t="n">
+      <c r="AM116" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN116" s="21" t="n">
         <v>115</v>
       </c>
       <c r="AO116" s="12"/>
-      <c r="AP116" s="90" t="s">
+      <c r="AP116" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ116" s="12"/>
@@ -12565,29 +12565,29 @@
       <c r="A117" s="24" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="56" t="s">
+      <c r="D117" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="56" t="s">
+      <c r="E117" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F117" s="56"/>
+      <c r="F117" s="57"/>
       <c r="G117" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H117" s="33" t="s">
+      <c r="H117" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="I117" s="40" t="s">
+      <c r="I117" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J117" s="40"/>
+      <c r="J117" s="41"/>
       <c r="K117" s="17" t="n">
         <v>1</v>
       </c>
@@ -12596,11 +12596,11 @@
       <c r="N117" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O117" s="58" t="n">
+      <c r="O117" s="59" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P117" s="58"/>
-      <c r="Q117" s="58"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="59"/>
       <c r="R117" s="17" t="s">
         <v>55</v>
       </c>
@@ -12625,25 +12625,25 @@
       <c r="AE117" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF117" s="61" t="n">
+      <c r="AF117" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG117" s="17"/>
       <c r="AH117" s="17"/>
       <c r="AI117" s="17"/>
-      <c r="AJ117" s="84" t="s">
+      <c r="AJ117" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK117" s="17"/>
       <c r="AL117" s="17"/>
-      <c r="AM117" s="91" t="n">
+      <c r="AM117" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN117" s="30" t="n">
         <v>116</v>
       </c>
       <c r="AO117" s="12"/>
-      <c r="AP117" s="90" t="s">
+      <c r="AP117" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ117" s="12"/>
@@ -12652,29 +12652,29 @@
       <c r="A118" s="14" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="56" t="s">
+      <c r="B118" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D118" s="56" t="s">
+      <c r="D118" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="56" t="s">
+      <c r="E118" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F118" s="56"/>
+      <c r="F118" s="57"/>
       <c r="G118" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="H118" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="I118" s="40" t="s">
+      <c r="I118" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J118" s="40"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="17" t="n">
         <v>1</v>
       </c>
@@ -12683,11 +12683,11 @@
       <c r="N118" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O118" s="58" t="n">
+      <c r="O118" s="59" t="n">
         <v>5449000008046</v>
       </c>
-      <c r="P118" s="58"/>
-      <c r="Q118" s="58"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
       <c r="R118" s="17" t="s">
         <v>55</v>
       </c>
@@ -12712,25 +12712,25 @@
       <c r="AE118" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF118" s="61" t="n">
+      <c r="AF118" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG118" s="17"/>
       <c r="AH118" s="17"/>
       <c r="AI118" s="17"/>
-      <c r="AJ118" s="84" t="s">
+      <c r="AJ118" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK118" s="17"/>
       <c r="AL118" s="17"/>
-      <c r="AM118" s="91" t="n">
+      <c r="AM118" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN118" s="21" t="n">
         <v>117</v>
       </c>
       <c r="AO118" s="12"/>
-      <c r="AP118" s="90" t="s">
+      <c r="AP118" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ118" s="12"/>
@@ -12739,29 +12739,29 @@
       <c r="A119" s="24" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="56" t="s">
+      <c r="B119" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="56" t="s">
+      <c r="D119" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="56" t="s">
+      <c r="E119" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F119" s="56"/>
+      <c r="F119" s="57"/>
       <c r="G119" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="H119" s="33" t="s">
+      <c r="H119" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="I119" s="40" t="s">
+      <c r="I119" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J119" s="40"/>
+      <c r="J119" s="41"/>
       <c r="K119" s="17" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +12770,11 @@
       <c r="N119" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O119" s="58" t="n">
+      <c r="O119" s="59" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P119" s="58"/>
-      <c r="Q119" s="58"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="59"/>
       <c r="R119" s="17" t="s">
         <v>55</v>
       </c>
@@ -12799,25 +12799,25 @@
       <c r="AE119" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF119" s="61" t="n">
+      <c r="AF119" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG119" s="17"/>
       <c r="AH119" s="17"/>
       <c r="AI119" s="17"/>
-      <c r="AJ119" s="84" t="s">
+      <c r="AJ119" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK119" s="17"/>
       <c r="AL119" s="17"/>
-      <c r="AM119" s="91" t="n">
+      <c r="AM119" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN119" s="30" t="n">
         <v>118</v>
       </c>
       <c r="AO119" s="12"/>
-      <c r="AP119" s="90" t="s">
+      <c r="AP119" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ119" s="12"/>
@@ -12826,29 +12826,29 @@
       <c r="A120" s="14" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="56" t="s">
+      <c r="B120" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="56" t="s">
+      <c r="E120" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F120" s="56"/>
+      <c r="F120" s="57"/>
       <c r="G120" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="H120" s="33" t="s">
+      <c r="H120" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="I120" s="40" t="s">
+      <c r="I120" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J120" s="40"/>
+      <c r="J120" s="41"/>
       <c r="K120" s="17" t="n">
         <v>1</v>
       </c>
@@ -12857,11 +12857,11 @@
       <c r="N120" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O120" s="58" t="n">
+      <c r="O120" s="59" t="n">
         <v>54491472</v>
       </c>
-      <c r="P120" s="58"/>
-      <c r="Q120" s="58"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59"/>
       <c r="R120" s="17" t="s">
         <v>55</v>
       </c>
@@ -12886,25 +12886,25 @@
       <c r="AE120" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF120" s="61" t="n">
+      <c r="AF120" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG120" s="17"/>
       <c r="AH120" s="17"/>
       <c r="AI120" s="17"/>
-      <c r="AJ120" s="84" t="s">
+      <c r="AJ120" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK120" s="17"/>
       <c r="AL120" s="17"/>
-      <c r="AM120" s="91" t="n">
+      <c r="AM120" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN120" s="21" t="n">
         <v>119</v>
       </c>
       <c r="AO120" s="12"/>
-      <c r="AP120" s="90" t="s">
+      <c r="AP120" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ120" s="12"/>
@@ -12913,29 +12913,29 @@
       <c r="A121" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="56" t="s">
+      <c r="B121" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D121" s="56" t="s">
+      <c r="D121" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="56" t="s">
+      <c r="E121" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F121" s="56"/>
+      <c r="F121" s="57"/>
       <c r="G121" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="H121" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="I121" s="40" t="s">
+      <c r="I121" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J121" s="40"/>
+      <c r="J121" s="41"/>
       <c r="K121" s="17" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +12944,11 @@
       <c r="N121" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O121" s="58" t="n">
+      <c r="O121" s="59" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="P121" s="58"/>
-      <c r="Q121" s="58"/>
+      <c r="P121" s="59"/>
+      <c r="Q121" s="59"/>
       <c r="R121" s="17" t="s">
         <v>55</v>
       </c>
@@ -12973,25 +12973,25 @@
       <c r="AE121" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF121" s="61" t="n">
+      <c r="AF121" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG121" s="17"/>
       <c r="AH121" s="17"/>
       <c r="AI121" s="17"/>
-      <c r="AJ121" s="84" t="s">
+      <c r="AJ121" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK121" s="17"/>
       <c r="AL121" s="17"/>
-      <c r="AM121" s="91" t="n">
+      <c r="AM121" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN121" s="30" t="n">
         <v>120</v>
       </c>
       <c r="AO121" s="12"/>
-      <c r="AP121" s="90" t="s">
+      <c r="AP121" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ121" s="12"/>
@@ -13000,29 +13000,29 @@
       <c r="A122" s="14" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="56" t="s">
+      <c r="B122" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="56" t="s">
+      <c r="D122" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="56" t="s">
+      <c r="E122" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F122" s="56"/>
+      <c r="F122" s="57"/>
       <c r="G122" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="H122" s="33" t="s">
+      <c r="H122" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="I122" s="40" t="s">
+      <c r="I122" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J122" s="40"/>
+      <c r="J122" s="41"/>
       <c r="K122" s="17" t="n">
         <v>1</v>
       </c>
@@ -13031,11 +13031,11 @@
       <c r="N122" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O122" s="58" t="n">
+      <c r="O122" s="59" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P122" s="58"/>
-      <c r="Q122" s="58"/>
+      <c r="P122" s="59"/>
+      <c r="Q122" s="59"/>
       <c r="R122" s="17" t="s">
         <v>55</v>
       </c>
@@ -13060,25 +13060,25 @@
       <c r="AE122" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF122" s="61" t="n">
+      <c r="AF122" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG122" s="17"/>
       <c r="AH122" s="17"/>
       <c r="AI122" s="17"/>
-      <c r="AJ122" s="84" t="s">
+      <c r="AJ122" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK122" s="17"/>
       <c r="AL122" s="17"/>
-      <c r="AM122" s="91" t="n">
+      <c r="AM122" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN122" s="21" t="n">
         <v>121</v>
       </c>
       <c r="AO122" s="12"/>
-      <c r="AP122" s="90" t="s">
+      <c r="AP122" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ122" s="12"/>
@@ -13087,29 +13087,29 @@
       <c r="A123" s="24" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="56" t="s">
+      <c r="B123" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D123" s="56" t="s">
+      <c r="D123" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="56" t="s">
+      <c r="E123" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F123" s="56"/>
+      <c r="F123" s="57"/>
       <c r="G123" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="H123" s="33" t="s">
+      <c r="H123" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="I123" s="40" t="s">
+      <c r="I123" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J123" s="40"/>
+      <c r="J123" s="41"/>
       <c r="K123" s="17" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +13118,11 @@
       <c r="N123" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O123" s="58" t="n">
+      <c r="O123" s="59" t="n">
         <v>5449000133328</v>
       </c>
-      <c r="P123" s="58"/>
-      <c r="Q123" s="58"/>
+      <c r="P123" s="59"/>
+      <c r="Q123" s="59"/>
       <c r="R123" s="17" t="s">
         <v>55</v>
       </c>
@@ -13147,25 +13147,25 @@
       <c r="AE123" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF123" s="61" t="n">
+      <c r="AF123" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG123" s="17"/>
       <c r="AH123" s="17"/>
       <c r="AI123" s="17"/>
-      <c r="AJ123" s="84" t="s">
+      <c r="AJ123" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK123" s="17"/>
       <c r="AL123" s="17"/>
-      <c r="AM123" s="91" t="n">
+      <c r="AM123" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN123" s="30" t="n">
         <v>122</v>
       </c>
       <c r="AO123" s="12"/>
-      <c r="AP123" s="90" t="s">
+      <c r="AP123" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ123" s="12"/>
@@ -13174,29 +13174,29 @@
       <c r="A124" s="14" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="56" t="s">
+      <c r="B124" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D124" s="56" t="s">
+      <c r="D124" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E124" s="56" t="s">
+      <c r="E124" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F124" s="56"/>
+      <c r="F124" s="57"/>
       <c r="G124" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="H124" s="33" t="s">
+      <c r="H124" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="I124" s="40" t="s">
+      <c r="I124" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J124" s="40"/>
+      <c r="J124" s="41"/>
       <c r="K124" s="17" t="n">
         <v>1</v>
       </c>
@@ -13205,11 +13205,11 @@
       <c r="N124" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O124" s="58" t="n">
+      <c r="O124" s="59" t="n">
         <v>40822938</v>
       </c>
-      <c r="P124" s="58"/>
-      <c r="Q124" s="58"/>
+      <c r="P124" s="59"/>
+      <c r="Q124" s="59"/>
       <c r="R124" s="17" t="s">
         <v>55</v>
       </c>
@@ -13234,25 +13234,25 @@
       <c r="AE124" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF124" s="61" t="n">
+      <c r="AF124" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG124" s="17"/>
       <c r="AH124" s="17"/>
       <c r="AI124" s="17"/>
-      <c r="AJ124" s="84" t="s">
+      <c r="AJ124" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK124" s="17"/>
       <c r="AL124" s="17"/>
-      <c r="AM124" s="91" t="n">
+      <c r="AM124" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN124" s="21" t="n">
         <v>123</v>
       </c>
       <c r="AO124" s="12"/>
-      <c r="AP124" s="90" t="s">
+      <c r="AP124" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ124" s="12"/>
@@ -13261,29 +13261,29 @@
       <c r="A125" s="24" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="56" t="s">
+      <c r="B125" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D125" s="56" t="s">
+      <c r="D125" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="56" t="s">
+      <c r="E125" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F125" s="56"/>
+      <c r="F125" s="57"/>
       <c r="G125" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H125" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="I125" s="40" t="s">
+      <c r="I125" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J125" s="40"/>
+      <c r="J125" s="41"/>
       <c r="K125" s="17" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +13292,11 @@
       <c r="N125" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O125" s="58" t="n">
+      <c r="O125" s="59" t="n">
         <v>5449000006271</v>
       </c>
-      <c r="P125" s="58"/>
-      <c r="Q125" s="58"/>
+      <c r="P125" s="59"/>
+      <c r="Q125" s="59"/>
       <c r="R125" s="17" t="s">
         <v>55</v>
       </c>
@@ -13321,25 +13321,25 @@
       <c r="AE125" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF125" s="61" t="n">
+      <c r="AF125" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG125" s="17"/>
       <c r="AH125" s="17"/>
       <c r="AI125" s="17"/>
-      <c r="AJ125" s="84" t="s">
+      <c r="AJ125" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK125" s="17"/>
       <c r="AL125" s="17"/>
-      <c r="AM125" s="91" t="n">
+      <c r="AM125" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN125" s="30" t="n">
         <v>124</v>
       </c>
       <c r="AO125" s="12"/>
-      <c r="AP125" s="90" t="s">
+      <c r="AP125" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ125" s="12"/>
@@ -13348,29 +13348,29 @@
       <c r="A126" s="14" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="56" t="s">
+      <c r="B126" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D126" s="56" t="s">
+      <c r="D126" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E126" s="56" t="s">
+      <c r="E126" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F126" s="56"/>
+      <c r="F126" s="57"/>
       <c r="G126" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="H126" s="33" t="s">
+      <c r="H126" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="I126" s="40" t="s">
+      <c r="I126" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J126" s="40"/>
+      <c r="J126" s="41"/>
       <c r="K126" s="17" t="n">
         <v>1</v>
       </c>
@@ -13379,11 +13379,11 @@
       <c r="N126" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="O126" s="58" t="s">
+      <c r="O126" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="P126" s="58"/>
-      <c r="Q126" s="58"/>
+      <c r="P126" s="59"/>
+      <c r="Q126" s="59"/>
       <c r="R126" s="17" t="s">
         <v>55</v>
       </c>
@@ -13408,25 +13408,25 @@
       <c r="AE126" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF126" s="61" t="n">
+      <c r="AF126" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG126" s="17"/>
       <c r="AH126" s="17"/>
       <c r="AI126" s="17"/>
-      <c r="AJ126" s="84" t="s">
+      <c r="AJ126" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK126" s="17"/>
       <c r="AL126" s="17"/>
-      <c r="AM126" s="91" t="n">
+      <c r="AM126" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN126" s="21" t="n">
         <v>125</v>
       </c>
       <c r="AO126" s="12"/>
-      <c r="AP126" s="90" t="s">
+      <c r="AP126" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ126" s="12"/>
@@ -13435,29 +13435,29 @@
       <c r="A127" s="24" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D127" s="56" t="s">
+      <c r="D127" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="56" t="s">
+      <c r="E127" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F127" s="56"/>
+      <c r="F127" s="57"/>
       <c r="G127" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="H127" s="33" t="s">
+      <c r="H127" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I127" s="40" t="s">
+      <c r="I127" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J127" s="40"/>
+      <c r="J127" s="41"/>
       <c r="K127" s="17" t="n">
         <v>1</v>
       </c>
@@ -13466,11 +13466,11 @@
       <c r="N127" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="O127" s="58" t="s">
+      <c r="O127" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="P127" s="58"/>
-      <c r="Q127" s="58"/>
+      <c r="P127" s="59"/>
+      <c r="Q127" s="59"/>
       <c r="R127" s="17" t="s">
         <v>55</v>
       </c>
@@ -13495,25 +13495,25 @@
       <c r="AE127" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF127" s="61" t="n">
+      <c r="AF127" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG127" s="17"/>
       <c r="AH127" s="17"/>
       <c r="AI127" s="17"/>
-      <c r="AJ127" s="84" t="s">
+      <c r="AJ127" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK127" s="17"/>
       <c r="AL127" s="17"/>
-      <c r="AM127" s="91" t="n">
+      <c r="AM127" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN127" s="30" t="n">
         <v>126</v>
       </c>
       <c r="AO127" s="12"/>
-      <c r="AP127" s="90" t="s">
+      <c r="AP127" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ127" s="12"/>
@@ -13522,29 +13522,29 @@
       <c r="A128" s="14" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="56" t="s">
+      <c r="B128" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="56" t="s">
+      <c r="D128" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E128" s="56" t="s">
+      <c r="E128" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F128" s="56"/>
+      <c r="F128" s="57"/>
       <c r="G128" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="H128" s="33" t="s">
+      <c r="H128" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="I128" s="40" t="s">
+      <c r="I128" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J128" s="40"/>
+      <c r="J128" s="41"/>
       <c r="K128" s="17" t="n">
         <v>1</v>
       </c>
@@ -13553,11 +13553,11 @@
       <c r="N128" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O128" s="58" t="n">
+      <c r="O128" s="59" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P128" s="58"/>
-      <c r="Q128" s="58"/>
+      <c r="P128" s="59"/>
+      <c r="Q128" s="59"/>
       <c r="R128" s="17" t="s">
         <v>55</v>
       </c>
@@ -13582,25 +13582,25 @@
       <c r="AE128" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF128" s="61" t="n">
+      <c r="AF128" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG128" s="17"/>
       <c r="AH128" s="17"/>
       <c r="AI128" s="17"/>
-      <c r="AJ128" s="84" t="s">
+      <c r="AJ128" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK128" s="17"/>
       <c r="AL128" s="17"/>
-      <c r="AM128" s="91" t="n">
+      <c r="AM128" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN128" s="21" t="n">
         <v>127</v>
       </c>
       <c r="AO128" s="12"/>
-      <c r="AP128" s="90" t="s">
+      <c r="AP128" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ128" s="12"/>
@@ -13609,29 +13609,29 @@
       <c r="A129" s="24" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="56" t="s">
+      <c r="B129" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="56" t="s">
+      <c r="E129" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F129" s="56"/>
+      <c r="F129" s="57"/>
       <c r="G129" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="I129" s="40" t="s">
+      <c r="I129" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J129" s="40"/>
+      <c r="J129" s="41"/>
       <c r="K129" s="17" t="n">
         <v>1</v>
       </c>
@@ -13640,11 +13640,11 @@
       <c r="N129" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O129" s="58" t="n">
+      <c r="O129" s="59" t="n">
         <v>54491069</v>
       </c>
-      <c r="P129" s="58"/>
-      <c r="Q129" s="58"/>
+      <c r="P129" s="59"/>
+      <c r="Q129" s="59"/>
       <c r="R129" s="17" t="s">
         <v>55</v>
       </c>
@@ -13669,25 +13669,25 @@
       <c r="AE129" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF129" s="61" t="n">
+      <c r="AF129" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG129" s="17"/>
       <c r="AH129" s="17"/>
       <c r="AI129" s="17"/>
-      <c r="AJ129" s="84" t="s">
+      <c r="AJ129" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK129" s="17"/>
       <c r="AL129" s="17"/>
-      <c r="AM129" s="91" t="n">
+      <c r="AM129" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN129" s="30" t="n">
         <v>128</v>
       </c>
       <c r="AO129" s="12"/>
-      <c r="AP129" s="90" t="s">
+      <c r="AP129" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ129" s="12"/>
@@ -13696,29 +13696,29 @@
       <c r="A130" s="14" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="56" t="s">
+      <c r="B130" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D130" s="56" t="s">
+      <c r="D130" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="56" t="s">
+      <c r="E130" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F130" s="56"/>
+      <c r="F130" s="57"/>
       <c r="G130" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H130" s="33" t="s">
+      <c r="H130" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="I130" s="40" t="s">
+      <c r="I130" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J130" s="40"/>
+      <c r="J130" s="41"/>
       <c r="K130" s="17" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +13727,11 @@
       <c r="N130" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O130" s="58" t="n">
+      <c r="O130" s="59" t="n">
         <v>5449000050939</v>
       </c>
-      <c r="P130" s="58"/>
-      <c r="Q130" s="58"/>
+      <c r="P130" s="59"/>
+      <c r="Q130" s="59"/>
       <c r="R130" s="17" t="s">
         <v>55</v>
       </c>
@@ -13756,25 +13756,25 @@
       <c r="AE130" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF130" s="61" t="n">
+      <c r="AF130" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG130" s="17"/>
       <c r="AH130" s="17"/>
       <c r="AI130" s="17"/>
-      <c r="AJ130" s="84" t="s">
+      <c r="AJ130" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK130" s="17"/>
       <c r="AL130" s="17"/>
-      <c r="AM130" s="91" t="n">
+      <c r="AM130" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN130" s="21" t="n">
         <v>129</v>
       </c>
       <c r="AO130" s="12"/>
-      <c r="AP130" s="90" t="s">
+      <c r="AP130" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ130" s="12"/>
@@ -13783,38 +13783,38 @@
       <c r="A131" s="24" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D131" s="56" t="s">
+      <c r="D131" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E131" s="56" t="s">
+      <c r="E131" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F131" s="56"/>
+      <c r="F131" s="57"/>
       <c r="G131" s="17" t="s">
         <v>405</v>
       </c>
       <c r="H131" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="I131" s="89" t="s">
+      <c r="I131" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="J131" s="89"/>
+      <c r="J131" s="90"/>
       <c r="K131" s="17" t="n">
         <v>11</v>
       </c>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" s="12"/>
-      <c r="O131" s="87"/>
-      <c r="P131" s="58"/>
-      <c r="Q131" s="58"/>
+      <c r="O131" s="88"/>
+      <c r="P131" s="59"/>
+      <c r="Q131" s="59"/>
       <c r="R131" s="17" t="s">
         <v>249</v>
       </c>
@@ -13824,7 +13824,7 @@
       <c r="V131" s="12"/>
       <c r="W131" s="12"/>
       <c r="X131" s="17"/>
-      <c r="Y131" s="65" t="s">
+      <c r="Y131" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z131" s="12"/>
@@ -13834,10 +13834,10 @@
       <c r="AD131" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE131" s="85" t="s">
+      <c r="AE131" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="AF131" s="61" t="n">
+      <c r="AF131" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG131" s="17" t="n">
@@ -13849,7 +13849,7 @@
       <c r="AI131" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ131" s="84" t="s">
+      <c r="AJ131" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK131" s="17"/>
@@ -13860,10 +13860,10 @@
       <c r="AN131" s="30" t="n">
         <v>130</v>
       </c>
-      <c r="AO131" s="64" t="s">
+      <c r="AO131" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="AP131" s="90" t="s">
+      <c r="AP131" s="91" t="s">
         <v>358</v>
       </c>
       <c r="AQ131" s="12"/>
@@ -13872,29 +13872,29 @@
       <c r="A132" s="14" t="n">
         <v>131</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B132" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D132" s="56" t="s">
+      <c r="D132" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="56" t="s">
+      <c r="E132" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F132" s="56"/>
+      <c r="F132" s="57"/>
       <c r="G132" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="H132" s="33" t="s">
+      <c r="H132" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="I132" s="40" t="s">
+      <c r="I132" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J132" s="40"/>
+      <c r="J132" s="41"/>
       <c r="K132" s="17" t="n">
         <v>1</v>
       </c>
@@ -13903,11 +13903,11 @@
       <c r="N132" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O132" s="58" t="n">
+      <c r="O132" s="59" t="n">
         <v>5449000008046</v>
       </c>
-      <c r="P132" s="58"/>
-      <c r="Q132" s="58"/>
+      <c r="P132" s="59"/>
+      <c r="Q132" s="59"/>
       <c r="R132" s="17" t="s">
         <v>55</v>
       </c>
@@ -13919,7 +13919,7 @@
       <c r="V132" s="12"/>
       <c r="W132" s="12"/>
       <c r="X132" s="17"/>
-      <c r="Y132" s="65" t="s">
+      <c r="Y132" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z132" s="12"/>
@@ -13932,25 +13932,25 @@
       <c r="AE132" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF132" s="61" t="n">
+      <c r="AF132" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG132" s="17"/>
       <c r="AH132" s="17"/>
       <c r="AI132" s="17"/>
-      <c r="AJ132" s="84" t="s">
+      <c r="AJ132" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK132" s="17"/>
       <c r="AL132" s="17"/>
-      <c r="AM132" s="91" t="n">
+      <c r="AM132" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN132" s="21" t="n">
         <v>131</v>
       </c>
       <c r="AO132" s="12"/>
-      <c r="AP132" s="92" t="s">
+      <c r="AP132" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ132" s="12"/>
@@ -13959,29 +13959,29 @@
       <c r="A133" s="24" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="56" t="s">
+      <c r="B133" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="56" t="s">
+      <c r="E133" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F133" s="56"/>
+      <c r="F133" s="57"/>
       <c r="G133" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="H133" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="I133" s="40" t="s">
+      <c r="I133" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J133" s="40"/>
+      <c r="J133" s="41"/>
       <c r="K133" s="17" t="n">
         <v>1</v>
       </c>
@@ -13990,11 +13990,11 @@
       <c r="N133" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O133" s="58" t="n">
+      <c r="O133" s="59" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P133" s="58"/>
-      <c r="Q133" s="58"/>
+      <c r="P133" s="59"/>
+      <c r="Q133" s="59"/>
       <c r="R133" s="17" t="s">
         <v>55</v>
       </c>
@@ -14006,7 +14006,7 @@
       <c r="V133" s="12"/>
       <c r="W133" s="12"/>
       <c r="X133" s="17"/>
-      <c r="Y133" s="65" t="s">
+      <c r="Y133" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z133" s="12"/>
@@ -14019,25 +14019,25 @@
       <c r="AE133" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF133" s="61" t="n">
+      <c r="AF133" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG133" s="17"/>
       <c r="AH133" s="17"/>
       <c r="AI133" s="17"/>
-      <c r="AJ133" s="84" t="s">
+      <c r="AJ133" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK133" s="17"/>
       <c r="AL133" s="17"/>
-      <c r="AM133" s="91" t="n">
+      <c r="AM133" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN133" s="30" t="n">
         <v>132</v>
       </c>
       <c r="AO133" s="12"/>
-      <c r="AP133" s="92" t="s">
+      <c r="AP133" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ133" s="12"/>
@@ -14046,29 +14046,29 @@
       <c r="A134" s="14" t="n">
         <v>133</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D134" s="56" t="s">
+      <c r="D134" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E134" s="56" t="s">
+      <c r="E134" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F134" s="56"/>
+      <c r="F134" s="57"/>
       <c r="G134" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="H134" s="33" t="s">
+      <c r="H134" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="I134" s="40" t="s">
+      <c r="I134" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J134" s="40"/>
+      <c r="J134" s="41"/>
       <c r="K134" s="17" t="n">
         <v>1</v>
       </c>
@@ -14077,11 +14077,11 @@
       <c r="N134" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O134" s="58" t="n">
+      <c r="O134" s="59" t="n">
         <v>54491472</v>
       </c>
-      <c r="P134" s="58"/>
-      <c r="Q134" s="58"/>
+      <c r="P134" s="59"/>
+      <c r="Q134" s="59"/>
       <c r="R134" s="17" t="s">
         <v>55</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="V134" s="12"/>
       <c r="W134" s="12"/>
       <c r="X134" s="17"/>
-      <c r="Y134" s="65" t="s">
+      <c r="Y134" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z134" s="12"/>
@@ -14106,25 +14106,25 @@
       <c r="AE134" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF134" s="61" t="n">
+      <c r="AF134" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG134" s="17"/>
       <c r="AH134" s="17"/>
       <c r="AI134" s="17"/>
-      <c r="AJ134" s="84" t="s">
+      <c r="AJ134" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK134" s="17"/>
       <c r="AL134" s="17"/>
-      <c r="AM134" s="91" t="n">
+      <c r="AM134" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN134" s="21" t="n">
         <v>133</v>
       </c>
       <c r="AO134" s="12"/>
-      <c r="AP134" s="92" t="s">
+      <c r="AP134" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ134" s="12"/>
@@ -14133,29 +14133,29 @@
       <c r="A135" s="24" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D135" s="56" t="s">
+      <c r="D135" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="56" t="s">
+      <c r="E135" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F135" s="56"/>
+      <c r="F135" s="57"/>
       <c r="G135" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="H135" s="33" t="s">
+      <c r="H135" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="I135" s="40" t="s">
+      <c r="I135" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J135" s="40"/>
+      <c r="J135" s="41"/>
       <c r="K135" s="17" t="n">
         <v>1</v>
       </c>
@@ -14164,11 +14164,11 @@
       <c r="N135" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O135" s="58" t="n">
+      <c r="O135" s="59" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="P135" s="58"/>
-      <c r="Q135" s="58"/>
+      <c r="P135" s="59"/>
+      <c r="Q135" s="59"/>
       <c r="R135" s="17" t="s">
         <v>55</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="V135" s="12"/>
       <c r="W135" s="12"/>
       <c r="X135" s="17"/>
-      <c r="Y135" s="65" t="s">
+      <c r="Y135" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z135" s="12"/>
@@ -14193,25 +14193,25 @@
       <c r="AE135" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF135" s="61" t="n">
+      <c r="AF135" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG135" s="17"/>
       <c r="AH135" s="17"/>
       <c r="AI135" s="17"/>
-      <c r="AJ135" s="84" t="s">
+      <c r="AJ135" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK135" s="17"/>
       <c r="AL135" s="17"/>
-      <c r="AM135" s="91" t="n">
+      <c r="AM135" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN135" s="30" t="n">
         <v>134</v>
       </c>
       <c r="AO135" s="12"/>
-      <c r="AP135" s="92" t="s">
+      <c r="AP135" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ135" s="12"/>
@@ -14220,29 +14220,29 @@
       <c r="A136" s="14" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D136" s="56" t="s">
+      <c r="D136" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E136" s="56" t="s">
+      <c r="E136" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F136" s="56"/>
+      <c r="F136" s="57"/>
       <c r="G136" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="H136" s="33" t="s">
+      <c r="H136" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="I136" s="40" t="s">
+      <c r="I136" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J136" s="40"/>
+      <c r="J136" s="41"/>
       <c r="K136" s="17" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +14251,11 @@
       <c r="N136" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O136" s="58" t="n">
+      <c r="O136" s="59" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P136" s="58"/>
-      <c r="Q136" s="58"/>
+      <c r="P136" s="59"/>
+      <c r="Q136" s="59"/>
       <c r="R136" s="17" t="s">
         <v>55</v>
       </c>
@@ -14267,7 +14267,7 @@
       <c r="V136" s="12"/>
       <c r="W136" s="12"/>
       <c r="X136" s="17"/>
-      <c r="Y136" s="65" t="s">
+      <c r="Y136" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z136" s="12"/>
@@ -14280,25 +14280,25 @@
       <c r="AE136" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF136" s="61" t="n">
+      <c r="AF136" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG136" s="17"/>
       <c r="AH136" s="17"/>
       <c r="AI136" s="17"/>
-      <c r="AJ136" s="84" t="s">
+      <c r="AJ136" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK136" s="17"/>
       <c r="AL136" s="17"/>
-      <c r="AM136" s="91" t="n">
+      <c r="AM136" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN136" s="21" t="n">
         <v>135</v>
       </c>
       <c r="AO136" s="12"/>
-      <c r="AP136" s="92" t="s">
+      <c r="AP136" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ136" s="12"/>
@@ -14307,29 +14307,29 @@
       <c r="A137" s="24" t="n">
         <v>136</v>
       </c>
-      <c r="B137" s="56" t="s">
+      <c r="B137" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D137" s="56" t="s">
+      <c r="D137" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E137" s="56" t="s">
+      <c r="E137" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F137" s="56"/>
+      <c r="F137" s="57"/>
       <c r="G137" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="H137" s="33" t="s">
+      <c r="H137" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="I137" s="40" t="s">
+      <c r="I137" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J137" s="40"/>
+      <c r="J137" s="41"/>
       <c r="K137" s="17" t="n">
         <v>1</v>
       </c>
@@ -14338,11 +14338,11 @@
       <c r="N137" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O137" s="58" t="n">
+      <c r="O137" s="59" t="n">
         <v>5449000133328</v>
       </c>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="58"/>
+      <c r="P137" s="59"/>
+      <c r="Q137" s="59"/>
       <c r="R137" s="17" t="s">
         <v>55</v>
       </c>
@@ -14354,7 +14354,7 @@
       <c r="V137" s="12"/>
       <c r="W137" s="12"/>
       <c r="X137" s="17"/>
-      <c r="Y137" s="65" t="s">
+      <c r="Y137" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z137" s="12"/>
@@ -14367,25 +14367,25 @@
       <c r="AE137" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF137" s="61" t="n">
+      <c r="AF137" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG137" s="17"/>
       <c r="AH137" s="17"/>
       <c r="AI137" s="17"/>
-      <c r="AJ137" s="84" t="s">
+      <c r="AJ137" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK137" s="17"/>
       <c r="AL137" s="17"/>
-      <c r="AM137" s="91" t="n">
+      <c r="AM137" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN137" s="30" t="n">
         <v>136</v>
       </c>
       <c r="AO137" s="12"/>
-      <c r="AP137" s="92" t="s">
+      <c r="AP137" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ137" s="12"/>
@@ -14394,29 +14394,29 @@
       <c r="A138" s="14" t="n">
         <v>137</v>
       </c>
-      <c r="B138" s="56" t="s">
+      <c r="B138" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="56" t="s">
+      <c r="D138" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E138" s="56" t="s">
+      <c r="E138" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F138" s="56"/>
+      <c r="F138" s="57"/>
       <c r="G138" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="H138" s="33" t="s">
+      <c r="H138" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="I138" s="40" t="s">
+      <c r="I138" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J138" s="40"/>
+      <c r="J138" s="41"/>
       <c r="K138" s="17" t="n">
         <v>1</v>
       </c>
@@ -14425,11 +14425,11 @@
       <c r="N138" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O138" s="58" t="n">
+      <c r="O138" s="59" t="n">
         <v>5449000213631</v>
       </c>
-      <c r="P138" s="58"/>
-      <c r="Q138" s="58"/>
+      <c r="P138" s="59"/>
+      <c r="Q138" s="59"/>
       <c r="R138" s="17" t="s">
         <v>55</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="V138" s="12"/>
       <c r="W138" s="12"/>
       <c r="X138" s="17"/>
-      <c r="Y138" s="65" t="s">
+      <c r="Y138" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z138" s="12"/>
@@ -14454,25 +14454,25 @@
       <c r="AE138" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF138" s="61" t="n">
+      <c r="AF138" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG138" s="17"/>
       <c r="AH138" s="17"/>
       <c r="AI138" s="17"/>
-      <c r="AJ138" s="84" t="s">
+      <c r="AJ138" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK138" s="17"/>
       <c r="AL138" s="17"/>
-      <c r="AM138" s="91" t="n">
+      <c r="AM138" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN138" s="21" t="n">
         <v>137</v>
       </c>
       <c r="AO138" s="12"/>
-      <c r="AP138" s="92" t="s">
+      <c r="AP138" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ138" s="12"/>
@@ -14481,29 +14481,29 @@
       <c r="A139" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="56" t="s">
+      <c r="B139" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="56" t="s">
+      <c r="D139" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E139" s="56" t="s">
+      <c r="E139" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F139" s="56"/>
+      <c r="F139" s="57"/>
       <c r="G139" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="H139" s="33" t="s">
+      <c r="H139" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="I139" s="40" t="s">
+      <c r="I139" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J139" s="40"/>
+      <c r="J139" s="41"/>
       <c r="K139" s="17" t="n">
         <v>1</v>
       </c>
@@ -14512,11 +14512,11 @@
       <c r="N139" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O139" s="58" t="n">
+      <c r="O139" s="59" t="n">
         <v>40822938</v>
       </c>
-      <c r="P139" s="58"/>
-      <c r="Q139" s="58"/>
+      <c r="P139" s="59"/>
+      <c r="Q139" s="59"/>
       <c r="R139" s="17" t="s">
         <v>55</v>
       </c>
@@ -14528,7 +14528,7 @@
       <c r="V139" s="12"/>
       <c r="W139" s="12"/>
       <c r="X139" s="17"/>
-      <c r="Y139" s="65" t="s">
+      <c r="Y139" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z139" s="12"/>
@@ -14541,25 +14541,25 @@
       <c r="AE139" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF139" s="61" t="n">
+      <c r="AF139" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG139" s="17"/>
       <c r="AH139" s="17"/>
       <c r="AI139" s="17"/>
-      <c r="AJ139" s="84" t="s">
+      <c r="AJ139" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK139" s="17"/>
       <c r="AL139" s="17"/>
-      <c r="AM139" s="91" t="n">
+      <c r="AM139" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN139" s="30" t="n">
         <v>138</v>
       </c>
       <c r="AO139" s="12"/>
-      <c r="AP139" s="92" t="s">
+      <c r="AP139" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ139" s="12"/>
@@ -14568,29 +14568,29 @@
       <c r="A140" s="14" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="56" t="s">
+      <c r="B140" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D140" s="56" t="s">
+      <c r="D140" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E140" s="56" t="s">
+      <c r="E140" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F140" s="56"/>
+      <c r="F140" s="57"/>
       <c r="G140" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="H140" s="33" t="s">
+      <c r="H140" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="I140" s="40" t="s">
+      <c r="I140" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J140" s="40"/>
+      <c r="J140" s="41"/>
       <c r="K140" s="17" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +14599,11 @@
       <c r="N140" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O140" s="58" t="n">
+      <c r="O140" s="59" t="n">
         <v>5449000006271</v>
       </c>
-      <c r="P140" s="58"/>
-      <c r="Q140" s="58"/>
+      <c r="P140" s="59"/>
+      <c r="Q140" s="59"/>
       <c r="R140" s="17" t="s">
         <v>55</v>
       </c>
@@ -14615,7 +14615,7 @@
       <c r="V140" s="12"/>
       <c r="W140" s="12"/>
       <c r="X140" s="17"/>
-      <c r="Y140" s="65" t="s">
+      <c r="Y140" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z140" s="12"/>
@@ -14628,25 +14628,25 @@
       <c r="AE140" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF140" s="61" t="n">
+      <c r="AF140" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG140" s="17"/>
       <c r="AH140" s="17"/>
       <c r="AI140" s="17"/>
-      <c r="AJ140" s="84" t="s">
+      <c r="AJ140" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK140" s="17"/>
       <c r="AL140" s="17"/>
-      <c r="AM140" s="91" t="n">
+      <c r="AM140" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN140" s="21" t="n">
         <v>139</v>
       </c>
       <c r="AO140" s="12"/>
-      <c r="AP140" s="92" t="s">
+      <c r="AP140" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ140" s="12"/>
@@ -14655,29 +14655,29 @@
       <c r="A141" s="24" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D141" s="56" t="s">
+      <c r="D141" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E141" s="56" t="s">
+      <c r="E141" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F141" s="56"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="I141" s="40" t="s">
+      <c r="I141" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J141" s="40"/>
+      <c r="J141" s="41"/>
       <c r="K141" s="17" t="n">
         <v>1</v>
       </c>
@@ -14686,11 +14686,11 @@
       <c r="N141" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O141" s="58" t="n">
+      <c r="O141" s="59" t="n">
         <v>54491069</v>
       </c>
-      <c r="P141" s="58"/>
-      <c r="Q141" s="58"/>
+      <c r="P141" s="59"/>
+      <c r="Q141" s="59"/>
       <c r="R141" s="17" t="s">
         <v>55</v>
       </c>
@@ -14702,7 +14702,7 @@
       <c r="V141" s="12"/>
       <c r="W141" s="12"/>
       <c r="X141" s="17"/>
-      <c r="Y141" s="65" t="s">
+      <c r="Y141" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z141" s="12"/>
@@ -14715,25 +14715,25 @@
       <c r="AE141" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF141" s="61" t="n">
+      <c r="AF141" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG141" s="17"/>
       <c r="AH141" s="17"/>
       <c r="AI141" s="17"/>
-      <c r="AJ141" s="84" t="s">
+      <c r="AJ141" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK141" s="17"/>
       <c r="AL141" s="17"/>
-      <c r="AM141" s="91" t="n">
+      <c r="AM141" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN141" s="30" t="n">
         <v>140</v>
       </c>
       <c r="AO141" s="12"/>
-      <c r="AP141" s="92" t="s">
+      <c r="AP141" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ141" s="12"/>
@@ -14742,29 +14742,29 @@
       <c r="A142" s="14" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="56" t="s">
+      <c r="D142" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E142" s="56" t="s">
+      <c r="E142" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F142" s="56"/>
+      <c r="F142" s="57"/>
       <c r="G142" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="H142" s="33" t="s">
+      <c r="H142" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="I142" s="40" t="s">
+      <c r="I142" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J142" s="40"/>
+      <c r="J142" s="41"/>
       <c r="K142" s="17" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14773,11 @@
       <c r="N142" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O142" s="58" t="n">
+      <c r="O142" s="59" t="n">
         <v>5449000050939</v>
       </c>
-      <c r="P142" s="58"/>
-      <c r="Q142" s="58"/>
+      <c r="P142" s="59"/>
+      <c r="Q142" s="59"/>
       <c r="R142" s="17" t="s">
         <v>55</v>
       </c>
@@ -14789,7 +14789,7 @@
       <c r="V142" s="12"/>
       <c r="W142" s="12"/>
       <c r="X142" s="17"/>
-      <c r="Y142" s="65" t="s">
+      <c r="Y142" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z142" s="12"/>
@@ -14802,25 +14802,25 @@
       <c r="AE142" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF142" s="61" t="n">
+      <c r="AF142" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG142" s="17"/>
       <c r="AH142" s="17"/>
       <c r="AI142" s="17"/>
-      <c r="AJ142" s="84" t="s">
+      <c r="AJ142" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK142" s="17"/>
       <c r="AL142" s="17"/>
-      <c r="AM142" s="91" t="n">
+      <c r="AM142" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN142" s="21" t="n">
         <v>141</v>
       </c>
       <c r="AO142" s="12"/>
-      <c r="AP142" s="92" t="s">
+      <c r="AP142" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ142" s="12"/>
@@ -14829,38 +14829,38 @@
       <c r="A143" s="24" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="56" t="s">
+      <c r="B143" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D143" s="56" t="s">
+      <c r="D143" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="56" t="s">
+      <c r="E143" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F143" s="56"/>
+      <c r="F143" s="57"/>
       <c r="G143" s="17" t="s">
         <v>432</v>
       </c>
       <c r="H143" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I143" s="89" t="s">
+      <c r="I143" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="J143" s="89"/>
+      <c r="J143" s="90"/>
       <c r="K143" s="17" t="n">
         <v>10</v>
       </c>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" s="12"/>
-      <c r="O143" s="87"/>
-      <c r="P143" s="58"/>
-      <c r="Q143" s="58"/>
+      <c r="O143" s="88"/>
+      <c r="P143" s="59"/>
+      <c r="Q143" s="59"/>
       <c r="R143" s="17" t="s">
         <v>249</v>
       </c>
@@ -14880,10 +14880,10 @@
       <c r="AD143" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE143" s="85" t="s">
+      <c r="AE143" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="AF143" s="61" t="n">
+      <c r="AF143" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG143" s="17" t="n">
@@ -14895,7 +14895,7 @@
       <c r="AI143" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ143" s="84" t="s">
+      <c r="AJ143" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK143" s="17"/>
@@ -14906,10 +14906,10 @@
       <c r="AN143" s="30" t="n">
         <v>142</v>
       </c>
-      <c r="AO143" s="64" t="s">
+      <c r="AO143" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="AP143" s="90" t="s">
+      <c r="AP143" s="91" t="s">
         <v>358</v>
       </c>
       <c r="AQ143" s="12"/>
@@ -14918,29 +14918,29 @@
       <c r="A144" s="14" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="56" t="s">
+      <c r="B144" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D144" s="56" t="s">
+      <c r="D144" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E144" s="56" t="s">
+      <c r="E144" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F144" s="56"/>
+      <c r="F144" s="57"/>
       <c r="G144" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="H144" s="33" t="s">
+      <c r="H144" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="I144" s="40" t="s">
+      <c r="I144" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J144" s="40"/>
+      <c r="J144" s="41"/>
       <c r="K144" s="17" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +14949,11 @@
       <c r="N144" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O144" s="62" t="n">
+      <c r="O144" s="63" t="n">
         <v>90494406</v>
       </c>
-      <c r="P144" s="58"/>
-      <c r="Q144" s="58"/>
+      <c r="P144" s="59"/>
+      <c r="Q144" s="59"/>
       <c r="R144" s="17" t="s">
         <v>55</v>
       </c>
@@ -14978,25 +14978,25 @@
       <c r="AE144" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF144" s="61" t="n">
+      <c r="AF144" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG144" s="17"/>
       <c r="AH144" s="17"/>
       <c r="AI144" s="17"/>
-      <c r="AJ144" s="84" t="s">
+      <c r="AJ144" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK144" s="17"/>
       <c r="AL144" s="17"/>
-      <c r="AM144" s="91" t="n">
+      <c r="AM144" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN144" s="21" t="n">
         <v>143</v>
       </c>
       <c r="AO144" s="12"/>
-      <c r="AP144" s="92" t="s">
+      <c r="AP144" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ144" s="12"/>
@@ -15005,29 +15005,29 @@
       <c r="A145" s="24" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="56" t="s">
+      <c r="B145" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D145" s="56" t="s">
+      <c r="D145" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E145" s="56" t="s">
+      <c r="E145" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F145" s="56"/>
+      <c r="F145" s="57"/>
       <c r="G145" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="H145" s="33" t="s">
+      <c r="H145" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="I145" s="40" t="s">
+      <c r="I145" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J145" s="40"/>
+      <c r="J145" s="41"/>
       <c r="K145" s="17" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +15036,11 @@
       <c r="N145" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O145" s="62" t="n">
+      <c r="O145" s="63" t="n">
         <v>40822426</v>
       </c>
-      <c r="P145" s="58"/>
-      <c r="Q145" s="58"/>
+      <c r="P145" s="59"/>
+      <c r="Q145" s="59"/>
       <c r="R145" s="17" t="s">
         <v>55</v>
       </c>
@@ -15065,25 +15065,25 @@
       <c r="AE145" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF145" s="61" t="n">
+      <c r="AF145" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG145" s="17"/>
       <c r="AH145" s="17"/>
       <c r="AI145" s="17"/>
-      <c r="AJ145" s="84" t="s">
+      <c r="AJ145" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK145" s="17"/>
       <c r="AL145" s="17"/>
-      <c r="AM145" s="91" t="n">
+      <c r="AM145" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN145" s="30" t="n">
         <v>144</v>
       </c>
       <c r="AO145" s="12"/>
-      <c r="AP145" s="92" t="s">
+      <c r="AP145" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ145" s="12"/>
@@ -15092,29 +15092,29 @@
       <c r="A146" s="14" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="56" t="s">
+      <c r="B146" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="56" t="s">
+      <c r="D146" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E146" s="56" t="s">
+      <c r="E146" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F146" s="56"/>
+      <c r="F146" s="57"/>
       <c r="G146" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="H146" s="33" t="s">
+      <c r="H146" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="I146" s="40" t="s">
+      <c r="I146" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J146" s="40"/>
+      <c r="J146" s="41"/>
       <c r="K146" s="17" t="n">
         <v>1</v>
       </c>
@@ -15123,11 +15123,11 @@
       <c r="N146" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O146" s="62" t="n">
+      <c r="O146" s="63" t="n">
         <v>5449000005489</v>
       </c>
-      <c r="P146" s="58"/>
-      <c r="Q146" s="58"/>
+      <c r="P146" s="59"/>
+      <c r="Q146" s="59"/>
       <c r="R146" s="17" t="s">
         <v>55</v>
       </c>
@@ -15152,25 +15152,25 @@
       <c r="AE146" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF146" s="61" t="n">
+      <c r="AF146" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG146" s="17"/>
       <c r="AH146" s="17"/>
       <c r="AI146" s="17"/>
-      <c r="AJ146" s="84" t="s">
+      <c r="AJ146" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK146" s="17"/>
       <c r="AL146" s="17"/>
-      <c r="AM146" s="91" t="n">
+      <c r="AM146" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN146" s="21" t="n">
         <v>145</v>
       </c>
       <c r="AO146" s="12"/>
-      <c r="AP146" s="92" t="s">
+      <c r="AP146" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ146" s="12"/>
@@ -15179,29 +15179,29 @@
       <c r="A147" s="24" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B147" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D147" s="56" t="s">
+      <c r="D147" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E147" s="56" t="s">
+      <c r="E147" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F147" s="56"/>
+      <c r="F147" s="57"/>
       <c r="G147" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="H147" s="33" t="s">
+      <c r="H147" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="I147" s="40" t="s">
+      <c r="I147" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J147" s="40"/>
+      <c r="J147" s="41"/>
       <c r="K147" s="17" t="n">
         <v>1</v>
       </c>
@@ -15210,11 +15210,11 @@
       <c r="N147" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O147" s="62" t="n">
+      <c r="O147" s="63" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="P147" s="58"/>
-      <c r="Q147" s="58"/>
+      <c r="P147" s="59"/>
+      <c r="Q147" s="59"/>
       <c r="R147" s="17" t="s">
         <v>55</v>
       </c>
@@ -15239,25 +15239,25 @@
       <c r="AE147" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF147" s="61" t="n">
+      <c r="AF147" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG147" s="17"/>
       <c r="AH147" s="17"/>
       <c r="AI147" s="17"/>
-      <c r="AJ147" s="84" t="s">
+      <c r="AJ147" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK147" s="17"/>
       <c r="AL147" s="17"/>
-      <c r="AM147" s="91" t="n">
+      <c r="AM147" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN147" s="30" t="n">
         <v>146</v>
       </c>
       <c r="AO147" s="12"/>
-      <c r="AP147" s="92" t="s">
+      <c r="AP147" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ147" s="12"/>
@@ -15266,29 +15266,29 @@
       <c r="A148" s="14" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="56" t="s">
+      <c r="B148" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D148" s="56" t="s">
+      <c r="D148" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E148" s="56" t="s">
+      <c r="E148" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F148" s="56"/>
+      <c r="F148" s="57"/>
       <c r="G148" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="H148" s="33" t="s">
+      <c r="H148" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="I148" s="40" t="s">
+      <c r="I148" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J148" s="40"/>
+      <c r="J148" s="41"/>
       <c r="K148" s="17" t="n">
         <v>1</v>
       </c>
@@ -15297,11 +15297,11 @@
       <c r="N148" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O148" s="62" t="n">
+      <c r="O148" s="63" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P148" s="58"/>
-      <c r="Q148" s="58"/>
+      <c r="P148" s="59"/>
+      <c r="Q148" s="59"/>
       <c r="R148" s="17" t="s">
         <v>55</v>
       </c>
@@ -15326,25 +15326,25 @@
       <c r="AE148" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF148" s="61" t="n">
+      <c r="AF148" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG148" s="17"/>
       <c r="AH148" s="17"/>
       <c r="AI148" s="17"/>
-      <c r="AJ148" s="84" t="s">
+      <c r="AJ148" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK148" s="17"/>
       <c r="AL148" s="17"/>
-      <c r="AM148" s="91" t="n">
+      <c r="AM148" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN148" s="21" t="n">
         <v>147</v>
       </c>
       <c r="AO148" s="12"/>
-      <c r="AP148" s="92" t="s">
+      <c r="AP148" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ148" s="12"/>
@@ -15353,29 +15353,29 @@
       <c r="A149" s="24" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="56" t="s">
+      <c r="B149" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D149" s="56" t="s">
+      <c r="D149" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E149" s="56" t="s">
+      <c r="E149" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F149" s="56"/>
+      <c r="F149" s="57"/>
       <c r="G149" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="H149" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="I149" s="40" t="s">
+      <c r="I149" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J149" s="40"/>
+      <c r="J149" s="41"/>
       <c r="K149" s="17" t="n">
         <v>1</v>
       </c>
@@ -15384,11 +15384,11 @@
       <c r="N149" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="O149" s="62" t="s">
+      <c r="O149" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="P149" s="58"/>
-      <c r="Q149" s="58"/>
+      <c r="P149" s="59"/>
+      <c r="Q149" s="59"/>
       <c r="R149" s="17" t="s">
         <v>55</v>
       </c>
@@ -15413,25 +15413,25 @@
       <c r="AE149" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF149" s="61" t="n">
+      <c r="AF149" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG149" s="17"/>
       <c r="AH149" s="17"/>
       <c r="AI149" s="17"/>
-      <c r="AJ149" s="84" t="s">
+      <c r="AJ149" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK149" s="17"/>
       <c r="AL149" s="17"/>
-      <c r="AM149" s="91" t="n">
+      <c r="AM149" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN149" s="30" t="n">
         <v>148</v>
       </c>
       <c r="AO149" s="12"/>
-      <c r="AP149" s="92" t="s">
+      <c r="AP149" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ149" s="12"/>
@@ -15440,29 +15440,29 @@
       <c r="A150" s="14" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D150" s="56" t="s">
+      <c r="D150" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E150" s="56" t="s">
+      <c r="E150" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F150" s="56"/>
+      <c r="F150" s="57"/>
       <c r="G150" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="H150" s="33" t="s">
+      <c r="H150" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="I150" s="40" t="s">
+      <c r="I150" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J150" s="40"/>
+      <c r="J150" s="41"/>
       <c r="K150" s="17" t="n">
         <v>1</v>
       </c>
@@ -15471,11 +15471,11 @@
       <c r="N150" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="O150" s="62" t="s">
+      <c r="O150" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="P150" s="58"/>
-      <c r="Q150" s="58"/>
+      <c r="P150" s="59"/>
+      <c r="Q150" s="59"/>
       <c r="R150" s="17" t="s">
         <v>55</v>
       </c>
@@ -15500,25 +15500,25 @@
       <c r="AE150" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF150" s="61" t="n">
+      <c r="AF150" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG150" s="17"/>
       <c r="AH150" s="17"/>
       <c r="AI150" s="17"/>
-      <c r="AJ150" s="84" t="s">
+      <c r="AJ150" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK150" s="17"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="91" t="n">
+      <c r="AM150" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN150" s="21" t="n">
         <v>149</v>
       </c>
       <c r="AO150" s="12"/>
-      <c r="AP150" s="92" t="s">
+      <c r="AP150" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ150" s="12"/>
@@ -15527,29 +15527,29 @@
       <c r="A151" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="56" t="s">
+      <c r="D151" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E151" s="56" t="s">
+      <c r="E151" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F151" s="56"/>
+      <c r="F151" s="57"/>
       <c r="G151" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="H151" s="33" t="s">
+      <c r="H151" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="I151" s="40" t="s">
+      <c r="I151" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J151" s="40"/>
+      <c r="J151" s="41"/>
       <c r="K151" s="17" t="n">
         <v>1</v>
       </c>
@@ -15558,11 +15558,11 @@
       <c r="N151" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="O151" s="62" t="s">
+      <c r="O151" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="P151" s="58"/>
-      <c r="Q151" s="58"/>
+      <c r="P151" s="59"/>
+      <c r="Q151" s="59"/>
       <c r="R151" s="17" t="s">
         <v>55</v>
       </c>
@@ -15587,25 +15587,25 @@
       <c r="AE151" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF151" s="61" t="n">
+      <c r="AF151" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG151" s="17"/>
       <c r="AH151" s="17"/>
       <c r="AI151" s="17"/>
-      <c r="AJ151" s="84" t="s">
+      <c r="AJ151" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK151" s="17"/>
       <c r="AL151" s="17"/>
-      <c r="AM151" s="91" t="n">
+      <c r="AM151" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN151" s="30" t="n">
         <v>150</v>
       </c>
       <c r="AO151" s="12"/>
-      <c r="AP151" s="92" t="s">
+      <c r="AP151" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ151" s="12"/>
@@ -15614,29 +15614,29 @@
       <c r="A152" s="14" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="56" t="s">
+      <c r="B152" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E152" s="56" t="s">
+      <c r="E152" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F152" s="56"/>
+      <c r="F152" s="57"/>
       <c r="G152" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="H152" s="33" t="s">
+      <c r="H152" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="I152" s="40" t="s">
+      <c r="I152" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J152" s="40"/>
+      <c r="J152" s="41"/>
       <c r="K152" s="17" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +15645,11 @@
       <c r="N152" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O152" s="62" t="n">
+      <c r="O152" s="63" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P152" s="58"/>
-      <c r="Q152" s="58"/>
+      <c r="P152" s="59"/>
+      <c r="Q152" s="59"/>
       <c r="R152" s="17" t="s">
         <v>55</v>
       </c>
@@ -15674,25 +15674,25 @@
       <c r="AE152" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF152" s="61" t="n">
+      <c r="AF152" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG152" s="17"/>
       <c r="AH152" s="17"/>
       <c r="AI152" s="17"/>
-      <c r="AJ152" s="84" t="s">
+      <c r="AJ152" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK152" s="17"/>
       <c r="AL152" s="17"/>
-      <c r="AM152" s="91" t="n">
+      <c r="AM152" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN152" s="21" t="n">
         <v>151</v>
       </c>
       <c r="AO152" s="12"/>
-      <c r="AP152" s="92" t="s">
+      <c r="AP152" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ152" s="12"/>
@@ -15701,29 +15701,29 @@
       <c r="A153" s="24" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="56" t="s">
+      <c r="B153" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D153" s="56" t="s">
+      <c r="D153" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="56" t="s">
+      <c r="E153" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F153" s="56"/>
+      <c r="F153" s="57"/>
       <c r="G153" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="H153" s="33" t="s">
+      <c r="H153" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="I153" s="40" t="s">
+      <c r="I153" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J153" s="40"/>
+      <c r="J153" s="41"/>
       <c r="K153" s="17" t="n">
         <v>1</v>
       </c>
@@ -15732,11 +15732,11 @@
       <c r="N153" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="O153" s="93" t="s">
+      <c r="O153" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="P153" s="58"/>
-      <c r="Q153" s="58"/>
+      <c r="P153" s="59"/>
+      <c r="Q153" s="59"/>
       <c r="R153" s="17" t="s">
         <v>55</v>
       </c>
@@ -15761,25 +15761,25 @@
       <c r="AE153" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF153" s="61" t="n">
+      <c r="AF153" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG153" s="17"/>
       <c r="AH153" s="17"/>
       <c r="AI153" s="17"/>
-      <c r="AJ153" s="84" t="s">
+      <c r="AJ153" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK153" s="17"/>
       <c r="AL153" s="17"/>
-      <c r="AM153" s="91" t="n">
+      <c r="AM153" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN153" s="30" t="n">
         <v>152</v>
       </c>
       <c r="AO153" s="12"/>
-      <c r="AP153" s="92" t="s">
+      <c r="AP153" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ153" s="12"/>
@@ -15788,38 +15788,38 @@
       <c r="A154" s="14" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="56" t="s">
+      <c r="B154" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="56" t="s">
+      <c r="D154" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E154" s="56" t="s">
+      <c r="E154" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F154" s="56"/>
+      <c r="F154" s="57"/>
       <c r="G154" s="17" t="s">
         <v>460</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I154" s="40" t="s">
+      <c r="I154" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="J154" s="40"/>
+      <c r="J154" s="41"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
-      <c r="O154" s="62" t="s">
+      <c r="O154" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="P154" s="62"/>
-      <c r="Q154" s="62"/>
+      <c r="P154" s="63"/>
+      <c r="Q154" s="63"/>
       <c r="R154" s="12"/>
       <c r="S154" s="12" t="s">
         <v>328</v>
@@ -15842,7 +15842,7 @@
       <c r="AE154" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF154" s="61" t="n">
+      <c r="AF154" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG154" s="17"/>
@@ -15850,7 +15850,7 @@
       <c r="AI154" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ154" s="84" t="s">
+      <c r="AJ154" s="85" t="s">
         <v>357</v>
       </c>
       <c r="AK154" s="17"/>
@@ -15862,7 +15862,7 @@
         <v>153</v>
       </c>
       <c r="AO154" s="12"/>
-      <c r="AP154" s="92" t="s">
+      <c r="AP154" s="93" t="s">
         <v>353</v>
       </c>
       <c r="AQ154" s="12"/>
@@ -15871,818 +15871,818 @@
       <c r="A155" s="14" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="56" t="s">
+      <c r="B155" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D155" s="94" t="s">
+      <c r="D155" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E155" s="95" t="s">
+      <c r="E155" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="F155" s="95" t="s">
+      <c r="F155" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="G155" s="96" t="s">
+      <c r="G155" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="H155" s="97" t="s">
+      <c r="H155" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="I155" s="98" t="s">
+      <c r="I155" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="J155" s="99" t="s">
+      <c r="J155" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="K155" s="99"/>
-      <c r="L155" s="99"/>
-      <c r="M155" s="100"/>
-      <c r="N155" s="100"/>
-      <c r="O155" s="99"/>
-      <c r="P155" s="99"/>
-      <c r="Q155" s="99"/>
-      <c r="R155" s="99"/>
-      <c r="S155" s="99" t="s">
+      <c r="K155" s="100"/>
+      <c r="L155" s="100"/>
+      <c r="M155" s="101"/>
+      <c r="N155" s="101"/>
+      <c r="O155" s="100"/>
+      <c r="P155" s="100"/>
+      <c r="Q155" s="100"/>
+      <c r="R155" s="100"/>
+      <c r="S155" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="T155" s="99"/>
-      <c r="U155" s="99"/>
-      <c r="V155" s="99"/>
-      <c r="W155" s="99"/>
-      <c r="X155" s="99"/>
-      <c r="Y155" s="99"/>
-      <c r="Z155" s="99"/>
-      <c r="AA155" s="99"/>
-      <c r="AB155" s="99"/>
-      <c r="AC155" s="99"/>
-      <c r="AD155" s="99"/>
-      <c r="AE155" s="99"/>
-      <c r="AF155" s="101" t="n">
+      <c r="T155" s="100"/>
+      <c r="U155" s="100"/>
+      <c r="V155" s="100"/>
+      <c r="W155" s="100"/>
+      <c r="X155" s="100"/>
+      <c r="Y155" s="100"/>
+      <c r="Z155" s="100"/>
+      <c r="AA155" s="100"/>
+      <c r="AB155" s="100"/>
+      <c r="AC155" s="100"/>
+      <c r="AD155" s="100"/>
+      <c r="AE155" s="100"/>
+      <c r="AF155" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AG155" s="99"/>
-      <c r="AH155" s="99"/>
-      <c r="AI155" s="99"/>
-      <c r="AJ155" s="99"/>
-      <c r="AK155" s="99"/>
-      <c r="AL155" s="99"/>
-      <c r="AM155" s="102"/>
+      <c r="AG155" s="100"/>
+      <c r="AH155" s="100"/>
+      <c r="AI155" s="100"/>
+      <c r="AJ155" s="100"/>
+      <c r="AK155" s="100"/>
+      <c r="AL155" s="100"/>
+      <c r="AM155" s="103"/>
       <c r="AN155" s="21" t="n">
         <v>154</v>
       </c>
-      <c r="AO155" s="99" t="n">
+      <c r="AO155" s="100" t="n">
         <v>101</v>
       </c>
-      <c r="AP155" s="99"/>
-      <c r="AQ155" s="99"/>
+      <c r="AP155" s="100"/>
+      <c r="AQ155" s="100"/>
     </row>
     <row r="156" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="56" t="s">
+      <c r="B156" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D156" s="94" t="s">
+      <c r="D156" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E156" s="95" t="s">
+      <c r="E156" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="F156" s="95" t="s">
+      <c r="F156" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="G156" s="95" t="s">
+      <c r="G156" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="H156" s="97"/>
-      <c r="I156" s="98" t="s">
+      <c r="H156" s="98"/>
+      <c r="I156" s="99" t="s">
         <v>472</v>
       </c>
-      <c r="J156" s="99" t="s">
+      <c r="J156" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="K156" s="99"/>
-      <c r="L156" s="99"/>
-      <c r="M156" s="100"/>
-      <c r="N156" s="100"/>
-      <c r="O156" s="99"/>
-      <c r="P156" s="99"/>
-      <c r="Q156" s="99"/>
-      <c r="R156" s="99"/>
-      <c r="S156" s="99" t="s">
+      <c r="K156" s="100"/>
+      <c r="L156" s="100"/>
+      <c r="M156" s="101"/>
+      <c r="N156" s="101"/>
+      <c r="O156" s="100"/>
+      <c r="P156" s="100"/>
+      <c r="Q156" s="100"/>
+      <c r="R156" s="100"/>
+      <c r="S156" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="T156" s="99"/>
-      <c r="U156" s="99"/>
-      <c r="V156" s="99"/>
-      <c r="W156" s="99"/>
-      <c r="X156" s="99"/>
-      <c r="Y156" s="99"/>
-      <c r="Z156" s="99"/>
-      <c r="AA156" s="99"/>
-      <c r="AB156" s="99"/>
-      <c r="AC156" s="99"/>
-      <c r="AD156" s="99"/>
-      <c r="AE156" s="99"/>
-      <c r="AF156" s="103" t="n">
+      <c r="T156" s="100"/>
+      <c r="U156" s="100"/>
+      <c r="V156" s="100"/>
+      <c r="W156" s="100"/>
+      <c r="X156" s="100"/>
+      <c r="Y156" s="100"/>
+      <c r="Z156" s="100"/>
+      <c r="AA156" s="100"/>
+      <c r="AB156" s="100"/>
+      <c r="AC156" s="100"/>
+      <c r="AD156" s="100"/>
+      <c r="AE156" s="100"/>
+      <c r="AF156" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="99"/>
-      <c r="AH156" s="99"/>
-      <c r="AI156" s="99"/>
-      <c r="AJ156" s="99"/>
-      <c r="AK156" s="99"/>
-      <c r="AL156" s="99"/>
-      <c r="AM156" s="102"/>
+      <c r="AG156" s="100"/>
+      <c r="AH156" s="100"/>
+      <c r="AI156" s="100"/>
+      <c r="AJ156" s="100"/>
+      <c r="AK156" s="100"/>
+      <c r="AL156" s="100"/>
+      <c r="AM156" s="103"/>
       <c r="AN156" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="AO156" s="100" t="s">
+      <c r="AO156" s="101" t="s">
         <v>474</v>
       </c>
-      <c r="AP156" s="99"/>
-      <c r="AQ156" s="99"/>
+      <c r="AP156" s="100"/>
+      <c r="AQ156" s="100"/>
     </row>
     <row r="157" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="14" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="56" t="s">
+      <c r="B157" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D157" s="94" t="s">
+      <c r="D157" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E157" s="95" t="s">
+      <c r="E157" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="F157" s="95" t="s">
+      <c r="F157" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="95" t="s">
+      <c r="G157" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="H157" s="97" t="s">
+      <c r="H157" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="I157" s="98" t="s">
+      <c r="I157" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="J157" s="99" t="s">
+      <c r="J157" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="K157" s="99"/>
-      <c r="L157" s="99"/>
-      <c r="M157" s="100"/>
-      <c r="N157" s="100"/>
-      <c r="O157" s="99"/>
-      <c r="P157" s="99"/>
-      <c r="Q157" s="99"/>
-      <c r="R157" s="99"/>
-      <c r="S157" s="99" t="s">
+      <c r="K157" s="100"/>
+      <c r="L157" s="100"/>
+      <c r="M157" s="101"/>
+      <c r="N157" s="101"/>
+      <c r="O157" s="100"/>
+      <c r="P157" s="100"/>
+      <c r="Q157" s="100"/>
+      <c r="R157" s="100"/>
+      <c r="S157" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="T157" s="99"/>
-      <c r="U157" s="99"/>
-      <c r="V157" s="99"/>
-      <c r="W157" s="99"/>
-      <c r="X157" s="99"/>
-      <c r="Y157" s="99"/>
-      <c r="Z157" s="99"/>
-      <c r="AA157" s="99"/>
-      <c r="AB157" s="99"/>
-      <c r="AC157" s="99"/>
-      <c r="AD157" s="99"/>
-      <c r="AE157" s="99"/>
-      <c r="AF157" s="103" t="n">
+      <c r="T157" s="100"/>
+      <c r="U157" s="100"/>
+      <c r="V157" s="100"/>
+      <c r="W157" s="100"/>
+      <c r="X157" s="100"/>
+      <c r="Y157" s="100"/>
+      <c r="Z157" s="100"/>
+      <c r="AA157" s="100"/>
+      <c r="AB157" s="100"/>
+      <c r="AC157" s="100"/>
+      <c r="AD157" s="100"/>
+      <c r="AE157" s="100"/>
+      <c r="AF157" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="99"/>
-      <c r="AH157" s="99"/>
-      <c r="AI157" s="99"/>
-      <c r="AJ157" s="99"/>
-      <c r="AK157" s="99"/>
-      <c r="AL157" s="99"/>
-      <c r="AM157" s="102"/>
+      <c r="AG157" s="100"/>
+      <c r="AH157" s="100"/>
+      <c r="AI157" s="100"/>
+      <c r="AJ157" s="100"/>
+      <c r="AK157" s="100"/>
+      <c r="AL157" s="100"/>
+      <c r="AM157" s="103"/>
       <c r="AN157" s="21" t="n">
         <v>156</v>
       </c>
-      <c r="AO157" s="99" t="n">
+      <c r="AO157" s="100" t="n">
         <v>105</v>
       </c>
-      <c r="AP157" s="99"/>
-      <c r="AQ157" s="99"/>
+      <c r="AP157" s="100"/>
+      <c r="AQ157" s="100"/>
     </row>
     <row r="158" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="n">
         <v>157</v>
       </c>
-      <c r="B158" s="56" t="s">
+      <c r="B158" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D158" s="94" t="s">
+      <c r="D158" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E158" s="95" t="s">
+      <c r="E158" s="96" t="s">
         <v>478</v>
       </c>
-      <c r="F158" s="95" t="s">
+      <c r="F158" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="G158" s="95" t="s">
+      <c r="G158" s="96" t="s">
         <v>480</v>
       </c>
-      <c r="H158" s="104"/>
-      <c r="I158" s="105" t="s">
+      <c r="H158" s="105"/>
+      <c r="I158" s="106" t="s">
         <v>481</v>
       </c>
-      <c r="J158" s="100" t="s">
+      <c r="J158" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="K158" s="99"/>
-      <c r="L158" s="99"/>
-      <c r="M158" s="100"/>
-      <c r="N158" s="100"/>
-      <c r="O158" s="99" t="s">
+      <c r="K158" s="100"/>
+      <c r="L158" s="100"/>
+      <c r="M158" s="101"/>
+      <c r="N158" s="101"/>
+      <c r="O158" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="P158" s="99"/>
-      <c r="Q158" s="99"/>
-      <c r="R158" s="99"/>
-      <c r="S158" s="99" t="s">
+      <c r="P158" s="100"/>
+      <c r="Q158" s="100"/>
+      <c r="R158" s="100"/>
+      <c r="S158" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T158" s="99"/>
-      <c r="U158" s="99"/>
-      <c r="V158" s="99"/>
-      <c r="W158" s="99"/>
-      <c r="X158" s="99"/>
-      <c r="Y158" s="100" t="s">
+      <c r="T158" s="100"/>
+      <c r="U158" s="100"/>
+      <c r="V158" s="100"/>
+      <c r="W158" s="100"/>
+      <c r="X158" s="100"/>
+      <c r="Y158" s="101" t="s">
         <v>484</v>
       </c>
-      <c r="Z158" s="99"/>
-      <c r="AA158" s="99"/>
-      <c r="AB158" s="99"/>
-      <c r="AC158" s="99"/>
-      <c r="AD158" s="99"/>
-      <c r="AE158" s="99"/>
-      <c r="AF158" s="99" t="n">
+      <c r="Z158" s="100"/>
+      <c r="AA158" s="100"/>
+      <c r="AB158" s="100"/>
+      <c r="AC158" s="100"/>
+      <c r="AD158" s="100"/>
+      <c r="AE158" s="100"/>
+      <c r="AF158" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="99"/>
-      <c r="AH158" s="99"/>
-      <c r="AI158" s="99"/>
-      <c r="AJ158" s="99"/>
-      <c r="AK158" s="99"/>
-      <c r="AL158" s="99"/>
-      <c r="AM158" s="102"/>
+      <c r="AG158" s="100"/>
+      <c r="AH158" s="100"/>
+      <c r="AI158" s="100"/>
+      <c r="AJ158" s="100"/>
+      <c r="AK158" s="100"/>
+      <c r="AL158" s="100"/>
+      <c r="AM158" s="103"/>
       <c r="AN158" s="21" t="n">
         <v>157</v>
       </c>
-      <c r="AO158" s="99"/>
-      <c r="AP158" s="99"/>
-      <c r="AQ158" s="99"/>
+      <c r="AO158" s="100"/>
+      <c r="AP158" s="100"/>
+      <c r="AQ158" s="100"/>
     </row>
     <row r="159" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="n">
         <v>158</v>
       </c>
-      <c r="B159" s="56" t="s">
+      <c r="B159" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D159" s="94" t="s">
+      <c r="D159" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E159" s="95" t="s">
+      <c r="E159" s="96" t="s">
         <v>485</v>
       </c>
-      <c r="F159" s="95" t="s">
+      <c r="F159" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="G159" s="95" t="s">
+      <c r="G159" s="96" t="s">
         <v>487</v>
       </c>
-      <c r="H159" s="104"/>
-      <c r="I159" s="105" t="s">
+      <c r="H159" s="105"/>
+      <c r="I159" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J159" s="100" t="s">
+      <c r="J159" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="100"/>
-      <c r="N159" s="100"/>
-      <c r="O159" s="99" t="s">
+      <c r="K159" s="100"/>
+      <c r="L159" s="100"/>
+      <c r="M159" s="101"/>
+      <c r="N159" s="101"/>
+      <c r="O159" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="P159" s="99"/>
-      <c r="Q159" s="99"/>
-      <c r="R159" s="99"/>
-      <c r="S159" s="99" t="s">
+      <c r="P159" s="100"/>
+      <c r="Q159" s="100"/>
+      <c r="R159" s="100"/>
+      <c r="S159" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T159" s="99"/>
-      <c r="U159" s="99"/>
-      <c r="V159" s="99"/>
-      <c r="W159" s="99"/>
-      <c r="X159" s="99"/>
-      <c r="Y159" s="100" t="s">
+      <c r="T159" s="100"/>
+      <c r="U159" s="100"/>
+      <c r="V159" s="100"/>
+      <c r="W159" s="100"/>
+      <c r="X159" s="100"/>
+      <c r="Y159" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="Z159" s="99"/>
-      <c r="AA159" s="99"/>
-      <c r="AB159" s="99"/>
-      <c r="AC159" s="99"/>
-      <c r="AD159" s="99"/>
-      <c r="AE159" s="99"/>
-      <c r="AF159" s="99" t="n">
+      <c r="Z159" s="100"/>
+      <c r="AA159" s="100"/>
+      <c r="AB159" s="100"/>
+      <c r="AC159" s="100"/>
+      <c r="AD159" s="100"/>
+      <c r="AE159" s="100"/>
+      <c r="AF159" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="99"/>
-      <c r="AH159" s="99"/>
-      <c r="AI159" s="99"/>
-      <c r="AJ159" s="99"/>
-      <c r="AK159" s="99"/>
-      <c r="AL159" s="99"/>
-      <c r="AM159" s="102"/>
+      <c r="AG159" s="100"/>
+      <c r="AH159" s="100"/>
+      <c r="AI159" s="100"/>
+      <c r="AJ159" s="100"/>
+      <c r="AK159" s="100"/>
+      <c r="AL159" s="100"/>
+      <c r="AM159" s="103"/>
       <c r="AN159" s="21" t="n">
         <v>158</v>
       </c>
-      <c r="AO159" s="99"/>
-      <c r="AP159" s="99"/>
-      <c r="AQ159" s="99"/>
+      <c r="AO159" s="100"/>
+      <c r="AP159" s="100"/>
+      <c r="AQ159" s="100"/>
     </row>
     <row r="160" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="B160" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D160" s="94" t="s">
+      <c r="D160" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E160" s="95" t="s">
+      <c r="E160" s="96" t="s">
         <v>491</v>
       </c>
-      <c r="F160" s="95" t="s">
+      <c r="F160" s="96" t="s">
         <v>492</v>
       </c>
-      <c r="G160" s="95" t="s">
+      <c r="G160" s="96" t="s">
         <v>493</v>
       </c>
-      <c r="H160" s="104"/>
-      <c r="I160" s="105" t="s">
+      <c r="H160" s="105"/>
+      <c r="I160" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J160" s="100" t="s">
+      <c r="J160" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K160" s="99"/>
-      <c r="L160" s="99"/>
-      <c r="M160" s="100"/>
-      <c r="N160" s="100"/>
-      <c r="O160" s="99" t="s">
+      <c r="K160" s="100"/>
+      <c r="L160" s="100"/>
+      <c r="M160" s="101"/>
+      <c r="N160" s="101"/>
+      <c r="O160" s="100" t="s">
         <v>494</v>
       </c>
-      <c r="P160" s="99"/>
-      <c r="Q160" s="99"/>
-      <c r="R160" s="99"/>
-      <c r="S160" s="99" t="s">
+      <c r="P160" s="100"/>
+      <c r="Q160" s="100"/>
+      <c r="R160" s="100"/>
+      <c r="S160" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T160" s="99"/>
-      <c r="U160" s="99"/>
-      <c r="V160" s="99"/>
-      <c r="W160" s="99"/>
-      <c r="X160" s="99"/>
-      <c r="Y160" s="100" t="s">
+      <c r="T160" s="100"/>
+      <c r="U160" s="100"/>
+      <c r="V160" s="100"/>
+      <c r="W160" s="100"/>
+      <c r="X160" s="100"/>
+      <c r="Y160" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="Z160" s="99"/>
-      <c r="AA160" s="99"/>
-      <c r="AB160" s="99"/>
-      <c r="AC160" s="99"/>
-      <c r="AD160" s="99"/>
-      <c r="AE160" s="99"/>
-      <c r="AF160" s="99" t="n">
+      <c r="Z160" s="100"/>
+      <c r="AA160" s="100"/>
+      <c r="AB160" s="100"/>
+      <c r="AC160" s="100"/>
+      <c r="AD160" s="100"/>
+      <c r="AE160" s="100"/>
+      <c r="AF160" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="99"/>
-      <c r="AH160" s="99"/>
-      <c r="AI160" s="99"/>
-      <c r="AJ160" s="99"/>
-      <c r="AK160" s="99"/>
-      <c r="AL160" s="99"/>
-      <c r="AM160" s="102"/>
+      <c r="AG160" s="100"/>
+      <c r="AH160" s="100"/>
+      <c r="AI160" s="100"/>
+      <c r="AJ160" s="100"/>
+      <c r="AK160" s="100"/>
+      <c r="AL160" s="100"/>
+      <c r="AM160" s="103"/>
       <c r="AN160" s="21" t="n">
         <v>159</v>
       </c>
-      <c r="AO160" s="99"/>
-      <c r="AP160" s="99"/>
-      <c r="AQ160" s="99"/>
+      <c r="AO160" s="100"/>
+      <c r="AP160" s="100"/>
+      <c r="AQ160" s="100"/>
     </row>
     <row r="161" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="14" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="56" t="s">
+      <c r="B161" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D161" s="94" t="s">
+      <c r="D161" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E161" s="95" t="s">
+      <c r="E161" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="F161" s="95" t="s">
+      <c r="F161" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="G161" s="95" t="s">
+      <c r="G161" s="96" t="s">
         <v>497</v>
       </c>
-      <c r="H161" s="104"/>
-      <c r="I161" s="105" t="s">
+      <c r="H161" s="105"/>
+      <c r="I161" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J161" s="100" t="s">
+      <c r="J161" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K161" s="99"/>
-      <c r="L161" s="99"/>
-      <c r="M161" s="100"/>
-      <c r="N161" s="100"/>
-      <c r="O161" s="99" t="s">
+      <c r="K161" s="100"/>
+      <c r="L161" s="100"/>
+      <c r="M161" s="101"/>
+      <c r="N161" s="101"/>
+      <c r="O161" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="P161" s="99"/>
-      <c r="Q161" s="99"/>
-      <c r="R161" s="99"/>
-      <c r="S161" s="99" t="s">
+      <c r="P161" s="100"/>
+      <c r="Q161" s="100"/>
+      <c r="R161" s="100"/>
+      <c r="S161" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T161" s="99"/>
-      <c r="U161" s="99"/>
-      <c r="V161" s="99"/>
-      <c r="W161" s="99"/>
-      <c r="X161" s="99"/>
-      <c r="Y161" s="100" t="s">
+      <c r="T161" s="100"/>
+      <c r="U161" s="100"/>
+      <c r="V161" s="100"/>
+      <c r="W161" s="100"/>
+      <c r="X161" s="100"/>
+      <c r="Y161" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="Z161" s="99"/>
-      <c r="AA161" s="99"/>
-      <c r="AB161" s="99"/>
-      <c r="AC161" s="99"/>
-      <c r="AD161" s="99"/>
-      <c r="AE161" s="99"/>
-      <c r="AF161" s="99" t="n">
+      <c r="Z161" s="100"/>
+      <c r="AA161" s="100"/>
+      <c r="AB161" s="100"/>
+      <c r="AC161" s="100"/>
+      <c r="AD161" s="100"/>
+      <c r="AE161" s="100"/>
+      <c r="AF161" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="99"/>
-      <c r="AH161" s="99"/>
-      <c r="AI161" s="99"/>
-      <c r="AJ161" s="99"/>
-      <c r="AK161" s="99"/>
-      <c r="AL161" s="106"/>
-      <c r="AM161" s="102"/>
+      <c r="AG161" s="100"/>
+      <c r="AH161" s="100"/>
+      <c r="AI161" s="100"/>
+      <c r="AJ161" s="100"/>
+      <c r="AK161" s="100"/>
+      <c r="AL161" s="107"/>
+      <c r="AM161" s="103"/>
       <c r="AN161" s="21" t="n">
         <v>160</v>
       </c>
-      <c r="AO161" s="99"/>
-      <c r="AP161" s="99"/>
-      <c r="AQ161" s="99"/>
+      <c r="AO161" s="100"/>
+      <c r="AP161" s="100"/>
+      <c r="AQ161" s="100"/>
     </row>
     <row r="162" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="14" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="56" t="s">
+      <c r="B162" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D162" s="94" t="s">
+      <c r="D162" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E162" s="95" t="s">
+      <c r="E162" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F162" s="95" t="s">
+      <c r="F162" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G162" s="95" t="s">
+      <c r="G162" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H162" s="104" t="s">
+      <c r="H162" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="I162" s="105" t="s">
+      <c r="I162" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J162" s="100" t="s">
+      <c r="J162" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K162" s="99"/>
-      <c r="L162" s="99"/>
-      <c r="M162" s="100"/>
-      <c r="N162" s="100"/>
-      <c r="O162" s="100" t="s">
+      <c r="K162" s="100"/>
+      <c r="L162" s="100"/>
+      <c r="M162" s="101"/>
+      <c r="N162" s="101"/>
+      <c r="O162" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P162" s="99"/>
-      <c r="Q162" s="99"/>
-      <c r="R162" s="99"/>
-      <c r="S162" s="99" t="s">
+      <c r="P162" s="100"/>
+      <c r="Q162" s="100"/>
+      <c r="R162" s="100"/>
+      <c r="S162" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T162" s="99"/>
-      <c r="U162" s="99"/>
-      <c r="V162" s="99"/>
-      <c r="W162" s="99"/>
-      <c r="X162" s="99"/>
-      <c r="Y162" s="100" t="s">
+      <c r="T162" s="100"/>
+      <c r="U162" s="100"/>
+      <c r="V162" s="100"/>
+      <c r="W162" s="100"/>
+      <c r="X162" s="100"/>
+      <c r="Y162" s="101" t="s">
         <v>504</v>
       </c>
-      <c r="Z162" s="99"/>
-      <c r="AA162" s="99"/>
-      <c r="AB162" s="99"/>
-      <c r="AC162" s="99"/>
-      <c r="AD162" s="99"/>
-      <c r="AE162" s="99"/>
-      <c r="AF162" s="99" t="n">
+      <c r="Z162" s="100"/>
+      <c r="AA162" s="100"/>
+      <c r="AB162" s="100"/>
+      <c r="AC162" s="100"/>
+      <c r="AD162" s="100"/>
+      <c r="AE162" s="100"/>
+      <c r="AF162" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="99"/>
-      <c r="AH162" s="99"/>
-      <c r="AI162" s="99"/>
-      <c r="AJ162" s="99"/>
-      <c r="AK162" s="99"/>
-      <c r="AL162" s="99"/>
-      <c r="AM162" s="102"/>
+      <c r="AG162" s="100"/>
+      <c r="AH162" s="100"/>
+      <c r="AI162" s="100"/>
+      <c r="AJ162" s="100"/>
+      <c r="AK162" s="100"/>
+      <c r="AL162" s="100"/>
+      <c r="AM162" s="103"/>
       <c r="AN162" s="21" t="n">
         <v>161</v>
       </c>
-      <c r="AO162" s="99" t="n">
+      <c r="AO162" s="100" t="n">
         <v>83</v>
       </c>
-      <c r="AP162" s="99"/>
-      <c r="AQ162" s="99"/>
+      <c r="AP162" s="100"/>
+      <c r="AQ162" s="100"/>
     </row>
     <row r="163" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="56" t="s">
+      <c r="B163" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="94" t="s">
+      <c r="D163" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E163" s="95" t="s">
+      <c r="E163" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F163" s="95" t="s">
+      <c r="F163" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G163" s="95" t="s">
+      <c r="G163" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H163" s="104" t="s">
+      <c r="H163" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="I163" s="105" t="s">
+      <c r="I163" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J163" s="100" t="s">
+      <c r="J163" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K163" s="99"/>
-      <c r="L163" s="99"/>
-      <c r="M163" s="100"/>
-      <c r="N163" s="100"/>
-      <c r="O163" s="100" t="s">
+      <c r="K163" s="100"/>
+      <c r="L163" s="100"/>
+      <c r="M163" s="101"/>
+      <c r="N163" s="101"/>
+      <c r="O163" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P163" s="99"/>
-      <c r="Q163" s="99"/>
-      <c r="R163" s="99"/>
-      <c r="S163" s="99" t="s">
+      <c r="P163" s="100"/>
+      <c r="Q163" s="100"/>
+      <c r="R163" s="100"/>
+      <c r="S163" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T163" s="99"/>
-      <c r="U163" s="99"/>
-      <c r="V163" s="99"/>
-      <c r="W163" s="99"/>
-      <c r="X163" s="99"/>
-      <c r="Y163" s="100" t="s">
+      <c r="T163" s="100"/>
+      <c r="U163" s="100"/>
+      <c r="V163" s="100"/>
+      <c r="W163" s="100"/>
+      <c r="X163" s="100"/>
+      <c r="Y163" s="101" t="s">
         <v>505</v>
       </c>
-      <c r="Z163" s="99"/>
-      <c r="AA163" s="99"/>
-      <c r="AB163" s="99"/>
-      <c r="AC163" s="99"/>
-      <c r="AD163" s="99"/>
-      <c r="AE163" s="99"/>
-      <c r="AF163" s="99" t="n">
+      <c r="Z163" s="100"/>
+      <c r="AA163" s="100"/>
+      <c r="AB163" s="100"/>
+      <c r="AC163" s="100"/>
+      <c r="AD163" s="100"/>
+      <c r="AE163" s="100"/>
+      <c r="AF163" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="99"/>
-      <c r="AH163" s="99"/>
-      <c r="AI163" s="99"/>
-      <c r="AJ163" s="99"/>
-      <c r="AK163" s="99"/>
-      <c r="AL163" s="99"/>
-      <c r="AM163" s="102"/>
+      <c r="AG163" s="100"/>
+      <c r="AH163" s="100"/>
+      <c r="AI163" s="100"/>
+      <c r="AJ163" s="100"/>
+      <c r="AK163" s="100"/>
+      <c r="AL163" s="100"/>
+      <c r="AM163" s="103"/>
       <c r="AN163" s="21" t="n">
         <v>162</v>
       </c>
-      <c r="AO163" s="99" t="n">
+      <c r="AO163" s="100" t="n">
         <v>91</v>
       </c>
-      <c r="AP163" s="99"/>
-      <c r="AQ163" s="99"/>
+      <c r="AP163" s="100"/>
+      <c r="AQ163" s="100"/>
     </row>
     <row r="164" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="56" t="s">
+      <c r="B164" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="94" t="s">
+      <c r="D164" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E164" s="95" t="s">
+      <c r="E164" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F164" s="95" t="s">
+      <c r="F164" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G164" s="95" t="s">
+      <c r="G164" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H164" s="104" t="s">
+      <c r="H164" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="I164" s="105" t="s">
+      <c r="I164" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J164" s="100" t="s">
+      <c r="J164" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K164" s="99"/>
-      <c r="L164" s="99"/>
-      <c r="M164" s="100"/>
-      <c r="N164" s="100"/>
-      <c r="O164" s="100" t="s">
+      <c r="K164" s="100"/>
+      <c r="L164" s="100"/>
+      <c r="M164" s="101"/>
+      <c r="N164" s="101"/>
+      <c r="O164" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P164" s="99"/>
-      <c r="Q164" s="99"/>
-      <c r="R164" s="99"/>
-      <c r="S164" s="99" t="s">
+      <c r="P164" s="100"/>
+      <c r="Q164" s="100"/>
+      <c r="R164" s="100"/>
+      <c r="S164" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T164" s="99"/>
-      <c r="U164" s="99"/>
-      <c r="V164" s="99"/>
-      <c r="W164" s="99"/>
-      <c r="X164" s="99"/>
-      <c r="Y164" s="100" t="s">
+      <c r="T164" s="100"/>
+      <c r="U164" s="100"/>
+      <c r="V164" s="100"/>
+      <c r="W164" s="100"/>
+      <c r="X164" s="100"/>
+      <c r="Y164" s="101" t="s">
         <v>506</v>
       </c>
-      <c r="Z164" s="99"/>
-      <c r="AA164" s="99"/>
-      <c r="AB164" s="99"/>
-      <c r="AC164" s="99"/>
-      <c r="AD164" s="99"/>
-      <c r="AE164" s="99"/>
-      <c r="AF164" s="99" t="n">
+      <c r="Z164" s="100"/>
+      <c r="AA164" s="100"/>
+      <c r="AB164" s="100"/>
+      <c r="AC164" s="100"/>
+      <c r="AD164" s="100"/>
+      <c r="AE164" s="100"/>
+      <c r="AF164" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="99"/>
-      <c r="AH164" s="99"/>
-      <c r="AI164" s="99"/>
-      <c r="AJ164" s="99"/>
-      <c r="AK164" s="99"/>
-      <c r="AL164" s="99"/>
-      <c r="AM164" s="102"/>
+      <c r="AG164" s="100"/>
+      <c r="AH164" s="100"/>
+      <c r="AI164" s="100"/>
+      <c r="AJ164" s="100"/>
+      <c r="AK164" s="100"/>
+      <c r="AL164" s="100"/>
+      <c r="AM164" s="103"/>
       <c r="AN164" s="21" t="n">
         <v>163</v>
       </c>
-      <c r="AO164" s="99" t="n">
+      <c r="AO164" s="100" t="n">
         <v>88</v>
       </c>
-      <c r="AP164" s="99"/>
-      <c r="AQ164" s="99"/>
+      <c r="AP164" s="100"/>
+      <c r="AQ164" s="100"/>
     </row>
     <row r="165" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="14" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="56" t="s">
+      <c r="B165" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D165" s="94" t="s">
+      <c r="D165" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E165" s="95" t="s">
+      <c r="E165" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F165" s="95" t="s">
+      <c r="F165" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G165" s="95" t="s">
+      <c r="G165" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H165" s="104" t="s">
+      <c r="H165" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="I165" s="105" t="s">
+      <c r="I165" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J165" s="100" t="s">
+      <c r="J165" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K165" s="99"/>
-      <c r="L165" s="99"/>
-      <c r="M165" s="100"/>
-      <c r="N165" s="100"/>
-      <c r="O165" s="100" t="s">
+      <c r="K165" s="100"/>
+      <c r="L165" s="100"/>
+      <c r="M165" s="101"/>
+      <c r="N165" s="101"/>
+      <c r="O165" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P165" s="99"/>
-      <c r="Q165" s="99"/>
-      <c r="R165" s="99"/>
-      <c r="S165" s="99" t="s">
+      <c r="P165" s="100"/>
+      <c r="Q165" s="100"/>
+      <c r="R165" s="100"/>
+      <c r="S165" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T165" s="99"/>
-      <c r="U165" s="99"/>
-      <c r="V165" s="99"/>
-      <c r="W165" s="99"/>
-      <c r="X165" s="99"/>
-      <c r="Y165" s="100" t="s">
+      <c r="T165" s="100"/>
+      <c r="U165" s="100"/>
+      <c r="V165" s="100"/>
+      <c r="W165" s="100"/>
+      <c r="X165" s="100"/>
+      <c r="Y165" s="101" t="s">
         <v>507</v>
       </c>
-      <c r="Z165" s="99"/>
-      <c r="AA165" s="99"/>
-      <c r="AB165" s="99"/>
-      <c r="AC165" s="99"/>
-      <c r="AD165" s="99"/>
-      <c r="AE165" s="99"/>
-      <c r="AF165" s="99" t="n">
+      <c r="Z165" s="100"/>
+      <c r="AA165" s="100"/>
+      <c r="AB165" s="100"/>
+      <c r="AC165" s="100"/>
+      <c r="AD165" s="100"/>
+      <c r="AE165" s="100"/>
+      <c r="AF165" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="99"/>
-      <c r="AH165" s="99"/>
-      <c r="AI165" s="99"/>
-      <c r="AJ165" s="99"/>
-      <c r="AK165" s="99"/>
-      <c r="AL165" s="99"/>
-      <c r="AM165" s="102"/>
+      <c r="AG165" s="100"/>
+      <c r="AH165" s="100"/>
+      <c r="AI165" s="100"/>
+      <c r="AJ165" s="100"/>
+      <c r="AK165" s="100"/>
+      <c r="AL165" s="100"/>
+      <c r="AM165" s="103"/>
       <c r="AN165" s="21" t="n">
         <v>164</v>
       </c>
-      <c r="AO165" s="99" t="n">
+      <c r="AO165" s="100" t="n">
         <v>96</v>
       </c>
-      <c r="AP165" s="99"/>
-      <c r="AQ165" s="99"/>
+      <c r="AP165" s="100"/>
+      <c r="AQ165" s="100"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ161"/>
@@ -16709,17 +16709,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>352</v>
       </c>
     </row>
@@ -16746,9 +16743,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16783,9 +16777,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -16821,7 +16812,7 @@
       <c r="A7" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="109" t="s">
         <v>515</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -16830,10 +16821,10 @@
       <c r="F7" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -16842,13 +16833,13 @@
       <c r="F8" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="H8" s="108"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>515</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -16859,7 +16850,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -16873,21 +16864,21 @@
       <c r="A15" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="H15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="H15" s="109"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="108"/>
-      <c r="H16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="H16" s="109"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="109" t="s">
         <v>515</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="109" t="s">
         <v>515</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -16898,13 +16889,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -16915,16 +16906,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>523</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="110" t="s">
         <v>524</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="109" t="s">
         <v>523</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="110" t="s">
         <v>525</v>
       </c>
     </row>
@@ -16939,31 +16930,31 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="H25" s="110" t="s">
+      <c r="H25" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="J25" s="108"/>
+      <c r="J25" s="109"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="108" t="s">
+      <c r="G26" s="109" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="108"/>
+      <c r="J26" s="109"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="109" t="s">
         <v>515</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -16974,13 +16965,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="109" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="109" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -17018,53 +17009,50 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="113" t="s">
         <v>532</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="113" t="s">
         <v>533</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="113" t="s">
         <v>534</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="113" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="114" t="s">
         <v>535</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Alcomarket" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
@@ -1877,6 +1877,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1937,12 +1943,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2023,12 +2023,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2087,7 +2094,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2113,7 +2120,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -2126,175 +2136,175 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2302,15 +2312,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2318,131 +2328,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2458,23 +2468,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2482,79 +2492,79 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="11" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="10" fillId="11" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2566,27 +2576,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="SAPBEXstdItem" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2662,8 +2673,8 @@
   </sheetPr>
   <dimension ref="A1:AQ165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O58" activeCellId="0" sqref="O58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3576,7 +3587,7 @@
       </c>
       <c r="AQ10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
@@ -4011,7 +4022,7 @@
       </c>
       <c r="AQ15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
@@ -7324,7 +7335,7 @@
       </c>
       <c r="AQ54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
         <v>54</v>
       </c>
@@ -7498,7 +7509,7 @@
       </c>
       <c r="AQ56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
         <v>56</v>
       </c>
@@ -16685,7 +16696,7 @@
       <c r="AQ165" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ161"/>
+  <autoFilter ref="A1:AQ165"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16704,7 +16715,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16738,7 +16749,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16772,7 +16783,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -17004,7 +17015,7 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/FT PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,9 +36,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="537">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1262,10 +1263,16 @@
     <t xml:space="preserve">Микс. Дверь: БонАква Негаз - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixed Door: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микс. Дверь: Берн Оригинальный - 0.5л</t>
+    <t xml:space="preserve">Mixed Door: ANY Schweppes 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Микс. Дверь: Швепс - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.5L, Schweppes Mojito - 0.5L, Schweppes Tonic - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54490130, 5449000176981, 50112265</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed Door: Coca-Cola - 0.25L Slim</t>
@@ -1280,10 +1287,7 @@
     <t xml:space="preserve">Микс. Дверь: Кока-Кола - 0.33л</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixed Door: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микс. Дверь: Кока-Кола - 0.5л</t>
+    <t xml:space="preserve">Mixed Door: Coca-Cola Zero Cherry - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed Door: Coca-Cola - 1L</t>
@@ -1937,7 +1941,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1948,6 +1952,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2051,7 +2061,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2192,6 +2202,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2212,7 +2238,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2301,7 +2327,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2324,17 +2350,17 @@
   </sheetPr>
   <dimension ref="A1:AQ165"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="33.7935222672065"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.2024291497976"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11820,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="M112" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N112" s="9" t="s">
         <v>326</v>
@@ -12238,10 +12264,10 @@
         <v>304</v>
       </c>
       <c r="F117" s="9"/>
-      <c r="G117" s="7" t="s">
+      <c r="G117" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="35" t="s">
         <v>374</v>
       </c>
       <c r="I117" s="11" t="s">
@@ -12253,11 +12279,11 @@
       </c>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O117" s="25" t="n">
-        <v>5449000131768</v>
+      <c r="N117" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="O117" s="37" t="s">
+        <v>376</v>
       </c>
       <c r="P117" s="25"/>
       <c r="Q117" s="25"/>
@@ -12326,10 +12352,10 @@
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>54</v>
@@ -12413,10 +12439,10 @@
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>54</v>
@@ -12499,10 +12525,10 @@
         <v>304</v>
       </c>
       <c r="F120" s="9"/>
-      <c r="G120" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H120" s="7" t="s">
+      <c r="G120" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="H120" s="35" t="s">
         <v>380</v>
       </c>
       <c r="I120" s="11" t="s">
@@ -12514,11 +12540,11 @@
       </c>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O120" s="25" t="n">
-        <v>54491472</v>
+      <c r="N120" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="O120" s="38" t="n">
+        <v>5449000214744</v>
       </c>
       <c r="P120" s="25"/>
       <c r="Q120" s="25"/>
@@ -12587,10 +12613,10 @@
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I121" s="11" t="s">
         <v>54</v>
@@ -12674,10 +12700,10 @@
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I122" s="11" t="s">
         <v>54</v>
@@ -12761,10 +12787,10 @@
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I123" s="11" t="s">
         <v>54</v>
@@ -12848,10 +12874,10 @@
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I124" s="11" t="s">
         <v>54</v>
@@ -12935,10 +12961,10 @@
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>54</v>
@@ -13022,10 +13048,10 @@
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>54</v>
@@ -13037,10 +13063,10 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O126" s="25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P126" s="25"/>
       <c r="Q126" s="25"/>
@@ -13109,10 +13135,10 @@
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>54</v>
@@ -13124,10 +13150,10 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
       <c r="N127" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O127" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P127" s="25"/>
       <c r="Q127" s="25"/>
@@ -13196,10 +13222,10 @@
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I128" s="11" t="s">
         <v>54</v>
@@ -13283,10 +13309,10 @@
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I129" s="11" t="s">
         <v>54</v>
@@ -13370,10 +13396,10 @@
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I130" s="11" t="s">
         <v>54</v>
@@ -13457,10 +13483,10 @@
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>256</v>
@@ -13485,7 +13511,7 @@
       <c r="W131" s="9"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="7"/>
@@ -13510,7 +13536,7 @@
         <v>336</v>
       </c>
       <c r="AJ131" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK131" s="7"/>
       <c r="AL131" s="7"/>
@@ -13521,7 +13547,7 @@
         <v>130</v>
       </c>
       <c r="AO131" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP131" s="32" t="s">
         <v>358</v>
@@ -13546,10 +13572,10 @@
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I132" s="11" t="s">
         <v>54</v>
@@ -13580,7 +13606,7 @@
       <c r="W132" s="9"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="7"/>
@@ -13599,7 +13625,7 @@
       <c r="AH132" s="7"/>
       <c r="AI132" s="7"/>
       <c r="AJ132" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK132" s="7"/>
       <c r="AL132" s="7"/>
@@ -13611,7 +13637,7 @@
       </c>
       <c r="AO132" s="9"/>
       <c r="AP132" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ132" s="9"/>
     </row>
@@ -13633,10 +13659,10 @@
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I133" s="11" t="s">
         <v>54</v>
@@ -13667,7 +13693,7 @@
       <c r="W133" s="9"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="7"/>
@@ -13686,7 +13712,7 @@
       <c r="AH133" s="7"/>
       <c r="AI133" s="7"/>
       <c r="AJ133" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK133" s="7"/>
       <c r="AL133" s="7"/>
@@ -13698,7 +13724,7 @@
       </c>
       <c r="AO133" s="9"/>
       <c r="AP133" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ133" s="9"/>
     </row>
@@ -13720,10 +13746,10 @@
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>54</v>
@@ -13754,7 +13780,7 @@
       <c r="W134" s="9"/>
       <c r="X134" s="7"/>
       <c r="Y134" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z134" s="9"/>
       <c r="AA134" s="7"/>
@@ -13773,7 +13799,7 @@
       <c r="AH134" s="7"/>
       <c r="AI134" s="7"/>
       <c r="AJ134" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK134" s="7"/>
       <c r="AL134" s="7"/>
@@ -13785,7 +13811,7 @@
       </c>
       <c r="AO134" s="9"/>
       <c r="AP134" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ134" s="9"/>
     </row>
@@ -13807,10 +13833,10 @@
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I135" s="11" t="s">
         <v>54</v>
@@ -13841,7 +13867,7 @@
       <c r="W135" s="9"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z135" s="9"/>
       <c r="AA135" s="7"/>
@@ -13860,7 +13886,7 @@
       <c r="AH135" s="7"/>
       <c r="AI135" s="7"/>
       <c r="AJ135" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK135" s="7"/>
       <c r="AL135" s="7"/>
@@ -13872,7 +13898,7 @@
       </c>
       <c r="AO135" s="9"/>
       <c r="AP135" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ135" s="9"/>
     </row>
@@ -13894,10 +13920,10 @@
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I136" s="11" t="s">
         <v>54</v>
@@ -13928,7 +13954,7 @@
       <c r="W136" s="9"/>
       <c r="X136" s="7"/>
       <c r="Y136" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="7"/>
@@ -13947,7 +13973,7 @@
       <c r="AH136" s="7"/>
       <c r="AI136" s="7"/>
       <c r="AJ136" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK136" s="7"/>
       <c r="AL136" s="7"/>
@@ -13959,7 +13985,7 @@
       </c>
       <c r="AO136" s="9"/>
       <c r="AP136" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ136" s="9"/>
     </row>
@@ -13981,10 +14007,10 @@
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I137" s="11" t="s">
         <v>54</v>
@@ -14015,7 +14041,7 @@
       <c r="W137" s="9"/>
       <c r="X137" s="7"/>
       <c r="Y137" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="7"/>
@@ -14034,7 +14060,7 @@
       <c r="AH137" s="7"/>
       <c r="AI137" s="7"/>
       <c r="AJ137" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK137" s="7"/>
       <c r="AL137" s="7"/>
@@ -14046,7 +14072,7 @@
       </c>
       <c r="AO137" s="9"/>
       <c r="AP137" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ137" s="9"/>
     </row>
@@ -14068,10 +14094,10 @@
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I138" s="11" t="s">
         <v>54</v>
@@ -14102,7 +14128,7 @@
       <c r="W138" s="9"/>
       <c r="X138" s="7"/>
       <c r="Y138" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="7"/>
@@ -14121,7 +14147,7 @@
       <c r="AH138" s="7"/>
       <c r="AI138" s="7"/>
       <c r="AJ138" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK138" s="7"/>
       <c r="AL138" s="7"/>
@@ -14133,7 +14159,7 @@
       </c>
       <c r="AO138" s="9"/>
       <c r="AP138" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ138" s="9"/>
     </row>
@@ -14155,10 +14181,10 @@
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>54</v>
@@ -14189,7 +14215,7 @@
       <c r="W139" s="9"/>
       <c r="X139" s="7"/>
       <c r="Y139" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="7"/>
@@ -14208,7 +14234,7 @@
       <c r="AH139" s="7"/>
       <c r="AI139" s="7"/>
       <c r="AJ139" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK139" s="7"/>
       <c r="AL139" s="7"/>
@@ -14220,7 +14246,7 @@
       </c>
       <c r="AO139" s="9"/>
       <c r="AP139" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ139" s="9"/>
     </row>
@@ -14242,10 +14268,10 @@
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>54</v>
@@ -14276,7 +14302,7 @@
       <c r="W140" s="9"/>
       <c r="X140" s="7"/>
       <c r="Y140" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="7"/>
@@ -14295,7 +14321,7 @@
       <c r="AH140" s="7"/>
       <c r="AI140" s="7"/>
       <c r="AJ140" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK140" s="7"/>
       <c r="AL140" s="7"/>
@@ -14307,7 +14333,7 @@
       </c>
       <c r="AO140" s="9"/>
       <c r="AP140" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ140" s="9"/>
     </row>
@@ -14329,10 +14355,10 @@
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I141" s="11" t="s">
         <v>54</v>
@@ -14363,7 +14389,7 @@
       <c r="W141" s="9"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="7"/>
@@ -14382,7 +14408,7 @@
       <c r="AH141" s="7"/>
       <c r="AI141" s="7"/>
       <c r="AJ141" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK141" s="7"/>
       <c r="AL141" s="7"/>
@@ -14394,7 +14420,7 @@
       </c>
       <c r="AO141" s="9"/>
       <c r="AP141" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ141" s="9"/>
     </row>
@@ -14416,10 +14442,10 @@
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I142" s="11" t="s">
         <v>54</v>
@@ -14450,7 +14476,7 @@
       <c r="W142" s="9"/>
       <c r="X142" s="7"/>
       <c r="Y142" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="7"/>
@@ -14469,7 +14495,7 @@
       <c r="AH142" s="7"/>
       <c r="AI142" s="7"/>
       <c r="AJ142" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK142" s="7"/>
       <c r="AL142" s="7"/>
@@ -14481,7 +14507,7 @@
       </c>
       <c r="AO142" s="9"/>
       <c r="AP142" s="32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ142" s="9"/>
     </row>
@@ -14503,10 +14529,10 @@
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>256</v>
@@ -14531,7 +14557,7 @@
       <c r="W143" s="9"/>
       <c r="X143" s="7"/>
       <c r="Y143" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="7"/>
@@ -14556,7 +14582,7 @@
         <v>336</v>
       </c>
       <c r="AJ143" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK143" s="7"/>
       <c r="AL143" s="7"/>
@@ -14567,7 +14593,7 @@
         <v>142</v>
       </c>
       <c r="AO143" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP143" s="32" t="s">
         <v>358</v>
@@ -14592,10 +14618,10 @@
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I144" s="11" t="s">
         <v>54</v>
@@ -14626,7 +14652,7 @@
       <c r="W144" s="9"/>
       <c r="X144" s="7"/>
       <c r="Y144" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z144" s="9"/>
       <c r="AA144" s="7"/>
@@ -14645,7 +14671,7 @@
       <c r="AH144" s="7"/>
       <c r="AI144" s="7"/>
       <c r="AJ144" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK144" s="7"/>
       <c r="AL144" s="7"/>
@@ -14657,7 +14683,7 @@
       </c>
       <c r="AO144" s="9"/>
       <c r="AP144" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ144" s="9"/>
     </row>
@@ -14679,10 +14705,10 @@
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I145" s="11" t="s">
         <v>54</v>
@@ -14713,7 +14739,7 @@
       <c r="W145" s="9"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z145" s="9"/>
       <c r="AA145" s="7"/>
@@ -14732,7 +14758,7 @@
       <c r="AH145" s="7"/>
       <c r="AI145" s="7"/>
       <c r="AJ145" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK145" s="7"/>
       <c r="AL145" s="7"/>
@@ -14744,7 +14770,7 @@
       </c>
       <c r="AO145" s="9"/>
       <c r="AP145" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ145" s="9"/>
     </row>
@@ -14766,10 +14792,10 @@
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I146" s="11" t="s">
         <v>54</v>
@@ -14800,7 +14826,7 @@
       <c r="W146" s="9"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z146" s="9"/>
       <c r="AA146" s="7"/>
@@ -14819,7 +14845,7 @@
       <c r="AH146" s="7"/>
       <c r="AI146" s="7"/>
       <c r="AJ146" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK146" s="7"/>
       <c r="AL146" s="7"/>
@@ -14831,7 +14857,7 @@
       </c>
       <c r="AO146" s="9"/>
       <c r="AP146" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ146" s="9"/>
     </row>
@@ -14853,10 +14879,10 @@
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I147" s="11" t="s">
         <v>54</v>
@@ -14887,7 +14913,7 @@
       <c r="W147" s="9"/>
       <c r="X147" s="7"/>
       <c r="Y147" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z147" s="9"/>
       <c r="AA147" s="7"/>
@@ -14906,7 +14932,7 @@
       <c r="AH147" s="7"/>
       <c r="AI147" s="7"/>
       <c r="AJ147" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK147" s="7"/>
       <c r="AL147" s="7"/>
@@ -14918,7 +14944,7 @@
       </c>
       <c r="AO147" s="9"/>
       <c r="AP147" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ147" s="9"/>
     </row>
@@ -14940,10 +14966,10 @@
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I148" s="11" t="s">
         <v>54</v>
@@ -14974,7 +15000,7 @@
       <c r="W148" s="9"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z148" s="9"/>
       <c r="AA148" s="7"/>
@@ -14993,7 +15019,7 @@
       <c r="AH148" s="7"/>
       <c r="AI148" s="7"/>
       <c r="AJ148" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK148" s="7"/>
       <c r="AL148" s="7"/>
@@ -15005,7 +15031,7 @@
       </c>
       <c r="AO148" s="9"/>
       <c r="AP148" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ148" s="9"/>
     </row>
@@ -15027,10 +15053,10 @@
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>54</v>
@@ -15042,10 +15068,10 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P149" s="25"/>
       <c r="Q149" s="25"/>
@@ -15061,7 +15087,7 @@
       <c r="W149" s="9"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="7"/>
@@ -15080,7 +15106,7 @@
       <c r="AH149" s="7"/>
       <c r="AI149" s="7"/>
       <c r="AJ149" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK149" s="7"/>
       <c r="AL149" s="7"/>
@@ -15092,7 +15118,7 @@
       </c>
       <c r="AO149" s="9"/>
       <c r="AP149" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ149" s="9"/>
     </row>
@@ -15114,10 +15140,10 @@
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>54</v>
@@ -15129,10 +15155,10 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P150" s="25"/>
       <c r="Q150" s="25"/>
@@ -15148,7 +15174,7 @@
       <c r="W150" s="9"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="7"/>
@@ -15167,7 +15193,7 @@
       <c r="AH150" s="7"/>
       <c r="AI150" s="7"/>
       <c r="AJ150" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK150" s="7"/>
       <c r="AL150" s="7"/>
@@ -15179,7 +15205,7 @@
       </c>
       <c r="AO150" s="9"/>
       <c r="AP150" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ150" s="9"/>
     </row>
@@ -15201,10 +15227,10 @@
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I151" s="11" t="s">
         <v>54</v>
@@ -15216,10 +15242,10 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P151" s="25"/>
       <c r="Q151" s="25"/>
@@ -15235,7 +15261,7 @@
       <c r="W151" s="9"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="7"/>
@@ -15254,7 +15280,7 @@
       <c r="AH151" s="7"/>
       <c r="AI151" s="7"/>
       <c r="AJ151" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK151" s="7"/>
       <c r="AL151" s="7"/>
@@ -15266,7 +15292,7 @@
       </c>
       <c r="AO151" s="9"/>
       <c r="AP151" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ151" s="9"/>
     </row>
@@ -15288,10 +15314,10 @@
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I152" s="11" t="s">
         <v>54</v>
@@ -15322,7 +15348,7 @@
       <c r="W152" s="9"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z152" s="9"/>
       <c r="AA152" s="7"/>
@@ -15341,7 +15367,7 @@
       <c r="AH152" s="7"/>
       <c r="AI152" s="7"/>
       <c r="AJ152" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK152" s="7"/>
       <c r="AL152" s="7"/>
@@ -15353,7 +15379,7 @@
       </c>
       <c r="AO152" s="9"/>
       <c r="AP152" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ152" s="9"/>
     </row>
@@ -15375,10 +15401,10 @@
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I153" s="11" t="s">
         <v>54</v>
@@ -15390,10 +15416,10 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P153" s="25"/>
       <c r="Q153" s="25"/>
@@ -15409,7 +15435,7 @@
       <c r="W153" s="9"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z153" s="9"/>
       <c r="AA153" s="7"/>
@@ -15428,7 +15454,7 @@
       <c r="AH153" s="7"/>
       <c r="AI153" s="7"/>
       <c r="AJ153" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK153" s="7"/>
       <c r="AL153" s="7"/>
@@ -15440,7 +15466,7 @@
       </c>
       <c r="AO153" s="9"/>
       <c r="AP153" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ153" s="9"/>
     </row>
@@ -15462,13 +15488,13 @@
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J154" s="11"/>
       <c r="K154" s="7"/>
@@ -15538,67 +15564,67 @@
         <v>44</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E155" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="F155" s="35" t="s">
+      <c r="E155" s="39" t="s">
         <v>465</v>
+      </c>
+      <c r="F155" s="39" t="s">
+        <v>466</v>
       </c>
       <c r="G155" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="H155" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="I155" s="37" t="s">
+      <c r="H155" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="J155" s="37" t="s">
+      <c r="I155" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="K155" s="37"/>
-      <c r="L155" s="37"/>
+      <c r="J155" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="K155" s="41"/>
+      <c r="L155" s="41"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="37"/>
-      <c r="Q155" s="37"/>
-      <c r="R155" s="37"/>
-      <c r="S155" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="T155" s="37"/>
-      <c r="U155" s="37"/>
-      <c r="V155" s="37"/>
-      <c r="W155" s="37"/>
-      <c r="X155" s="37"/>
-      <c r="Y155" s="37"/>
-      <c r="Z155" s="37"/>
-      <c r="AA155" s="37"/>
-      <c r="AB155" s="37"/>
-      <c r="AC155" s="37"/>
-      <c r="AD155" s="37"/>
-      <c r="AE155" s="37"/>
-      <c r="AF155" s="38" t="n">
+      <c r="O155" s="41"/>
+      <c r="P155" s="41"/>
+      <c r="Q155" s="41"/>
+      <c r="R155" s="41"/>
+      <c r="S155" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="T155" s="41"/>
+      <c r="U155" s="41"/>
+      <c r="V155" s="41"/>
+      <c r="W155" s="41"/>
+      <c r="X155" s="41"/>
+      <c r="Y155" s="41"/>
+      <c r="Z155" s="41"/>
+      <c r="AA155" s="41"/>
+      <c r="AB155" s="41"/>
+      <c r="AC155" s="41"/>
+      <c r="AD155" s="41"/>
+      <c r="AE155" s="41"/>
+      <c r="AF155" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AG155" s="37"/>
-      <c r="AH155" s="37"/>
-      <c r="AI155" s="37"/>
-      <c r="AJ155" s="37"/>
-      <c r="AK155" s="37"/>
-      <c r="AL155" s="37"/>
-      <c r="AM155" s="37"/>
+      <c r="AG155" s="41"/>
+      <c r="AH155" s="41"/>
+      <c r="AI155" s="41"/>
+      <c r="AJ155" s="41"/>
+      <c r="AK155" s="41"/>
+      <c r="AL155" s="41"/>
+      <c r="AM155" s="41"/>
       <c r="AN155" s="9" t="n">
         <v>154</v>
       </c>
-      <c r="AO155" s="37" t="n">
+      <c r="AO155" s="41" t="n">
         <v>101</v>
       </c>
-      <c r="AP155" s="37"/>
-      <c r="AQ155" s="37"/>
+      <c r="AP155" s="41"/>
+      <c r="AQ155" s="41"/>
     </row>
     <row r="156" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
@@ -15611,65 +15637,65 @@
         <v>44</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E156" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="F156" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E156" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G156" s="35" t="s">
+      <c r="F156" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="G156" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="H156" s="36"/>
-      <c r="I156" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="J156" s="37" t="s">
+      <c r="H156" s="40"/>
+      <c r="I156" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="K156" s="37"/>
-      <c r="L156" s="37"/>
+      <c r="J156" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="K156" s="41"/>
+      <c r="L156" s="41"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="37"/>
-      <c r="Q156" s="37"/>
-      <c r="R156" s="37"/>
-      <c r="S156" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="T156" s="37"/>
-      <c r="U156" s="37"/>
-      <c r="V156" s="37"/>
-      <c r="W156" s="37"/>
-      <c r="X156" s="37"/>
-      <c r="Y156" s="37"/>
-      <c r="Z156" s="37"/>
-      <c r="AA156" s="37"/>
-      <c r="AB156" s="37"/>
-      <c r="AC156" s="37"/>
-      <c r="AD156" s="37"/>
-      <c r="AE156" s="37"/>
-      <c r="AF156" s="39" t="n">
+      <c r="O156" s="41"/>
+      <c r="P156" s="41"/>
+      <c r="Q156" s="41"/>
+      <c r="R156" s="41"/>
+      <c r="S156" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="T156" s="41"/>
+      <c r="U156" s="41"/>
+      <c r="V156" s="41"/>
+      <c r="W156" s="41"/>
+      <c r="X156" s="41"/>
+      <c r="Y156" s="41"/>
+      <c r="Z156" s="41"/>
+      <c r="AA156" s="41"/>
+      <c r="AB156" s="41"/>
+      <c r="AC156" s="41"/>
+      <c r="AD156" s="41"/>
+      <c r="AE156" s="41"/>
+      <c r="AF156" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="37"/>
-      <c r="AH156" s="37"/>
-      <c r="AI156" s="37"/>
-      <c r="AJ156" s="37"/>
-      <c r="AK156" s="37"/>
-      <c r="AL156" s="37"/>
-      <c r="AM156" s="37"/>
+      <c r="AG156" s="41"/>
+      <c r="AH156" s="41"/>
+      <c r="AI156" s="41"/>
+      <c r="AJ156" s="41"/>
+      <c r="AK156" s="41"/>
+      <c r="AL156" s="41"/>
+      <c r="AM156" s="41"/>
       <c r="AN156" s="9" t="n">
         <v>155</v>
       </c>
       <c r="AO156" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="AP156" s="37"/>
-      <c r="AQ156" s="37"/>
+        <v>475</v>
+      </c>
+      <c r="AP156" s="41"/>
+      <c r="AQ156" s="41"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
@@ -15682,67 +15708,67 @@
         <v>44</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="F157" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E157" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="35" t="s">
+      <c r="F157" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="G157" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="H157" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="I157" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="J157" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="K157" s="37"/>
-      <c r="L157" s="37"/>
+      <c r="H157" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I157" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="J157" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="K157" s="41"/>
+      <c r="L157" s="41"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="37"/>
-      <c r="Q157" s="37"/>
-      <c r="R157" s="37"/>
-      <c r="S157" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="T157" s="37"/>
-      <c r="U157" s="37"/>
-      <c r="V157" s="37"/>
-      <c r="W157" s="37"/>
-      <c r="X157" s="37"/>
-      <c r="Y157" s="37"/>
-      <c r="Z157" s="37"/>
-      <c r="AA157" s="37"/>
-      <c r="AB157" s="37"/>
-      <c r="AC157" s="37"/>
-      <c r="AD157" s="37"/>
-      <c r="AE157" s="37"/>
-      <c r="AF157" s="39" t="n">
+      <c r="O157" s="41"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="41"/>
+      <c r="R157" s="41"/>
+      <c r="S157" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="T157" s="41"/>
+      <c r="U157" s="41"/>
+      <c r="V157" s="41"/>
+      <c r="W157" s="41"/>
+      <c r="X157" s="41"/>
+      <c r="Y157" s="41"/>
+      <c r="Z157" s="41"/>
+      <c r="AA157" s="41"/>
+      <c r="AB157" s="41"/>
+      <c r="AC157" s="41"/>
+      <c r="AD157" s="41"/>
+      <c r="AE157" s="41"/>
+      <c r="AF157" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="37"/>
-      <c r="AH157" s="37"/>
-      <c r="AI157" s="37"/>
-      <c r="AJ157" s="37"/>
-      <c r="AK157" s="37"/>
-      <c r="AL157" s="37"/>
-      <c r="AM157" s="37"/>
+      <c r="AG157" s="41"/>
+      <c r="AH157" s="41"/>
+      <c r="AI157" s="41"/>
+      <c r="AJ157" s="41"/>
+      <c r="AK157" s="41"/>
+      <c r="AL157" s="41"/>
+      <c r="AM157" s="41"/>
       <c r="AN157" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="AO157" s="37" t="n">
+      <c r="AO157" s="41" t="n">
         <v>105</v>
       </c>
-      <c r="AP157" s="37"/>
-      <c r="AQ157" s="37"/>
+      <c r="AP157" s="41"/>
+      <c r="AQ157" s="41"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
@@ -15755,67 +15781,67 @@
         <v>44</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="F158" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="G158" s="35" t="s">
+      <c r="F158" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="H158" s="37"/>
+      <c r="G158" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="H158" s="41"/>
       <c r="I158" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
+        <v>474</v>
+      </c>
+      <c r="K158" s="41"/>
+      <c r="L158" s="41"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-      <c r="R158" s="37"/>
-      <c r="S158" s="37" t="s">
+      <c r="O158" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="T158" s="37"/>
-      <c r="U158" s="37"/>
-      <c r="V158" s="37"/>
-      <c r="W158" s="37"/>
-      <c r="X158" s="37"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="41"/>
+      <c r="R158" s="41"/>
+      <c r="S158" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T158" s="41"/>
+      <c r="U158" s="41"/>
+      <c r="V158" s="41"/>
+      <c r="W158" s="41"/>
+      <c r="X158" s="41"/>
       <c r="Y158" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z158" s="37"/>
-      <c r="AA158" s="37"/>
-      <c r="AB158" s="37"/>
-      <c r="AC158" s="37"/>
-      <c r="AD158" s="37"/>
-      <c r="AE158" s="37"/>
-      <c r="AF158" s="37" t="n">
+        <v>485</v>
+      </c>
+      <c r="Z158" s="41"/>
+      <c r="AA158" s="41"/>
+      <c r="AB158" s="41"/>
+      <c r="AC158" s="41"/>
+      <c r="AD158" s="41"/>
+      <c r="AE158" s="41"/>
+      <c r="AF158" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="37"/>
-      <c r="AH158" s="37"/>
-      <c r="AI158" s="37"/>
-      <c r="AJ158" s="37"/>
-      <c r="AK158" s="37"/>
-      <c r="AL158" s="37"/>
-      <c r="AM158" s="37"/>
+      <c r="AG158" s="41"/>
+      <c r="AH158" s="41"/>
+      <c r="AI158" s="41"/>
+      <c r="AJ158" s="41"/>
+      <c r="AK158" s="41"/>
+      <c r="AL158" s="41"/>
+      <c r="AM158" s="41"/>
       <c r="AN158" s="9" t="n">
         <v>157</v>
       </c>
-      <c r="AO158" s="37"/>
-      <c r="AP158" s="37"/>
-      <c r="AQ158" s="37"/>
+      <c r="AO158" s="41"/>
+      <c r="AP158" s="41"/>
+      <c r="AQ158" s="41"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
@@ -15828,67 +15854,67 @@
         <v>44</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E159" s="35" t="s">
-        <v>485</v>
-      </c>
-      <c r="F159" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="G159" s="35" t="s">
+      <c r="F159" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="H159" s="37"/>
+      <c r="G159" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="H159" s="41"/>
       <c r="I159" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K159" s="37"/>
-      <c r="L159" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K159" s="41"/>
+      <c r="L159" s="41"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="37" t="s">
+      <c r="O159" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="P159" s="37"/>
-      <c r="Q159" s="37"/>
-      <c r="R159" s="37"/>
-      <c r="S159" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T159" s="37"/>
-      <c r="U159" s="37"/>
-      <c r="V159" s="37"/>
-      <c r="W159" s="37"/>
-      <c r="X159" s="37"/>
+      <c r="P159" s="41"/>
+      <c r="Q159" s="41"/>
+      <c r="R159" s="41"/>
+      <c r="S159" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T159" s="41"/>
+      <c r="U159" s="41"/>
+      <c r="V159" s="41"/>
+      <c r="W159" s="41"/>
+      <c r="X159" s="41"/>
       <c r="Y159" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z159" s="37"/>
-      <c r="AA159" s="37"/>
-      <c r="AB159" s="37"/>
-      <c r="AC159" s="37"/>
-      <c r="AD159" s="37"/>
-      <c r="AE159" s="37"/>
-      <c r="AF159" s="37" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z159" s="41"/>
+      <c r="AA159" s="41"/>
+      <c r="AB159" s="41"/>
+      <c r="AC159" s="41"/>
+      <c r="AD159" s="41"/>
+      <c r="AE159" s="41"/>
+      <c r="AF159" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="37"/>
-      <c r="AH159" s="37"/>
-      <c r="AI159" s="37"/>
-      <c r="AJ159" s="37"/>
-      <c r="AK159" s="37"/>
-      <c r="AL159" s="37"/>
-      <c r="AM159" s="37"/>
+      <c r="AG159" s="41"/>
+      <c r="AH159" s="41"/>
+      <c r="AI159" s="41"/>
+      <c r="AJ159" s="41"/>
+      <c r="AK159" s="41"/>
+      <c r="AL159" s="41"/>
+      <c r="AM159" s="41"/>
       <c r="AN159" s="9" t="n">
         <v>158</v>
       </c>
-      <c r="AO159" s="37"/>
-      <c r="AP159" s="37"/>
-      <c r="AQ159" s="37"/>
+      <c r="AO159" s="41"/>
+      <c r="AP159" s="41"/>
+      <c r="AQ159" s="41"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
@@ -15901,67 +15927,67 @@
         <v>44</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E160" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="F160" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E160" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="G160" s="35" t="s">
+      <c r="F160" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H160" s="37"/>
+      <c r="G160" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="H160" s="41"/>
       <c r="I160" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J160" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K160" s="37"/>
-      <c r="L160" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K160" s="41"/>
+      <c r="L160" s="41"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
-      <c r="O160" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="P160" s="37"/>
-      <c r="Q160" s="37"/>
-      <c r="R160" s="37"/>
-      <c r="S160" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T160" s="37"/>
-      <c r="U160" s="37"/>
-      <c r="V160" s="37"/>
-      <c r="W160" s="37"/>
-      <c r="X160" s="37"/>
+      <c r="O160" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="P160" s="41"/>
+      <c r="Q160" s="41"/>
+      <c r="R160" s="41"/>
+      <c r="S160" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T160" s="41"/>
+      <c r="U160" s="41"/>
+      <c r="V160" s="41"/>
+      <c r="W160" s="41"/>
+      <c r="X160" s="41"/>
       <c r="Y160" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z160" s="37"/>
-      <c r="AA160" s="37"/>
-      <c r="AB160" s="37"/>
-      <c r="AC160" s="37"/>
-      <c r="AD160" s="37"/>
-      <c r="AE160" s="37"/>
-      <c r="AF160" s="37" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z160" s="41"/>
+      <c r="AA160" s="41"/>
+      <c r="AB160" s="41"/>
+      <c r="AC160" s="41"/>
+      <c r="AD160" s="41"/>
+      <c r="AE160" s="41"/>
+      <c r="AF160" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="37"/>
-      <c r="AH160" s="37"/>
-      <c r="AI160" s="37"/>
-      <c r="AJ160" s="37"/>
-      <c r="AK160" s="37"/>
-      <c r="AL160" s="37"/>
-      <c r="AM160" s="37"/>
+      <c r="AG160" s="41"/>
+      <c r="AH160" s="41"/>
+      <c r="AI160" s="41"/>
+      <c r="AJ160" s="41"/>
+      <c r="AK160" s="41"/>
+      <c r="AL160" s="41"/>
+      <c r="AM160" s="41"/>
       <c r="AN160" s="9" t="n">
         <v>159</v>
       </c>
-      <c r="AO160" s="37"/>
-      <c r="AP160" s="37"/>
-      <c r="AQ160" s="37"/>
+      <c r="AO160" s="41"/>
+      <c r="AP160" s="41"/>
+      <c r="AQ160" s="41"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
@@ -15974,67 +16000,67 @@
         <v>44</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E161" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="F161" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E161" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="G161" s="35" t="s">
+      <c r="F161" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="H161" s="37"/>
+      <c r="G161" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="H161" s="41"/>
       <c r="I161" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K161" s="37"/>
-      <c r="L161" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K161" s="41"/>
+      <c r="L161" s="41"/>
       <c r="M161" s="18"/>
       <c r="N161" s="18"/>
-      <c r="O161" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="P161" s="37"/>
-      <c r="Q161" s="37"/>
-      <c r="R161" s="37"/>
-      <c r="S161" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T161" s="37"/>
-      <c r="U161" s="37"/>
-      <c r="V161" s="37"/>
-      <c r="W161" s="37"/>
-      <c r="X161" s="37"/>
+      <c r="O161" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41"/>
+      <c r="S161" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41"/>
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
       <c r="Y161" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z161" s="37"/>
-      <c r="AA161" s="37"/>
-      <c r="AB161" s="37"/>
-      <c r="AC161" s="37"/>
-      <c r="AD161" s="37"/>
-      <c r="AE161" s="37"/>
-      <c r="AF161" s="37" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z161" s="41"/>
+      <c r="AA161" s="41"/>
+      <c r="AB161" s="41"/>
+      <c r="AC161" s="41"/>
+      <c r="AD161" s="41"/>
+      <c r="AE161" s="41"/>
+      <c r="AF161" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="37"/>
-      <c r="AH161" s="37"/>
-      <c r="AI161" s="37"/>
-      <c r="AJ161" s="37"/>
-      <c r="AK161" s="37"/>
+      <c r="AG161" s="41"/>
+      <c r="AH161" s="41"/>
+      <c r="AI161" s="41"/>
+      <c r="AJ161" s="41"/>
+      <c r="AK161" s="41"/>
       <c r="AL161" s="9"/>
-      <c r="AM161" s="37"/>
+      <c r="AM161" s="41"/>
       <c r="AN161" s="9" t="n">
         <v>160</v>
       </c>
-      <c r="AO161" s="37"/>
-      <c r="AP161" s="37"/>
-      <c r="AQ161" s="37"/>
+      <c r="AO161" s="41"/>
+      <c r="AP161" s="41"/>
+      <c r="AQ161" s="41"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
@@ -16047,71 +16073,71 @@
         <v>44</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E162" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F162" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E162" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="G162" s="35" t="s">
+      <c r="F162" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="H162" s="37" t="s">
+      <c r="G162" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="H162" s="41" t="s">
         <v>246</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K162" s="37"/>
-      <c r="L162" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K162" s="41"/>
+      <c r="L162" s="41"/>
       <c r="M162" s="18"/>
       <c r="N162" s="18"/>
       <c r="O162" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P162" s="37"/>
-      <c r="Q162" s="37"/>
-      <c r="R162" s="37"/>
-      <c r="S162" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T162" s="37"/>
-      <c r="U162" s="37"/>
-      <c r="V162" s="37"/>
-      <c r="W162" s="37"/>
-      <c r="X162" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P162" s="41"/>
+      <c r="Q162" s="41"/>
+      <c r="R162" s="41"/>
+      <c r="S162" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T162" s="41"/>
+      <c r="U162" s="41"/>
+      <c r="V162" s="41"/>
+      <c r="W162" s="41"/>
+      <c r="X162" s="41"/>
       <c r="Y162" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z162" s="37"/>
-      <c r="AA162" s="37"/>
-      <c r="AB162" s="37"/>
-      <c r="AC162" s="37"/>
-      <c r="AD162" s="37"/>
-      <c r="AE162" s="37"/>
-      <c r="AF162" s="37" t="n">
+        <v>505</v>
+      </c>
+      <c r="Z162" s="41"/>
+      <c r="AA162" s="41"/>
+      <c r="AB162" s="41"/>
+      <c r="AC162" s="41"/>
+      <c r="AD162" s="41"/>
+      <c r="AE162" s="41"/>
+      <c r="AF162" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="37"/>
-      <c r="AH162" s="37"/>
-      <c r="AI162" s="37"/>
-      <c r="AJ162" s="37"/>
-      <c r="AK162" s="37"/>
-      <c r="AL162" s="37"/>
-      <c r="AM162" s="37"/>
+      <c r="AG162" s="41"/>
+      <c r="AH162" s="41"/>
+      <c r="AI162" s="41"/>
+      <c r="AJ162" s="41"/>
+      <c r="AK162" s="41"/>
+      <c r="AL162" s="41"/>
+      <c r="AM162" s="41"/>
       <c r="AN162" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="AO162" s="37" t="n">
+      <c r="AO162" s="41" t="n">
         <v>83</v>
       </c>
-      <c r="AP162" s="37"/>
-      <c r="AQ162" s="37"/>
+      <c r="AP162" s="41"/>
+      <c r="AQ162" s="41"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
@@ -16124,71 +16150,71 @@
         <v>44</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F163" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E163" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="G163" s="35" t="s">
+      <c r="F163" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="H163" s="37" t="s">
+      <c r="G163" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="H163" s="41" t="s">
         <v>274</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K163" s="37"/>
-      <c r="L163" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K163" s="41"/>
+      <c r="L163" s="41"/>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
       <c r="O163" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P163" s="37"/>
-      <c r="Q163" s="37"/>
-      <c r="R163" s="37"/>
-      <c r="S163" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T163" s="37"/>
-      <c r="U163" s="37"/>
-      <c r="V163" s="37"/>
-      <c r="W163" s="37"/>
-      <c r="X163" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P163" s="41"/>
+      <c r="Q163" s="41"/>
+      <c r="R163" s="41"/>
+      <c r="S163" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T163" s="41"/>
+      <c r="U163" s="41"/>
+      <c r="V163" s="41"/>
+      <c r="W163" s="41"/>
+      <c r="X163" s="41"/>
       <c r="Y163" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z163" s="37"/>
-      <c r="AA163" s="37"/>
-      <c r="AB163" s="37"/>
-      <c r="AC163" s="37"/>
-      <c r="AD163" s="37"/>
-      <c r="AE163" s="37"/>
-      <c r="AF163" s="37" t="n">
+        <v>506</v>
+      </c>
+      <c r="Z163" s="41"/>
+      <c r="AA163" s="41"/>
+      <c r="AB163" s="41"/>
+      <c r="AC163" s="41"/>
+      <c r="AD163" s="41"/>
+      <c r="AE163" s="41"/>
+      <c r="AF163" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="37"/>
-      <c r="AH163" s="37"/>
-      <c r="AI163" s="37"/>
-      <c r="AJ163" s="37"/>
-      <c r="AK163" s="37"/>
-      <c r="AL163" s="37"/>
-      <c r="AM163" s="37"/>
+      <c r="AG163" s="41"/>
+      <c r="AH163" s="41"/>
+      <c r="AI163" s="41"/>
+      <c r="AJ163" s="41"/>
+      <c r="AK163" s="41"/>
+      <c r="AL163" s="41"/>
+      <c r="AM163" s="41"/>
       <c r="AN163" s="9" t="n">
         <v>162</v>
       </c>
-      <c r="AO163" s="37" t="n">
+      <c r="AO163" s="41" t="n">
         <v>91</v>
       </c>
-      <c r="AP163" s="37"/>
-      <c r="AQ163" s="37"/>
+      <c r="AP163" s="41"/>
+      <c r="AQ163" s="41"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
@@ -16201,71 +16227,71 @@
         <v>44</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F164" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E164" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="G164" s="35" t="s">
+      <c r="F164" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="H164" s="37" t="s">
+      <c r="G164" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="H164" s="41" t="s">
         <v>265</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K164" s="37"/>
-      <c r="L164" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K164" s="41"/>
+      <c r="L164" s="41"/>
       <c r="M164" s="18"/>
       <c r="N164" s="18"/>
       <c r="O164" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P164" s="37"/>
-      <c r="Q164" s="37"/>
-      <c r="R164" s="37"/>
-      <c r="S164" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T164" s="37"/>
-      <c r="U164" s="37"/>
-      <c r="V164" s="37"/>
-      <c r="W164" s="37"/>
-      <c r="X164" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P164" s="41"/>
+      <c r="Q164" s="41"/>
+      <c r="R164" s="41"/>
+      <c r="S164" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T164" s="41"/>
+      <c r="U164" s="41"/>
+      <c r="V164" s="41"/>
+      <c r="W164" s="41"/>
+      <c r="X164" s="41"/>
       <c r="Y164" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z164" s="37"/>
-      <c r="AA164" s="37"/>
-      <c r="AB164" s="37"/>
-      <c r="AC164" s="37"/>
-      <c r="AD164" s="37"/>
-      <c r="AE164" s="37"/>
-      <c r="AF164" s="37" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z164" s="41"/>
+      <c r="AA164" s="41"/>
+      <c r="AB164" s="41"/>
+      <c r="AC164" s="41"/>
+      <c r="AD164" s="41"/>
+      <c r="AE164" s="41"/>
+      <c r="AF164" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="37"/>
-      <c r="AH164" s="37"/>
-      <c r="AI164" s="37"/>
-      <c r="AJ164" s="37"/>
-      <c r="AK164" s="37"/>
-      <c r="AL164" s="37"/>
-      <c r="AM164" s="37"/>
+      <c r="AG164" s="41"/>
+      <c r="AH164" s="41"/>
+      <c r="AI164" s="41"/>
+      <c r="AJ164" s="41"/>
+      <c r="AK164" s="41"/>
+      <c r="AL164" s="41"/>
+      <c r="AM164" s="41"/>
       <c r="AN164" s="9" t="n">
         <v>163</v>
       </c>
-      <c r="AO164" s="37" t="n">
+      <c r="AO164" s="41" t="n">
         <v>88</v>
       </c>
-      <c r="AP164" s="37"/>
-      <c r="AQ164" s="37"/>
+      <c r="AP164" s="41"/>
+      <c r="AQ164" s="41"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
@@ -16278,71 +16304,71 @@
         <v>44</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F165" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E165" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="G165" s="35" t="s">
+      <c r="F165" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="H165" s="37" t="s">
+      <c r="G165" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="H165" s="41" t="s">
         <v>289</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K165" s="37"/>
-      <c r="L165" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K165" s="41"/>
+      <c r="L165" s="41"/>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
       <c r="O165" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P165" s="37"/>
-      <c r="Q165" s="37"/>
-      <c r="R165" s="37"/>
-      <c r="S165" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T165" s="37"/>
-      <c r="U165" s="37"/>
-      <c r="V165" s="37"/>
-      <c r="W165" s="37"/>
-      <c r="X165" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P165" s="41"/>
+      <c r="Q165" s="41"/>
+      <c r="R165" s="41"/>
+      <c r="S165" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T165" s="41"/>
+      <c r="U165" s="41"/>
+      <c r="V165" s="41"/>
+      <c r="W165" s="41"/>
+      <c r="X165" s="41"/>
       <c r="Y165" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z165" s="37"/>
-      <c r="AA165" s="37"/>
-      <c r="AB165" s="37"/>
-      <c r="AC165" s="37"/>
-      <c r="AD165" s="37"/>
-      <c r="AE165" s="37"/>
-      <c r="AF165" s="37" t="n">
+        <v>508</v>
+      </c>
+      <c r="Z165" s="41"/>
+      <c r="AA165" s="41"/>
+      <c r="AB165" s="41"/>
+      <c r="AC165" s="41"/>
+      <c r="AD165" s="41"/>
+      <c r="AE165" s="41"/>
+      <c r="AF165" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="37"/>
-      <c r="AH165" s="37"/>
-      <c r="AI165" s="37"/>
-      <c r="AJ165" s="37"/>
-      <c r="AK165" s="37"/>
-      <c r="AL165" s="37"/>
-      <c r="AM165" s="37"/>
+      <c r="AG165" s="41"/>
+      <c r="AH165" s="41"/>
+      <c r="AI165" s="41"/>
+      <c r="AJ165" s="41"/>
+      <c r="AK165" s="41"/>
+      <c r="AL165" s="41"/>
+      <c r="AM165" s="41"/>
       <c r="AN165" s="9" t="n">
         <v>164</v>
       </c>
-      <c r="AO165" s="37" t="n">
+      <c r="AO165" s="41" t="n">
         <v>96</v>
       </c>
-      <c r="AP165" s="37"/>
-      <c r="AQ165" s="37"/>
+      <c r="AP165" s="41"/>
+      <c r="AQ165" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ165"/>
@@ -16370,16 +16396,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>352</v>
       </c>
     </row>
@@ -16407,17 +16433,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -16444,21 +16470,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16471,7 +16497,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16479,180 +16505,180 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="41" t="s">
         <v>515</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>516</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="41"/>
+        <v>517</v>
+      </c>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="H8" s="41"/>
+        <v>518</v>
+      </c>
+      <c r="H8" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41"/>
+      <c r="A10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>515</v>
+      <c r="A11" s="45" t="s">
+        <v>516</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="H15" s="41"/>
+        <v>521</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="45"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>515</v>
+      <c r="A18" s="45" t="s">
+        <v>516</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>515</v>
+      <c r="C18" s="45" t="s">
+        <v>516</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="D20" s="42" t="s">
+      <c r="B20" s="46" t="s">
         <v>525</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>528</v>
-      </c>
-      <c r="J25" s="41"/>
+      <c r="G25" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="45" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>528</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>515</v>
+      <c r="B28" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>516</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -16679,53 +16705,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
-        <v>535</v>
+      <c r="B4" s="50" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
